--- a/ТПЭ, л.р. 3, отчет.xlsx
+++ b/ТПЭ, л.р. 3, отчет.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974DA9DB-5E79-4A53-A089-16469F4F1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBBCD4-2042-494D-87A0-AD2DA7B285FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Генерация" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1662,27 +1662,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,6 +1689,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,6 +1730,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1776,33 +1803,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,6 +1813,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,9 +1833,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1842,158 +1845,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5931,13 +5794,13 @@
       <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="5.6640625" customWidth="1"/>
-    <col min="30" max="33" width="15.6640625" customWidth="1"/>
+    <col min="1" max="29" width="5.7109375" customWidth="1"/>
+    <col min="30" max="33" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -6023,45 +5886,45 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="144">
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="137">
         <v>1</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="144">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="137">
         <v>2</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="144">
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="137">
         <v>3</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="144">
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="137">
         <v>4</v>
       </c>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="144">
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="137">
         <v>5</v>
       </c>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="146"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="139"/>
       <c r="AC2" s="22"/>
       <c r="AD2" s="5" t="s">
         <v>0</v>
@@ -6077,10 +5940,10 @@
       </c>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
       <c r="D3" s="46">
         <v>1</v>
       </c>
@@ -6175,11 +6038,11 @@
       </c>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="140">
         <v>1</v>
       </c>
       <c r="C4" s="43">
@@ -6189,7 +6052,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10">
         <f ca="1">RANDBETWEEN($AD$3*F$1+$AE$3*F$3+$AF$3*$A4+$AG$3*$C4-1, $AD$3*F$1+$AE$3*F$3+$AF$3*$A4+$AG$3*$C4+1)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="11"/>
@@ -6228,11 +6091,11 @@
       </c>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="132"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="44">
         <v>2</v>
       </c>
@@ -6259,7 +6122,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="14">
         <f ca="1">RANDBETWEEN($AD$3*Y$1+$AE$3*Y$3+$AF$3*$A5+$AG$3*$C5-1, $AD$3*Y$1+$AE$3*Y$3+$AF$3*$A5+$AG$3*$C5+1)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
@@ -6279,11 +6142,11 @@
       </c>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="132"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44">
         <v>3</v>
       </c>
@@ -6304,7 +6167,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="15">
         <f ca="1">RANDBETWEEN($AD$3*S$1+$AE$3*S$3+$AF$3*$A6+$AG$3*$C6-1, $AD$3*S$1+$AE$3*S$3+$AF$3*$A6+$AG$3*$C6+1)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -6322,11 +6185,11 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="132"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="44">
         <v>4</v>
       </c>
@@ -6341,7 +6204,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="16">
         <f ca="1">RANDBETWEEN($AD$3*M$1+$AE$3*M$3+$AF$3*$A7+$AG$3*$C7-1, $AD$3*M$1+$AE$3*M$3+$AF$3*$A7+$AG$3*$C7+1)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
@@ -6359,19 +6222,19 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="138" t="s">
+      <c r="AD7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="140"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="133"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="133"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="45">
         <v>5</v>
       </c>
@@ -6390,7 +6253,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="18">
         <f ca="1">RANDBETWEEN($AD$3*Q$1+$AE$3*Q$3+$AF$3*$A8+$AG$3*$C8-1, $AD$3*Q$1+$AE$3*Q$3+$AF$3*$A8+$AG$3*$C8+1)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="17"/>
@@ -6418,11 +6281,11 @@
       </c>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="131">
+      <c r="B9" s="140">
         <v>2</v>
       </c>
       <c r="C9" s="43">
@@ -6444,7 +6307,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="19">
         <f ca="1">RANDBETWEEN($AD$3*R$1+$AE$3*R$3+$AF$3*$A9+$AG$3*$C9-1, $AD$3*R$1+$AE$3*R$3+$AF$3*$A9+$AG$3*$C9+1)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="9"/>
@@ -6471,11 +6334,11 @@
       </c>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="44">
         <v>2</v>
       </c>
@@ -6508,19 +6371,19 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="22"/>
-      <c r="AD10" s="138" t="s">
+      <c r="AD10" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="140"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="133"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40">
         <v>2</v>
       </c>
-      <c r="B11" s="132"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="44">
         <v>3</v>
       </c>
@@ -6548,25 +6411,25 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="14">
         <f ca="1">RANDBETWEEN($AD$3*Z$1+$AE$3*Z$3+$AF$3*$A11+$AG$3*$C11-1, $AD$3*Z$1+$AE$3*Z$3+$AF$3*$A11+$AG$3*$C11+1)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="141">
+      <c r="AD11" s="134">
         <f>AD3*AD9+AE3*AE9+AF3*AF9+AG3*AG9</f>
         <v>34</v>
       </c>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="143"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="132"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="44">
         <v>4</v>
       </c>
@@ -6605,11 +6468,11 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40">
         <v>2</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="45">
         <v>5</v>
       </c>
@@ -6648,11 +6511,11 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>3</v>
       </c>
-      <c r="B14" s="131">
+      <c r="B14" s="140">
         <v>3</v>
       </c>
       <c r="C14" s="43">
@@ -6666,7 +6529,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="10">
         <f ca="1">RANDBETWEEN($AD$3*J$1+$AE$3*J$3+$AF$3*$A14+$AG$3*$C14-1, $AD$3*J$1+$AE$3*J$3+$AF$3*$A14+$AG$3*$C14+1)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6693,11 +6556,11 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>3</v>
       </c>
-      <c r="B15" s="132"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="44">
         <v>2</v>
       </c>
@@ -6713,7 +6576,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="15">
         <f ca="1">RANDBETWEEN($AD$3*N$1+$AE$3*N$3+$AF$3*$A15+$AG$3*$C15-1, $AD$3*N$1+$AE$3*N$3+$AF$3*$A15+$AG$3*$C15+1)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -6736,11 +6599,11 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>3</v>
       </c>
-      <c r="B16" s="132"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="44">
         <v>3</v>
       </c>
@@ -6750,7 +6613,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="16">
         <f ca="1">RANDBETWEEN($AD$3*H$1+$AE$3*H$3+$AF$3*$A16+$AG$3*$C16-1, $AD$3*H$1+$AE$3*H$3+$AF$3*$A16+$AG$3*$C16+1)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
@@ -6779,11 +6642,11 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>3</v>
       </c>
-      <c r="B17" s="132"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="44">
         <v>4</v>
       </c>
@@ -6822,11 +6685,11 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40">
         <v>3</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="45">
         <v>5</v>
       </c>
@@ -6849,7 +6712,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="18">
         <f ca="1">RANDBETWEEN($AD$3*U$1+$AE$3*U$3+$AF$3*$A18+$AG$3*$C18-1, $AD$3*U$1+$AE$3*U$3+$AF$3*$A18+$AG$3*$C18+1)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="3"/>
@@ -6865,11 +6728,11 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>4</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="140">
         <v>4</v>
       </c>
       <c r="C19" s="43">
@@ -6910,11 +6773,11 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="132"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="44">
         <v>2</v>
       </c>
@@ -6953,11 +6816,11 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>4</v>
       </c>
-      <c r="B21" s="132"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="44">
         <v>3</v>
       </c>
@@ -6996,11 +6859,11 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>4</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="44">
         <v>4</v>
       </c>
@@ -7039,18 +6902,18 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40">
         <v>4</v>
       </c>
-      <c r="B23" s="133"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="45">
         <v>5</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
         <f ca="1">RANDBETWEEN($AD$3*E$1+$AE$3*E$3+$AF$3*$A23+$AG$3*$C23-1, $AD$3*E$1+$AE$3*E$3+$AF$3*$A23+$AG$3*$C23+1)</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -7082,11 +6945,11 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>5</v>
       </c>
-      <c r="B24" s="131">
+      <c r="B24" s="140">
         <v>5</v>
       </c>
       <c r="C24" s="43">
@@ -7127,11 +6990,11 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>5</v>
       </c>
-      <c r="B25" s="132"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="44">
         <v>2</v>
       </c>
@@ -7170,11 +7033,11 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>5</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="44">
         <v>3</v>
       </c>
@@ -7191,7 +7054,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="14">
         <f ca="1">RANDBETWEEN($AD$3*O$1+$AE$3*O$3+$AF$3*$A26+$AG$3*$C26-1, $AD$3*O$1+$AE$3*O$3+$AF$3*$A26+$AG$3*$C26+1)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -7213,17 +7076,17 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>5</v>
       </c>
-      <c r="B27" s="132"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="44">
         <v>4</v>
       </c>
       <c r="D27" s="15">
         <f ca="1">RANDBETWEEN($AD$3*D$1+$AE$3*D$3+$AF$3*$A27+$AG$3*$C27-1, $AD$3*D$1+$AE$3*D$3+$AF$3*$A27+$AG$3*$C27+1)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -7256,11 +7119,11 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40">
         <v>5</v>
       </c>
-      <c r="B28" s="133"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="45">
         <v>5</v>
       </c>
@@ -7290,7 +7153,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="21">
         <f ca="1">RANDBETWEEN($AD$3*AB$1+$AE$3*AB$3+$AF$3*$A28+$AG$3*$C28-1, $AD$3*AB$1+$AE$3*AB$3+$AF$3*$A28+$AG$3*$C28+1)</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC28" s="22"/>
       <c r="AD28" s="1"/>
@@ -7299,7 +7162,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -7335,7 +7198,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -7367,7 +7230,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -7399,7 +7262,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7435,7 +7298,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -7471,7 +7334,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7507,7 +7370,7 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7545,6 +7408,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -7553,12 +7422,6 @@
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7572,52 +7435,52 @@
       <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="5.6640625" customWidth="1"/>
+    <col min="1" max="29" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="150"/>
       <c r="C2" s="151"/>
-      <c r="D2" s="138">
+      <c r="D2" s="131">
         <v>1</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="138">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="131">
         <v>2</v>
       </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="138">
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="131">
         <v>3</v>
       </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="138">
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="131">
         <v>4</v>
       </c>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="138">
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="131">
         <v>5</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="140"/>
-    </row>
-    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="133"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="152"/>
       <c r="C3" s="153"/>
       <c r="D3" s="59">
@@ -7696,7 +7559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="147">
         <v>1</v>
       </c>
@@ -7731,7 +7594,7 @@
       <c r="AA4" s="49"/>
       <c r="AB4" s="54"/>
     </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="148"/>
       <c r="C5" s="57">
         <v>2</v>
@@ -7764,7 +7627,7 @@
       <c r="AA5" s="27"/>
       <c r="AB5" s="32"/>
     </row>
-    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="148"/>
       <c r="C6" s="57">
         <v>3</v>
@@ -7797,7 +7660,7 @@
       <c r="AA6" s="27"/>
       <c r="AB6" s="32"/>
     </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="148"/>
       <c r="C7" s="57">
         <v>4</v>
@@ -7830,7 +7693,7 @@
       <c r="AA7" s="27"/>
       <c r="AB7" s="32"/>
     </row>
-    <row r="8" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="149"/>
       <c r="C8" s="58">
         <v>5</v>
@@ -7863,7 +7726,7 @@
       <c r="AA8" s="34"/>
       <c r="AB8" s="35"/>
     </row>
-    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="147">
         <v>2</v>
       </c>
@@ -7898,7 +7761,7 @@
       <c r="AA9" s="49"/>
       <c r="AB9" s="54"/>
     </row>
-    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="148"/>
       <c r="C10" s="57">
         <v>2</v>
@@ -7931,7 +7794,7 @@
       <c r="AA10" s="27"/>
       <c r="AB10" s="32"/>
     </row>
-    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="148"/>
       <c r="C11" s="57">
         <v>3</v>
@@ -7964,7 +7827,7 @@
       <c r="AA11" s="27"/>
       <c r="AB11" s="32"/>
     </row>
-    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="148"/>
       <c r="C12" s="57">
         <v>4</v>
@@ -7997,7 +7860,7 @@
       <c r="AA12" s="27"/>
       <c r="AB12" s="32"/>
     </row>
-    <row r="13" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="149"/>
       <c r="C13" s="58">
         <v>5</v>
@@ -8030,7 +7893,7 @@
       <c r="AA13" s="34"/>
       <c r="AB13" s="35"/>
     </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="147">
         <v>3</v>
       </c>
@@ -8065,7 +7928,7 @@
       <c r="AA14" s="49"/>
       <c r="AB14" s="54"/>
     </row>
-    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="148"/>
       <c r="C15" s="57">
         <v>2</v>
@@ -8098,7 +7961,7 @@
       <c r="AA15" s="27"/>
       <c r="AB15" s="32"/>
     </row>
-    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="148"/>
       <c r="C16" s="57">
         <v>3</v>
@@ -8131,7 +7994,7 @@
       <c r="AA16" s="27"/>
       <c r="AB16" s="32"/>
     </row>
-    <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="148"/>
       <c r="C17" s="57">
         <v>4</v>
@@ -8164,7 +8027,7 @@
       </c>
       <c r="AB17" s="32"/>
     </row>
-    <row r="18" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="149"/>
       <c r="C18" s="58">
         <v>5</v>
@@ -8197,7 +8060,7 @@
       <c r="AA18" s="34"/>
       <c r="AB18" s="35"/>
     </row>
-    <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="147">
         <v>4</v>
       </c>
@@ -8232,7 +8095,7 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="54"/>
     </row>
-    <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="148"/>
       <c r="C20" s="57">
         <v>2</v>
@@ -8265,7 +8128,7 @@
       <c r="AA20" s="27"/>
       <c r="AB20" s="32"/>
     </row>
-    <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="148"/>
       <c r="C21" s="57">
         <v>3</v>
@@ -8298,7 +8161,7 @@
       <c r="AA21" s="27"/>
       <c r="AB21" s="32"/>
     </row>
-    <row r="22" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="148"/>
       <c r="C22" s="57">
         <v>4</v>
@@ -8331,7 +8194,7 @@
       <c r="AA22" s="27"/>
       <c r="AB22" s="32"/>
     </row>
-    <row r="23" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="149"/>
       <c r="C23" s="58">
         <v>5</v>
@@ -8364,7 +8227,7 @@
       <c r="AA23" s="34"/>
       <c r="AB23" s="35"/>
     </row>
-    <row r="24" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="147">
         <v>5</v>
       </c>
@@ -8399,7 +8262,7 @@
       <c r="AA24" s="49"/>
       <c r="AB24" s="54"/>
     </row>
-    <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="148"/>
       <c r="C25" s="57">
         <v>2</v>
@@ -8432,7 +8295,7 @@
       <c r="AA25" s="27"/>
       <c r="AB25" s="32"/>
     </row>
-    <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="148"/>
       <c r="C26" s="57">
         <v>3</v>
@@ -8465,7 +8328,7 @@
       <c r="AA26" s="27"/>
       <c r="AB26" s="32"/>
     </row>
-    <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="148"/>
       <c r="C27" s="57">
         <v>4</v>
@@ -8498,7 +8361,7 @@
       <c r="AA27" s="27"/>
       <c r="AB27" s="32"/>
     </row>
-    <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="149"/>
       <c r="C28" s="58">
         <v>5</v>
@@ -8531,8 +8394,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B19:B23"/>
@@ -8559,25 +8422,25 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="26" width="12.6640625" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="26" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="140"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="147" t="s">
         <v>16</v>
       </c>
@@ -8633,7 +8496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="149"/>
       <c r="C3" s="90">
         <v>1</v>
@@ -8651,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="149"/>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="175" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="66">
@@ -8715,7 +8578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="84">
         <v>1</v>
       </c>
@@ -8743,7 +8606,7 @@
         <f>AVERAGE(C4:G4)</f>
         <v>77.400000000000006</v>
       </c>
-      <c r="J4" s="167"/>
+      <c r="J4" s="176"/>
       <c r="K4" s="31">
         <v>2</v>
       </c>
@@ -8805,7 +8668,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65">
         <v>2</v>
       </c>
@@ -8833,7 +8696,7 @@
         <f t="shared" ref="H5:H8" si="8">AVERAGE(C5:G5)</f>
         <v>81</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="176"/>
       <c r="K5" s="31">
         <v>3</v>
       </c>
@@ -8895,7 +8758,7 @@
         <v>252.60000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65">
         <v>3</v>
       </c>
@@ -8923,7 +8786,7 @@
         <f t="shared" si="8"/>
         <v>84.8</v>
       </c>
-      <c r="J6" s="167"/>
+      <c r="J6" s="176"/>
       <c r="K6" s="31">
         <v>4</v>
       </c>
@@ -8985,7 +8848,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="65">
         <v>4</v>
       </c>
@@ -9013,7 +8876,7 @@
         <f t="shared" si="8"/>
         <v>86.8</v>
       </c>
-      <c r="J7" s="168"/>
+      <c r="J7" s="177"/>
       <c r="K7" s="88">
         <v>5</v>
       </c>
@@ -9075,7 +8938,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="85">
         <v>5</v>
       </c>
@@ -9171,7 +9034,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
@@ -9256,7 +9119,7 @@
         <v>33.059999999999938</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -9264,59 +9127,59 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="J10" s="166" t="s">
+      <c r="J10" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="171"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="156"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="174"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="176"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="159"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="149"/>
       <c r="C12" s="90">
         <v>1</v>
@@ -9334,25 +9197,25 @@
         <v>5</v>
       </c>
       <c r="H12" s="149"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="174"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="176"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="158"/>
+      <c r="U12" s="158"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="159"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="84">
         <v>1</v>
       </c>
@@ -9380,25 +9243,25 @@
         <f>AVERAGE(C13:G13)</f>
         <v>50</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="174"/>
-    </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="176"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="159"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65">
         <v>2</v>
       </c>
@@ -9426,25 +9289,25 @@
         <f t="shared" ref="H14:H17" si="11">AVERAGE(C14:G14)</f>
         <v>67.2</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="174"/>
-    </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="176"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="159"/>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65">
         <v>3</v>
       </c>
@@ -9472,25 +9335,25 @@
         <f t="shared" si="11"/>
         <v>84.2</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="174"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="176"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="158"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="157"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="158"/>
+      <c r="Z15" s="159"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65">
         <v>4</v>
       </c>
@@ -9518,25 +9381,25 @@
         <f t="shared" si="11"/>
         <v>101</v>
       </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="174"/>
-    </row>
-    <row r="17" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="176"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="159"/>
+    </row>
+    <row r="17" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="85">
         <v>5</v>
       </c>
@@ -9564,25 +9427,25 @@
         <f t="shared" si="11"/>
         <v>118.2</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="174"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="174"/>
-    </row>
-    <row r="18" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="176"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="159"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="157"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="159"/>
+    </row>
+    <row r="18" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="86" t="s">
         <v>16</v>
       </c>
@@ -9607,25 +9470,25 @@
         <v>93.8</v>
       </c>
       <c r="H18" s="78"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="176"/>
-      <c r="U18" s="176"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="176"/>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="177"/>
-    </row>
-    <row r="19" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="177"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="162"/>
+    </row>
+    <row r="19" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -9671,7 +9534,7 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>38</v>
@@ -9746,7 +9609,7 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="36">
         <f>L9</f>
@@ -9832,15 +9695,15 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="174"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -9906,15 +9769,15 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="162"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="171"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -9980,7 +9843,7 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -10052,7 +9915,7 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="100" t="s">
         <v>50</v>
@@ -10134,7 +9997,7 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="101">
         <f>AVERAGE(O21:O45)</f>
@@ -10218,7 +10081,7 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -10290,15 +10153,15 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -10364,13 +10227,13 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -10436,7 +10299,7 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -10508,7 +10371,7 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -10580,7 +10443,7 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -10652,7 +10515,7 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -10724,7 +10587,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10796,7 +10659,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -10868,7 +10731,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -10940,7 +10803,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -11012,7 +10875,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -11084,7 +10947,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -11156,7 +11019,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -11228,7 +11091,7 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -11300,7 +11163,7 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -11372,7 +11235,7 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -11444,7 +11307,7 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -11516,7 +11379,7 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -11588,7 +11451,7 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -11634,7 +11497,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -11680,7 +11543,7 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -11726,7 +11589,7 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -11764,7 +11627,7 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="93"/>
     </row>
-    <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -11802,7 +11665,7 @@
       <c r="AI50" s="22"/>
       <c r="AJ50" s="93"/>
     </row>
-    <row r="51" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -11839,7 +11702,7 @@
       <c r="AH51" s="22"/>
       <c r="AI51" s="22"/>
     </row>
-    <row r="52" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -11876,7 +11739,7 @@
       <c r="AH52" s="22"/>
       <c r="AI52" s="22"/>
     </row>
-    <row r="53" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -11913,7 +11776,7 @@
       <c r="AH53" s="22"/>
       <c r="AI53" s="22"/>
     </row>
-    <row r="54" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -11950,7 +11813,7 @@
       <c r="AH54" s="22"/>
       <c r="AI54" s="22"/>
     </row>
-    <row r="55" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -11987,7 +11850,7 @@
       <c r="AH55" s="22"/>
       <c r="AI55" s="22"/>
     </row>
-    <row r="56" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -12024,7 +11887,7 @@
       <c r="AH56" s="22"/>
       <c r="AI56" s="22"/>
     </row>
-    <row r="57" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -12061,7 +11924,7 @@
       <c r="AH57" s="22"/>
       <c r="AI57" s="22"/>
     </row>
-    <row r="58" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -12098,7 +11961,7 @@
       <c r="AH58" s="22"/>
       <c r="AI58" s="22"/>
     </row>
-    <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -12135,7 +11998,7 @@
       <c r="AH59" s="22"/>
       <c r="AI59" s="22"/>
     </row>
-    <row r="60" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -12172,7 +12035,7 @@
       <c r="AH60" s="22"/>
       <c r="AI60" s="22"/>
     </row>
-    <row r="61" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -12209,7 +12072,7 @@
       <c r="AH61" s="22"/>
       <c r="AI61" s="22"/>
     </row>
-    <row r="62" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -12246,7 +12109,7 @@
       <c r="AH62" s="22"/>
       <c r="AI62" s="22"/>
     </row>
-    <row r="63" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -12283,7 +12146,7 @@
       <c r="AH63" s="22"/>
       <c r="AI63" s="22"/>
     </row>
-    <row r="64" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -12320,7 +12183,7 @@
       <c r="AH64" s="22"/>
       <c r="AI64" s="22"/>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -12357,7 +12220,7 @@
       <c r="AH65" s="22"/>
       <c r="AI65" s="22"/>
     </row>
-    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -12394,7 +12257,7 @@
       <c r="AH66" s="22"/>
       <c r="AI66" s="22"/>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -12431,7 +12294,7 @@
       <c r="AH67" s="22"/>
       <c r="AI67" s="22"/>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -12468,7 +12331,7 @@
       <c r="AH68" s="22"/>
       <c r="AI68" s="22"/>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -12505,7 +12368,7 @@
       <c r="AH69" s="22"/>
       <c r="AI69" s="22"/>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -12542,7 +12405,7 @@
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
     </row>
-    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -12579,7 +12442,7 @@
       <c r="AH71" s="22"/>
       <c r="AI71" s="22"/>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -12616,7 +12479,7 @@
       <c r="AH72" s="22"/>
       <c r="AI72" s="22"/>
     </row>
-    <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -12653,7 +12516,7 @@
       <c r="AH73" s="22"/>
       <c r="AI73" s="22"/>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -12690,7 +12553,7 @@
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
     </row>
-    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -12727,7 +12590,7 @@
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -12764,7 +12627,7 @@
       <c r="AH76" s="22"/>
       <c r="AI76" s="22"/>
     </row>
-    <row r="77" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -12801,7 +12664,7 @@
       <c r="AH77" s="22"/>
       <c r="AI77" s="22"/>
     </row>
-    <row r="78" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -12838,7 +12701,7 @@
       <c r="AH78" s="22"/>
       <c r="AI78" s="22"/>
     </row>
-    <row r="79" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -12875,7 +12738,7 @@
       <c r="AH79" s="22"/>
       <c r="AI79" s="22"/>
     </row>
-    <row r="80" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -12912,7 +12775,7 @@
       <c r="AH80" s="22"/>
       <c r="AI80" s="22"/>
     </row>
-    <row r="81" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -12949,7 +12812,7 @@
       <c r="AH81" s="22"/>
       <c r="AI81" s="22"/>
     </row>
-    <row r="82" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -12986,7 +12849,7 @@
       <c r="AH82" s="22"/>
       <c r="AI82" s="22"/>
     </row>
-    <row r="83" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -13023,7 +12886,7 @@
       <c r="AH83" s="22"/>
       <c r="AI83" s="22"/>
     </row>
-    <row r="84" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -13060,7 +12923,7 @@
       <c r="AH84" s="22"/>
       <c r="AI84" s="22"/>
     </row>
-    <row r="85" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -13097,7 +12960,7 @@
       <c r="AH85" s="22"/>
       <c r="AI85" s="22"/>
     </row>
-    <row r="86" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -13134,7 +12997,7 @@
       <c r="AH86" s="22"/>
       <c r="AI86" s="22"/>
     </row>
-    <row r="87" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -13171,7 +13034,7 @@
       <c r="AH87" s="22"/>
       <c r="AI87" s="22"/>
     </row>
-    <row r="88" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -13208,7 +13071,7 @@
       <c r="AH88" s="22"/>
       <c r="AI88" s="22"/>
     </row>
-    <row r="89" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -13245,7 +13108,7 @@
       <c r="AH89" s="22"/>
       <c r="AI89" s="22"/>
     </row>
-    <row r="90" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -13282,7 +13145,7 @@
       <c r="AH90" s="22"/>
       <c r="AI90" s="22"/>
     </row>
-    <row r="91" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -13319,7 +13182,7 @@
       <c r="AH91" s="22"/>
       <c r="AI91" s="22"/>
     </row>
-    <row r="92" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -13356,7 +13219,7 @@
       <c r="AH92" s="22"/>
       <c r="AI92" s="22"/>
     </row>
-    <row r="93" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -13393,7 +13256,7 @@
       <c r="AH93" s="22"/>
       <c r="AI93" s="22"/>
     </row>
-    <row r="94" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -13430,7 +13293,7 @@
       <c r="AH94" s="22"/>
       <c r="AI94" s="22"/>
     </row>
-    <row r="95" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -13467,7 +13330,7 @@
       <c r="AH95" s="22"/>
       <c r="AI95" s="22"/>
     </row>
-    <row r="96" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -13504,7 +13367,7 @@
       <c r="AH96" s="22"/>
       <c r="AI96" s="22"/>
     </row>
-    <row r="97" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -13541,7 +13404,7 @@
       <c r="AH97" s="22"/>
       <c r="AI97" s="22"/>
     </row>
-    <row r="98" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -13578,7 +13441,7 @@
       <c r="AH98" s="22"/>
       <c r="AI98" s="22"/>
     </row>
-    <row r="99" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -13615,7 +13478,7 @@
       <c r="AH99" s="22"/>
       <c r="AI99" s="22"/>
     </row>
-    <row r="100" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -13652,7 +13515,7 @@
       <c r="AH100" s="22"/>
       <c r="AI100" s="22"/>
     </row>
-    <row r="101" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -13689,7 +13552,7 @@
       <c r="AH101" s="22"/>
       <c r="AI101" s="22"/>
     </row>
-    <row r="102" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -13726,7 +13589,7 @@
       <c r="AH102" s="22"/>
       <c r="AI102" s="22"/>
     </row>
-    <row r="103" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -13763,7 +13626,7 @@
       <c r="AH103" s="22"/>
       <c r="AI103" s="22"/>
     </row>
-    <row r="104" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -13800,7 +13663,7 @@
       <c r="AH104" s="22"/>
       <c r="AI104" s="22"/>
     </row>
-    <row r="105" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -13837,7 +13700,7 @@
       <c r="AH105" s="22"/>
       <c r="AI105" s="22"/>
     </row>
-    <row r="106" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -13874,7 +13737,7 @@
       <c r="AH106" s="22"/>
       <c r="AI106" s="22"/>
     </row>
-    <row r="107" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -13911,7 +13774,7 @@
       <c r="AH107" s="22"/>
       <c r="AI107" s="22"/>
     </row>
-    <row r="108" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -13948,7 +13811,7 @@
       <c r="AH108" s="22"/>
       <c r="AI108" s="22"/>
     </row>
-    <row r="109" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
@@ -13985,7 +13848,7 @@
       <c r="AH109" s="22"/>
       <c r="AI109" s="22"/>
     </row>
-    <row r="110" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -14022,7 +13885,7 @@
       <c r="AH110" s="22"/>
       <c r="AI110" s="22"/>
     </row>
-    <row r="111" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -14059,7 +13922,7 @@
       <c r="AH111" s="22"/>
       <c r="AI111" s="22"/>
     </row>
-    <row r="112" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -14096,7 +13959,7 @@
       <c r="AH112" s="22"/>
       <c r="AI112" s="22"/>
     </row>
-    <row r="113" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -14133,7 +13996,7 @@
       <c r="AH113" s="22"/>
       <c r="AI113" s="22"/>
     </row>
-    <row r="114" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -14170,7 +14033,7 @@
       <c r="AH114" s="22"/>
       <c r="AI114" s="22"/>
     </row>
-    <row r="115" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -14209,6 +14072,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="K10:N18"/>
     <mergeCell ref="O10:R18"/>
     <mergeCell ref="S10:V18"/>
@@ -14217,13 +14087,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14239,17 +14102,17 @@
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="40.77734375" customWidth="1"/>
-    <col min="13" max="18" width="20.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="30.77734375" customWidth="1"/>
-    <col min="21" max="28" width="10.77734375" customWidth="1"/>
+    <col min="1" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1"/>
+    <col min="21" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -14303,7 +14166,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="95" t="s">
         <v>11</v>
@@ -14397,7 +14260,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="66">
         <v>1</v>
@@ -14426,7 +14289,7 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="182">
+      <c r="L3" s="184">
         <v>0</v>
       </c>
       <c r="M3" s="66">
@@ -14449,7 +14312,7 @@
         <f>SUMPRODUCT($B$30:$E$30,M3:P3)+$F$30</f>
         <v>-5.8549229742000541</v>
       </c>
-      <c r="R3" s="185">
+      <c r="R3" s="187">
         <f>MAX(Q3:Q7)-MIN(Q3:Q7)</f>
         <v>16.799392174200015</v>
       </c>
@@ -14459,23 +14322,23 @@
       </c>
       <c r="U3" s="130" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDIRECT("M" &amp; MAX(IF(Q:Q=Y3, ROW(Q:Q), )))</f>
-        <v>4.7565903025746463</v>
+        <v>4.7725691298701198</v>
       </c>
       <c r="V3" s="130" cm="1">
         <f t="array" aca="1" ref="V3" ca="1">INDIRECT("N" &amp; MAX(IF(Q:Q=Y3, ROW(Q:Q), )))</f>
-        <v>4.7491989247942064</v>
+        <v>4.8711110806548872</v>
       </c>
       <c r="W3" s="130" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDIRECT("O" &amp; MAX(IF(Q:Q=Y3, ROW(Q:Q), )))</f>
-        <v>5</v>
+        <v>4.9261657922271027</v>
       </c>
       <c r="X3" s="130" cm="1">
         <f t="array" aca="1" ref="X3" ca="1">INDIRECT("P" &amp; MAX(IF(Q:Q=Y3, ROW(Q:Q), )))</f>
-        <v>4.9244535447629154</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="87">
         <f ca="1">MAX(INDIRECT("Q" &amp; COUNTA(P:P)-5):INDIRECT("Q" &amp; COUNTA(P:P)-1))</f>
-        <v>137.3002045229627</v>
+        <v>138.66035832369985</v>
       </c>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
@@ -14505,7 +14368,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="31">
         <v>1</v>
@@ -14534,7 +14397,7 @@
         <v>0.28867513</v>
       </c>
       <c r="K4" s="22"/>
-      <c r="L4" s="183"/>
+      <c r="L4" s="185"/>
       <c r="M4" s="31">
         <f>I3</f>
         <v>0.5</v>
@@ -14555,7 +14418,7 @@
         <f t="shared" ref="Q4:Q7" si="0">SUMPRODUCT($B$30:$E$30,M4:P4)+$F$30</f>
         <v>-3.0349229742000543</v>
       </c>
-      <c r="R4" s="186"/>
+      <c r="R4" s="183"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
@@ -14591,7 +14454,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="31">
         <v>1</v>
@@ -14620,7 +14483,7 @@
         <v>0.20412415</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="183"/>
+      <c r="L5" s="185"/>
       <c r="M5" s="31">
         <v>0</v>
       </c>
@@ -14640,7 +14503,7 @@
         <f t="shared" si="0"/>
         <v>-1.656322055600054</v>
       </c>
-      <c r="R5" s="186"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="V5" s="22"/>
@@ -14675,7 +14538,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="31">
         <v>1</v>
@@ -14704,7 +14567,7 @@
         <v>0.15811388000000001</v>
       </c>
       <c r="K6" s="22"/>
-      <c r="L6" s="183"/>
+      <c r="L6" s="185"/>
       <c r="M6" s="31">
         <v>0</v>
       </c>
@@ -14723,7 +14586,7 @@
         <f t="shared" si="0"/>
         <v>0.50176216239994553</v>
       </c>
-      <c r="R6" s="186"/>
+      <c r="R6" s="183"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
@@ -14759,7 +14622,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -14782,7 +14645,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="184"/>
+      <c r="L7" s="186"/>
       <c r="M7" s="88">
         <v>0</v>
       </c>
@@ -14800,7 +14663,7 @@
         <f t="shared" si="0"/>
         <v>10.944469199999959</v>
       </c>
-      <c r="R7" s="187"/>
+      <c r="R7" s="188"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
@@ -14836,7 +14699,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -14921,7 +14784,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>2</v>
@@ -15001,7 +14864,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>2</v>
@@ -15081,7 +14944,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>2</v>
@@ -15161,7 +15024,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>2</v>
@@ -15184,7 +15047,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="188"/>
+      <c r="L12" s="189"/>
       <c r="M12" s="75">
         <f t="shared" ref="M12:P12" si="6">M7+3</f>
         <v>3</v>
@@ -15205,7 +15068,7 @@
         <f>SUMPRODUCT($B$30:$E$30,M12:P12)+$F$30</f>
         <v>94.884469200000012</v>
       </c>
-      <c r="R12" s="188"/>
+      <c r="R12" s="189"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -15241,7 +15104,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>3</v>
@@ -15268,22 +15131,22 @@
         <v>60</v>
       </c>
       <c r="M13" s="122">
-        <f>IF($Q8=MIN($Q8:$Q12),-M8,M8)+IF($Q9=MIN($Q8:$Q12),-M9,M9)+IF($Q10=MIN($Q8:$Q12),-M10,M10)+IF($Q11=MIN($Q8:$Q12), M11,M11)+IF($Q12=MIN($Q8:$Q12),-M12,M12)</f>
+        <f>IF($Q8=MIN($Q8:$Q12),-M8,M8)+IF($Q9=MIN($Q8:$Q12),-M9,M9)+IF($Q10=MIN($Q8:$Q12),-M10,M10)+IF($Q11=MIN($Q8:$Q12), -M11,M11)+IF($Q12=MIN($Q8:$Q12),-M12,M12)</f>
         <v>10</v>
       </c>
       <c r="N13" s="123">
-        <f>IF($Q8=MIN($Q8:$Q12),-N8,N8)+IF($Q9=MIN($Q8:$Q12),-N9,N9)+IF($Q10=MIN($Q8:$Q12),-N10,N10)+IF($Q11=MIN($Q8:$Q12), N11,N11)+IF($Q12=MIN($Q8:$Q12),-N12,N12)</f>
+        <f>IF($Q8=MIN($Q8:$Q12),-N8,N8)+IF($Q9=MIN($Q8:$Q12),-N9,N9)+IF($Q10=MIN($Q8:$Q12),-N10,N10)+IF($Q11=MIN($Q8:$Q12), -N11,N11)+IF($Q12=MIN($Q8:$Q12),-N12,N12)</f>
         <v>9.5773499999999991</v>
       </c>
       <c r="O13" s="123">
-        <f>IF($Q8=MIN($Q8:$Q12),-O8,O8)+IF($Q9=MIN($Q8:$Q12),-O9,O9)+IF($Q10=MIN($Q8:$Q12),-O10,O10)+IF($Q11=MIN($Q8:$Q12), O11,O11)+IF($Q12=MIN($Q8:$Q12),-O12,O12)</f>
+        <f>IF($Q8=MIN($Q8:$Q12),-O8,O8)+IF($Q9=MIN($Q8:$Q12),-O9,O9)+IF($Q10=MIN($Q8:$Q12),-O10,O10)+IF($Q11=MIN($Q8:$Q12), -O11,O11)+IF($Q12=MIN($Q8:$Q12),-O12,O12)</f>
         <v>9.4082458500000001</v>
       </c>
       <c r="P13" s="124">
-        <f>IF($Q8=MIN($Q8:$Q12),-P8,P8)+IF($Q9=MIN($Q8:$Q12),-P9,P9)+IF($Q10=MIN($Q8:$Q12),-P10,P10)+IF($Q11=MIN($Q8:$Q12), P11,P11)+IF($Q12=MIN($Q8:$Q12),-P12,P12)</f>
+        <f>IF($Q8=MIN($Q8:$Q12),-P8,P8)+IF($Q9=MIN($Q8:$Q12),-P9,P9)+IF($Q10=MIN($Q8:$Q12),-P10,P10)+IF($Q11=MIN($Q8:$Q12), -P11,P11)+IF($Q12=MIN($Q8:$Q12),-P12,P12)</f>
         <v>9.3162322399999997</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="190">
         <f>MAX(M13:P13)</f>
         <v>10</v>
       </c>
@@ -15326,7 +15189,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>3</v>
@@ -15368,7 +15231,7 @@
         <f t="shared" si="7"/>
         <v>4.6581161199999999</v>
       </c>
-      <c r="Q14" s="190"/>
+      <c r="Q14" s="191"/>
       <c r="R14" s="179"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -15405,7 +15268,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="31">
         <v>3</v>
@@ -15451,7 +15314,7 @@
         <f>SUMPRODUCT($B$30:$E$30,M15:P15)+$F$30</f>
         <v>132.12495465340004</v>
       </c>
-      <c r="R15" s="191">
+      <c r="R15" s="182">
         <f>MAX(Q15:Q19)-MIN(Q15:Q19)</f>
         <v>51.219877627600042</v>
       </c>
@@ -15490,7 +15353,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="31">
         <v>3</v>
@@ -15534,7 +15397,7 @@
         <f t="shared" ref="Q16:Q19" si="10">SUMPRODUCT($B$30:$E$30,M16:P16)+$F$30</f>
         <v>80.905077025799997</v>
       </c>
-      <c r="R16" s="186"/>
+      <c r="R16" s="183"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -15570,7 +15433,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="31">
         <v>3</v>
@@ -15614,7 +15477,7 @@
         <f t="shared" si="10"/>
         <v>82.283677944399997</v>
       </c>
-      <c r="R17" s="186"/>
+      <c r="R17" s="183"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -15650,7 +15513,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="31">
         <v>4</v>
@@ -15694,7 +15557,7 @@
         <f t="shared" si="10"/>
         <v>84.441762162399996</v>
       </c>
-      <c r="R18" s="186"/>
+      <c r="R18" s="183"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
@@ -15730,7 +15593,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="31">
         <v>4</v>
@@ -15774,7 +15637,7 @@
         <f t="shared" si="10"/>
         <v>94.884469200000012</v>
       </c>
-      <c r="R19" s="186"/>
+      <c r="R19" s="183"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
@@ -15810,7 +15673,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="31">
         <v>4</v>
@@ -15837,19 +15700,19 @@
         <v>60</v>
       </c>
       <c r="M20" s="122">
-        <f>IF($Q15=MIN($Q15:$Q19),-M15,M15)+IF($Q16=MIN($Q15:$Q19),-M16,M16)+IF($Q17=MIN($Q15:$Q19),-M17,M17)+IF($Q18=MIN($Q15:$Q19), M18,M18)+IF($Q19=MIN($Q15:$Q19),-M19,M19)</f>
+        <f>IF($Q15=MIN($Q15:$Q19),-M15,M15)+IF($Q16=MIN($Q15:$Q19),-M16,M16)+IF($Q17=MIN($Q15:$Q19),-M17,M17)+IF($Q18=MIN($Q15:$Q19), -M18,M18)+IF($Q19=MIN($Q15:$Q19),-M19,M19)</f>
         <v>10.5</v>
       </c>
       <c r="N20" s="123">
-        <f>IF($Q15=MIN($Q15:$Q19),-N15,N15)+IF($Q16=MIN($Q15:$Q19),-N16,N16)+IF($Q17=MIN($Q15:$Q19),-N17,N17)+IF($Q18=MIN($Q15:$Q19), N18,N18)+IF($Q19=MIN($Q15:$Q19),-N19,N19)</f>
+        <f>IF($Q15=MIN($Q15:$Q19),-N15,N15)+IF($Q16=MIN($Q15:$Q19),-N16,N16)+IF($Q17=MIN($Q15:$Q19),-N17,N17)+IF($Q18=MIN($Q15:$Q19), -N18,N18)+IF($Q19=MIN($Q15:$Q19),-N19,N19)</f>
         <v>11.65470013</v>
       </c>
       <c r="O20" s="123">
-        <f>IF($Q15=MIN($Q15:$Q19),-O15,O15)+IF($Q16=MIN($Q15:$Q19),-O16,O16)+IF($Q17=MIN($Q15:$Q19),-O17,O17)+IF($Q18=MIN($Q15:$Q19), O18,O18)+IF($Q19=MIN($Q15:$Q19),-O19,O19)</f>
+        <f>IF($Q15=MIN($Q15:$Q19),-O15,O15)+IF($Q16=MIN($Q15:$Q19),-O16,O16)+IF($Q17=MIN($Q15:$Q19),-O17,O17)+IF($Q18=MIN($Q15:$Q19), -O18,O18)+IF($Q19=MIN($Q15:$Q19),-O19,O19)</f>
         <v>11.316492925</v>
       </c>
       <c r="P20" s="124">
-        <f>IF($Q15=MIN($Q15:$Q19),-P15,P15)+IF($Q16=MIN($Q15:$Q19),-P16,P16)+IF($Q17=MIN($Q15:$Q19),-P17,P17)+IF($Q18=MIN($Q15:$Q19), P18,P18)+IF($Q19=MIN($Q15:$Q19),-P19,P19)</f>
+        <f>IF($Q15=MIN($Q15:$Q19),-P15,P15)+IF($Q16=MIN($Q15:$Q19),-P16,P16)+IF($Q17=MIN($Q15:$Q19),-P17,P17)+IF($Q18=MIN($Q15:$Q19), -P18,P18)+IF($Q19=MIN($Q15:$Q19),-P19,P19)</f>
         <v>11.132462239999999</v>
       </c>
       <c r="Q20" s="178">
@@ -15895,7 +15758,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="31">
         <v>4</v>
@@ -15974,7 +15837,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="31">
         <v>4</v>
@@ -15996,7 +15859,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="192"/>
       <c r="L22" s="147">
         <v>3</v>
       </c>
@@ -16005,26 +15868,26 @@
         <v>5</v>
       </c>
       <c r="N22" s="116">
-        <f t="shared" ref="N22" si="17">IF($Q15=MIN($Q15:$Q19),N21,N15)</f>
+        <f t="shared" ref="N22:P22" si="17">IF($Q15=MIN($Q15:$Q19),N21,N15)</f>
         <v>4.7886749999999996</v>
       </c>
       <c r="O22" s="116">
-        <f t="shared" ref="O22" si="18">IF($Q15=MIN($Q15:$Q19),O21,O15)</f>
+        <f t="shared" si="17"/>
         <v>4.7041229250000001</v>
       </c>
       <c r="P22" s="116">
-        <f t="shared" ref="P22" si="19">IF($Q15=MIN($Q15:$Q19),P21,P15)</f>
+        <f t="shared" si="17"/>
         <v>4.6581161199999999</v>
       </c>
       <c r="Q22" s="129">
         <f>SUMPRODUCT($B$30:$E$30,M22:P22)+$F$30</f>
         <v>132.12495465340004</v>
       </c>
-      <c r="R22" s="191">
+      <c r="R22" s="182">
         <f>MAX(Q22:Q26)-MIN(Q22:Q26)</f>
         <v>51.872221671646187</v>
       </c>
-      <c r="S22" s="22"/>
+      <c r="S22" s="192"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -16059,7 +15922,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="31">
         <v>5</v>
@@ -16081,30 +15944,30 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="192"/>
       <c r="L23" s="148"/>
       <c r="M23" s="70">
         <f>IF($Q16=MIN($Q15:$Q19),M21,M16)</f>
         <v>4.5046204033050481</v>
       </c>
       <c r="N23" s="70">
-        <f t="shared" ref="N23:P23" si="20">IF($Q16=MIN($Q15:$Q19),N21,N16)</f>
+        <f t="shared" ref="N23:P23" si="18">IF($Q16=MIN($Q15:$Q19),N21,N16)</f>
         <v>5</v>
       </c>
       <c r="O23" s="70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>4.8549052308392602</v>
       </c>
       <c r="P23" s="70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>4.7759539566978111</v>
       </c>
       <c r="Q23" s="72">
-        <f t="shared" ref="Q23:Q26" si="21">SUMPRODUCT($B$30:$E$30,M23:P23)+$F$30</f>
+        <f t="shared" ref="Q23:Q26" si="19">SUMPRODUCT($B$30:$E$30,M23:P23)+$F$30</f>
         <v>134.15589961604618</v>
       </c>
-      <c r="R23" s="186"/>
-      <c r="S23" s="22"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="192"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
@@ -16139,7 +16002,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="31">
         <v>5</v>
@@ -16161,30 +16024,30 @@
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="192"/>
       <c r="L24" s="148"/>
       <c r="M24" s="70">
         <f>IF($Q17=MIN($Q15:$Q19),M21,M17)</f>
         <v>3</v>
       </c>
       <c r="N24" s="70">
-        <f t="shared" ref="N24:P24" si="22">IF($Q17=MIN($Q15:$Q19),N21,N17)</f>
+        <f t="shared" ref="N24:P24" si="20">IF($Q17=MIN($Q15:$Q19),N21,N17)</f>
         <v>3.57735</v>
       </c>
       <c r="O24" s="70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.7958758499999998</v>
       </c>
       <c r="P24" s="70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.8418861199999998</v>
       </c>
       <c r="Q24" s="72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>82.283677944399997</v>
       </c>
-      <c r="R24" s="186"/>
-      <c r="S24" s="22"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="192"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
@@ -16219,7 +16082,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="31">
         <v>5</v>
@@ -16241,30 +16104,30 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="192"/>
       <c r="L25" s="148"/>
       <c r="M25" s="70">
         <f>IF($Q18=MIN($Q15:$Q19),M21,M18)</f>
         <v>3</v>
       </c>
       <c r="N25" s="70">
-        <f t="shared" ref="N25:P25" si="23">IF($Q18=MIN($Q15:$Q19),N21,N18)</f>
+        <f t="shared" ref="N25:P25" si="21">IF($Q18=MIN($Q15:$Q19),N21,N18)</f>
         <v>3</v>
       </c>
       <c r="O25" s="70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3.6123699999999999</v>
       </c>
       <c r="P25" s="70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.8418861199999998</v>
       </c>
       <c r="Q25" s="72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>84.441762162399996</v>
       </c>
-      <c r="R25" s="186"/>
-      <c r="S25" s="22"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="192"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -16299,7 +16162,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="31">
         <v>5</v>
@@ -16321,30 +16184,30 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="192"/>
       <c r="L26" s="148"/>
       <c r="M26" s="75">
         <f>IF($Q19=MIN($Q15:$Q19),M21,M19)</f>
         <v>3</v>
       </c>
       <c r="N26" s="75">
-        <f t="shared" ref="N26:P26" si="24">IF($Q19=MIN($Q15:$Q19),N21,N19)</f>
+        <f t="shared" ref="N26:P26" si="22">IF($Q19=MIN($Q15:$Q19),N21,N19)</f>
         <v>3</v>
       </c>
       <c r="O26" s="75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="P26" s="75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>3.63246</v>
       </c>
       <c r="Q26" s="73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>94.884469200000012</v>
       </c>
-      <c r="R26" s="186"/>
-      <c r="S26" s="22"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="192"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
@@ -16379,7 +16242,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="33">
         <v>5</v>
@@ -16401,24 +16264,24 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="192"/>
       <c r="L27" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M27" s="122">
-        <f>IF($Q22=MIN($Q22:$Q26),-M22,M22)+IF($Q23=MIN($Q22:$Q26),-M23,M23)+IF($Q24=MIN($Q22:$Q26),-M24,M24)+IF($Q25=MIN($Q22:$Q26), M25,M25)+IF($Q26=MIN($Q22:$Q26),-M26,M26)</f>
+        <f>IF($Q22=MIN($Q22:$Q26),-M22,M22)+IF($Q23=MIN($Q22:$Q26),-M23,M23)+IF($Q24=MIN($Q22:$Q26),-M24,M24)+IF($Q25=MIN($Q22:$Q26), -M25,M25)+IF($Q26=MIN($Q22:$Q26),-M26,M26)</f>
         <v>12.504620403305047</v>
       </c>
       <c r="N27" s="123">
-        <f>IF($Q22=MIN($Q22:$Q26),-N22,N22)+IF($Q23=MIN($Q22:$Q26),-N23,N23)+IF($Q24=MIN($Q22:$Q26),-N24,N24)+IF($Q25=MIN($Q22:$Q26), N25,N25)+IF($Q26=MIN($Q22:$Q26),-N26,N26)</f>
+        <f>IF($Q22=MIN($Q22:$Q26),-N22,N22)+IF($Q23=MIN($Q22:$Q26),-N23,N23)+IF($Q24=MIN($Q22:$Q26),-N24,N24)+IF($Q25=MIN($Q22:$Q26), -N25,N25)+IF($Q26=MIN($Q22:$Q26),-N26,N26)</f>
         <v>12.211324999999999</v>
       </c>
       <c r="O27" s="123">
-        <f>IF($Q22=MIN($Q22:$Q26),-O22,O22)+IF($Q23=MIN($Q22:$Q26),-O23,O23)+IF($Q24=MIN($Q22:$Q26),-O24,O24)+IF($Q25=MIN($Q22:$Q26), O25,O25)+IF($Q26=MIN($Q22:$Q26),-O26,O26)</f>
+        <f>IF($Q22=MIN($Q22:$Q26),-O22,O22)+IF($Q23=MIN($Q22:$Q26),-O23,O23)+IF($Q24=MIN($Q22:$Q26),-O24,O24)+IF($Q25=MIN($Q22:$Q26), -O25,O25)+IF($Q26=MIN($Q22:$Q26),-O26,O26)</f>
         <v>13.375522305839262</v>
       </c>
       <c r="P27" s="124">
-        <f>IF($Q22=MIN($Q22:$Q26),-P22,P22)+IF($Q23=MIN($Q22:$Q26),-P23,P23)+IF($Q24=MIN($Q22:$Q26),-P24,P24)+IF($Q25=MIN($Q22:$Q26), P25,P25)+IF($Q26=MIN($Q22:$Q26),-P26,P26)</f>
+        <f>IF($Q22=MIN($Q22:$Q26),-P22,P22)+IF($Q23=MIN($Q22:$Q26),-P23,P23)+IF($Q24=MIN($Q22:$Q26),-P24,P24)+IF($Q25=MIN($Q22:$Q26), -P25,P25)+IF($Q26=MIN($Q22:$Q26),-P26,P26)</f>
         <v>13.066530076697811</v>
       </c>
       <c r="Q27" s="178">
@@ -16429,7 +16292,7 @@
         <f>Q27/5</f>
         <v>2.6751044611678525</v>
       </c>
-      <c r="S27" s="22"/>
+      <c r="S27" s="192"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
@@ -16464,7 +16327,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -16475,7 +16338,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="192"/>
       <c r="L28" s="125" t="s">
         <v>61</v>
       </c>
@@ -16484,20 +16347,20 @@
         <v>4.6744419086520415</v>
       </c>
       <c r="N28" s="127">
-        <f t="shared" ref="N28:P28" si="25">N27/$R27</f>
+        <f t="shared" ref="N28:P28" si="23">N27/$R27</f>
         <v>4.5648030487261728</v>
       </c>
       <c r="O28" s="127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="P28" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q28" s="179"/>
       <c r="R28" s="181"/>
-      <c r="S28" s="22"/>
+      <c r="S28" s="192"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
@@ -16532,7 +16395,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="5" t="s">
         <v>38</v>
@@ -16553,35 +16416,35 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="192"/>
       <c r="L29" s="147">
         <v>4</v>
       </c>
       <c r="M29" s="116">
-        <f>IF($Q22=MIN($Q22:$Q26),M28,M22)</f>
+        <f t="shared" ref="M29:P29" si="24">IF($Q22=MIN($Q22:$Q26),M28,M22)</f>
         <v>5</v>
       </c>
       <c r="N29" s="116">
-        <f t="shared" ref="N29" si="26">IF($Q22=MIN($Q22:$Q26),N28,N22)</f>
+        <f t="shared" si="24"/>
         <v>4.7886749999999996</v>
       </c>
       <c r="O29" s="116">
-        <f t="shared" ref="O29" si="27">IF($Q22=MIN($Q22:$Q26),O28,O22)</f>
+        <f t="shared" si="24"/>
         <v>4.7041229250000001</v>
       </c>
       <c r="P29" s="116">
-        <f t="shared" ref="P29" si="28">IF($Q22=MIN($Q22:$Q26),P28,P22)</f>
+        <f t="shared" si="24"/>
         <v>4.6581161199999999</v>
       </c>
       <c r="Q29" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M29:P29)+$F$30</f>
+        <f t="shared" ref="Q29:Q33" si="25">SUMPRODUCT($B$30:$E$30,M29:P29)+$F$30</f>
         <v>132.12495465340004</v>
       </c>
-      <c r="R29" s="191">
-        <f>MAX(Q29:Q33)-MIN(Q29:Q33)</f>
+      <c r="R29" s="182">
+        <f t="shared" ref="R29" si="26">MAX(Q29:Q33)-MIN(Q29:Q33)</f>
         <v>51.352907452807571</v>
       </c>
-      <c r="S29" s="22"/>
+      <c r="S29" s="192"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -16616,7 +16479,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="36">
         <f>'Лабораторная работа 2'!B21</f>
@@ -16642,30 +16505,30 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="192"/>
       <c r="L30" s="148"/>
       <c r="M30" s="70">
-        <f>IF($Q23=MIN($Q22:$Q26),M28,M23)</f>
+        <f t="shared" ref="M30:P30" si="27">IF($Q23=MIN($Q22:$Q26),M28,M23)</f>
         <v>4.5046204033050481</v>
       </c>
       <c r="N30" s="70">
-        <f t="shared" ref="N30:P30" si="29">IF($Q23=MIN($Q22:$Q26),N28,N23)</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="O30" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4.8549052308392602</v>
       </c>
       <c r="P30" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4.7759539566978111</v>
       </c>
       <c r="Q30" s="72">
-        <f t="shared" ref="Q30:Q33" si="30">SUMPRODUCT($B$30:$E$30,M30:P30)+$F$30</f>
+        <f t="shared" si="25"/>
         <v>134.15589961604618</v>
       </c>
-      <c r="R30" s="186"/>
-      <c r="S30" s="22"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="192"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
@@ -16700,43 +16563,43 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="165"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="K31" s="192"/>
       <c r="L31" s="148"/>
       <c r="M31" s="70">
-        <f>IF($Q24=MIN($Q22:$Q26),M28,M24)</f>
+        <f t="shared" ref="M31:P31" si="28">IF($Q24=MIN($Q22:$Q26),M28,M24)</f>
         <v>4.6744419086520415</v>
       </c>
       <c r="N31" s="70">
-        <f t="shared" ref="N31:P31" si="31">IF($Q24=MIN($Q22:$Q26),N28,N24)</f>
+        <f t="shared" si="28"/>
         <v>4.5648030487261728</v>
       </c>
       <c r="O31" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="P31" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q31" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>135.79466961520757</v>
       </c>
-      <c r="R31" s="186"/>
-      <c r="S31" s="22"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="192"/>
       <c r="T31" s="22"/>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
@@ -16771,43 +16634,43 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="171"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="K32" s="192"/>
       <c r="L32" s="148"/>
       <c r="M32" s="70">
-        <f>IF($Q25=MIN($Q22:$Q26),M28,M25)</f>
+        <f t="shared" ref="M32:P32" si="29">IF($Q25=MIN($Q22:$Q26),M28,M25)</f>
         <v>3</v>
       </c>
       <c r="N32" s="70">
-        <f t="shared" ref="N32:P32" si="32">IF($Q25=MIN($Q22:$Q26),N28,N25)</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O32" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>3.6123699999999999</v>
       </c>
       <c r="P32" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>2.8418861199999998</v>
       </c>
       <c r="Q32" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>84.441762162399996</v>
       </c>
-      <c r="R32" s="186"/>
-      <c r="S32" s="22"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="192"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
@@ -16842,7 +16705,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -16853,30 +16716,30 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="K33" s="192"/>
       <c r="L33" s="148"/>
       <c r="M33" s="75">
-        <f>IF($Q26=MIN($Q22:$Q26),M28,M26)</f>
+        <f t="shared" ref="M33:P33" si="30">IF($Q26=MIN($Q22:$Q26),M28,M26)</f>
         <v>3</v>
       </c>
       <c r="N33" s="75">
-        <f t="shared" ref="N33:P33" si="33">IF($Q26=MIN($Q22:$Q26),N28,N26)</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="O33" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="P33" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>3.63246</v>
       </c>
       <c r="Q33" s="73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>94.884469200000012</v>
       </c>
-      <c r="R33" s="186"/>
-      <c r="S33" s="22"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="192"/>
       <c r="T33" s="22"/>
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
@@ -16911,7 +16774,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -16922,35 +16785,35 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="K34" s="192"/>
       <c r="L34" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M34" s="122">
-        <f>IF($Q29=MIN($Q29:$Q33),-M29,M29)+IF($Q30=MIN($Q29:$Q33),-M30,M30)+IF($Q31=MIN($Q29:$Q33),-M31,M31)+IF($Q32=MIN($Q29:$Q33), M32,M32)+IF($Q33=MIN($Q29:$Q33),-M33,M33)</f>
-        <v>20.17906231195709</v>
+        <f t="shared" ref="M34:P34" si="31">IF($Q29=MIN($Q29:$Q33),-M29,M29)+IF($Q30=MIN($Q29:$Q33),-M30,M30)+IF($Q31=MIN($Q29:$Q33),-M31,M31)+IF($Q32=MIN($Q29:$Q33), -M32,M32)+IF($Q33=MIN($Q29:$Q33),-M33,M33)</f>
+        <v>14.17906231195709</v>
       </c>
       <c r="N34" s="123">
-        <f>IF($Q29=MIN($Q29:$Q33),-N29,N29)+IF($Q30=MIN($Q29:$Q33),-N30,N30)+IF($Q31=MIN($Q29:$Q33),-N31,N31)+IF($Q32=MIN($Q29:$Q33), N32,N32)+IF($Q33=MIN($Q29:$Q33),-N33,N33)</f>
-        <v>20.353478048726174</v>
+        <f t="shared" si="31"/>
+        <v>14.353478048726172</v>
       </c>
       <c r="O34" s="123">
-        <f>IF($Q29=MIN($Q29:$Q33),-O29,O29)+IF($Q30=MIN($Q29:$Q33),-O30,O30)+IF($Q31=MIN($Q29:$Q33),-O31,O31)+IF($Q32=MIN($Q29:$Q33), O32,O32)+IF($Q33=MIN($Q29:$Q33),-O33,O33)</f>
-        <v>21.17139815583926</v>
+        <f t="shared" si="31"/>
+        <v>13.946658155839261</v>
       </c>
       <c r="P34" s="124">
-        <f>IF($Q29=MIN($Q29:$Q33),-P29,P29)+IF($Q30=MIN($Q29:$Q33),-P30,P30)+IF($Q31=MIN($Q29:$Q33),-P31,P31)+IF($Q32=MIN($Q29:$Q33), P32,P32)+IF($Q33=MIN($Q29:$Q33),-P33,P33)</f>
-        <v>20.792909593637326</v>
+        <f t="shared" si="31"/>
+        <v>15.109137353637324</v>
       </c>
       <c r="Q34" s="178">
-        <f>MAX(M34:P34)</f>
-        <v>21.17139815583926</v>
+        <f t="shared" ref="Q34" si="32">MAX(M34:P34)</f>
+        <v>15.109137353637324</v>
       </c>
       <c r="R34" s="180">
-        <f>Q34/5</f>
-        <v>4.2342796311678521</v>
-      </c>
-      <c r="S34" s="22"/>
+        <f t="shared" ref="R34" si="33">Q34/5</f>
+        <v>3.021827470727465</v>
+      </c>
+      <c r="S34" s="192"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
@@ -16985,7 +16848,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -16996,29 +16859,29 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="K35" s="192"/>
       <c r="L35" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M35" s="126">
-        <f>M34/$R34</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M35:P49" si="34">M34/$R34</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N35" s="127">
-        <f t="shared" ref="N35:P35" si="34">N34/$R34</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="34"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O35" s="127">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>4.6153059004661792</v>
       </c>
       <c r="P35" s="128">
         <f t="shared" si="34"/>
-        <v>4.9106132340868704</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="179"/>
       <c r="R35" s="181"/>
-      <c r="S35" s="22"/>
+      <c r="S35" s="192"/>
       <c r="T35" s="22"/>
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
@@ -17053,7 +16916,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -17064,35 +16927,35 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="147">
         <v>5</v>
       </c>
       <c r="M36" s="116">
-        <f>IF($Q29=MIN($Q29:$Q33),M35,M29)</f>
+        <f t="shared" ref="M36:P36" si="35">IF($Q29=MIN($Q29:$Q33),M35,M29)</f>
         <v>5</v>
       </c>
       <c r="N36" s="116">
-        <f t="shared" ref="N36" si="35">IF($Q29=MIN($Q29:$Q33),N35,N29)</f>
+        <f t="shared" si="35"/>
         <v>4.7886749999999996</v>
       </c>
       <c r="O36" s="116">
-        <f t="shared" ref="O36" si="36">IF($Q29=MIN($Q29:$Q33),O35,O29)</f>
+        <f t="shared" si="35"/>
         <v>4.7041229250000001</v>
       </c>
       <c r="P36" s="116">
-        <f t="shared" ref="P36" si="37">IF($Q29=MIN($Q29:$Q33),P35,P29)</f>
+        <f t="shared" si="35"/>
         <v>4.6581161199999999</v>
       </c>
       <c r="Q36" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M36:P36)+$F$30</f>
+        <f t="shared" ref="Q36:Q40" si="36">SUMPRODUCT($B$30:$E$30,M36:P36)+$F$30</f>
         <v>132.12495465340004</v>
       </c>
-      <c r="R36" s="191">
-        <f>MAX(Q36:Q40)-MIN(Q36:Q40)</f>
-        <v>42.391283988824284</v>
-      </c>
-      <c r="S36" s="22"/>
+      <c r="R36" s="182">
+        <f t="shared" ref="R36" si="37">MAX(Q36:Q40)-MIN(Q36:Q40)</f>
+        <v>41.629664668693522</v>
+      </c>
+      <c r="S36" s="192"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
@@ -17127,7 +16990,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -17138,14 +17001,14 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="148"/>
       <c r="M37" s="70">
-        <f>IF($Q30=MIN($Q29:$Q33),M35,M30)</f>
+        <f t="shared" ref="M37:P37" si="38">IF($Q30=MIN($Q29:$Q33),M35,M30)</f>
         <v>4.5046204033050481</v>
       </c>
       <c r="N37" s="70">
-        <f t="shared" ref="N37:P37" si="38">IF($Q30=MIN($Q29:$Q33),N35,N30)</f>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="O37" s="70">
@@ -17157,11 +17020,11 @@
         <v>4.7759539566978111</v>
       </c>
       <c r="Q37" s="72">
-        <f t="shared" ref="Q37:Q40" si="39">SUMPRODUCT($B$30:$E$30,M37:P37)+$F$30</f>
+        <f t="shared" si="36"/>
         <v>134.15589961604618</v>
       </c>
-      <c r="R37" s="186"/>
-      <c r="S37" s="22"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="192"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
@@ -17196,7 +17059,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -17207,30 +17070,30 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="K38" s="192"/>
       <c r="L38" s="148"/>
       <c r="M38" s="70">
-        <f>IF($Q31=MIN($Q29:$Q33),M35,M31)</f>
+        <f t="shared" ref="M38:P38" si="39">IF($Q31=MIN($Q29:$Q33),M35,M31)</f>
         <v>4.6744419086520415</v>
       </c>
       <c r="N38" s="70">
-        <f t="shared" ref="N38:P38" si="40">IF($Q31=MIN($Q29:$Q33),N35,N31)</f>
+        <f t="shared" si="39"/>
         <v>4.5648030487261728</v>
       </c>
       <c r="O38" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="P38" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q38" s="72">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>135.79466961520757</v>
       </c>
-      <c r="R38" s="186"/>
-      <c r="S38" s="22"/>
+      <c r="R38" s="183"/>
+      <c r="S38" s="192"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
@@ -17265,7 +17128,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -17276,30 +17139,30 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="K39" s="192"/>
       <c r="L39" s="148"/>
       <c r="M39" s="70">
-        <f>IF($Q32=MIN($Q29:$Q33),M35,M32)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M39:P39" si="40">IF($Q32=MIN($Q29:$Q33),M35,M32)</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N39" s="70">
-        <f t="shared" ref="N39:P39" si="41">IF($Q32=MIN($Q29:$Q33),N35,N32)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="40"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O39" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
+        <v>4.6153059004661792</v>
+      </c>
+      <c r="P39" s="70">
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="P39" s="70">
-        <f t="shared" si="41"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q39" s="72">
-        <f t="shared" si="39"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R39" s="186"/>
-      <c r="S39" s="22"/>
+        <f t="shared" si="36"/>
+        <v>136.51413386869353</v>
+      </c>
+      <c r="R39" s="183"/>
+      <c r="S39" s="192"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
@@ -17334,7 +17197,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -17345,30 +17208,30 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="K40" s="192"/>
       <c r="L40" s="148"/>
       <c r="M40" s="75">
-        <f>IF($Q33=MIN($Q29:$Q33),M35,M33)</f>
+        <f t="shared" ref="M40:P40" si="41">IF($Q33=MIN($Q29:$Q33),M35,M33)</f>
         <v>3</v>
       </c>
       <c r="N40" s="75">
-        <f t="shared" ref="N40:P40" si="42">IF($Q33=MIN($Q29:$Q33),N35,N33)</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="O40" s="75">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="P40" s="75">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3.63246</v>
       </c>
       <c r="Q40" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>94.884469200000012</v>
       </c>
-      <c r="R40" s="186"/>
-      <c r="S40" s="22"/>
+      <c r="R40" s="183"/>
+      <c r="S40" s="192"/>
       <c r="T40" s="22"/>
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
@@ -17403,7 +17266,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
     </row>
-    <row r="41" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -17414,35 +17277,35 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+      <c r="K41" s="192"/>
       <c r="L41" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M41" s="122">
-        <f>IF($Q36=MIN($Q36:$Q40),-M36,M36)+IF($Q37=MIN($Q36:$Q40),-M37,M37)+IF($Q38=MIN($Q36:$Q40),-M38,M38)+IF($Q39=MIN($Q36:$Q40), M39,M39)+IF($Q40=MIN($Q36:$Q40),-M40,M40)</f>
-        <v>15.944704657215127</v>
+        <f t="shared" ref="M41:P41" si="42">IF($Q36=MIN($Q36:$Q40),-M36,M36)+IF($Q37=MIN($Q36:$Q40),-M37,M37)+IF($Q38=MIN($Q36:$Q40),-M38,M38)+IF($Q39=MIN($Q36:$Q40), -M39,M39)+IF($Q40=MIN($Q36:$Q40),-M40,M40)</f>
+        <v>15.871276691934138</v>
       </c>
       <c r="N41" s="123">
-        <f>IF($Q36=MIN($Q36:$Q40),-N36,N36)+IF($Q37=MIN($Q36:$Q40),-N37,N37)+IF($Q38=MIN($Q36:$Q40),-N38,N38)+IF($Q39=MIN($Q36:$Q40), N39,N39)+IF($Q40=MIN($Q36:$Q40),-N40,N40)</f>
-        <v>16.160311754017503</v>
+        <f t="shared" si="42"/>
+        <v>16.10341105706922</v>
       </c>
       <c r="O41" s="123">
-        <f>IF($Q36=MIN($Q36:$Q40),-O36,O36)+IF($Q37=MIN($Q36:$Q40),-O37,O37)+IF($Q38=MIN($Q36:$Q40),-O38,O38)+IF($Q39=MIN($Q36:$Q40), O39,O39)+IF($Q40=MIN($Q36:$Q40),-O40,O40)</f>
-        <v>16.559028155839261</v>
+        <f t="shared" si="42"/>
+        <v>16.17433405630544</v>
       </c>
       <c r="P41" s="124">
-        <f>IF($Q36=MIN($Q36:$Q40),-P36,P36)+IF($Q37=MIN($Q36:$Q40),-P37,P37)+IF($Q38=MIN($Q36:$Q40),-P38,P38)+IF($Q39=MIN($Q36:$Q40), P39,P39)+IF($Q40=MIN($Q36:$Q40),-P40,P40)</f>
-        <v>15.596716707724193</v>
+        <f t="shared" si="42"/>
+        <v>15.686103473637326</v>
       </c>
       <c r="Q41" s="178">
-        <f>MAX(M41:P41)</f>
-        <v>16.559028155839261</v>
+        <f t="shared" ref="Q41" si="43">MAX(M41:P41)</f>
+        <v>16.17433405630544</v>
       </c>
       <c r="R41" s="180">
-        <f>Q41/5</f>
-        <v>3.3118056311678523</v>
-      </c>
-      <c r="S41" s="22"/>
+        <f t="shared" ref="R41" si="44">Q41/5</f>
+        <v>3.2348668112610879</v>
+      </c>
+      <c r="S41" s="192"/>
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
@@ -17477,7 +17340,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
     </row>
-    <row r="42" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -17488,29 +17351,29 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="K42" s="192"/>
       <c r="L42" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M42" s="126">
-        <f>M41/$R41</f>
-        <v>4.8145049658583057</v>
+        <f t="shared" ref="M42:P49" si="45">M41/$R41</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N42" s="127">
-        <f t="shared" ref="N42:P42" si="43">N41/$R41</f>
-        <v>4.8796075475959748</v>
+        <f t="shared" si="45"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O42" s="127">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="P42" s="128">
-        <f t="shared" si="43"/>
-        <v>4.7094299740725649</v>
+        <f t="shared" si="45"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q42" s="179"/>
       <c r="R42" s="181"/>
-      <c r="S42" s="22"/>
+      <c r="S42" s="192"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
@@ -17545,7 +17408,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -17556,35 +17419,35 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="K43" s="192"/>
       <c r="L43" s="147">
         <v>6</v>
       </c>
       <c r="M43" s="116">
-        <f>IF($Q36=MIN($Q36:$Q40),M42,M36)</f>
+        <f t="shared" ref="M43:P43" si="46">IF($Q36=MIN($Q36:$Q40),M42,M36)</f>
         <v>5</v>
       </c>
       <c r="N43" s="116">
-        <f t="shared" ref="N43" si="44">IF($Q36=MIN($Q36:$Q40),N42,N36)</f>
+        <f t="shared" si="46"/>
         <v>4.7886749999999996</v>
       </c>
       <c r="O43" s="116">
-        <f t="shared" ref="O43" si="45">IF($Q36=MIN($Q36:$Q40),O42,O36)</f>
+        <f t="shared" si="46"/>
         <v>4.7041229250000001</v>
       </c>
       <c r="P43" s="116">
-        <f t="shared" ref="P43" si="46">IF($Q36=MIN($Q36:$Q40),P42,P36)</f>
+        <f t="shared" si="46"/>
         <v>4.6581161199999999</v>
       </c>
       <c r="Q43" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M43:P43)+$F$30</f>
+        <f t="shared" ref="Q43:Q47" si="47">SUMPRODUCT($B$30:$E$30,M43:P43)+$F$30</f>
         <v>132.12495465340004</v>
       </c>
-      <c r="R43" s="191">
-        <f>MAX(Q43:Q47)-MIN(Q43:Q47)</f>
-        <v>5.1507985354242578</v>
-      </c>
-      <c r="S43" s="22"/>
+      <c r="R43" s="182">
+        <f t="shared" ref="R43" si="48">MAX(Q43:Q47)-MIN(Q43:Q47)</f>
+        <v>5.0514703649712374</v>
+      </c>
+      <c r="S43" s="192"/>
       <c r="T43" s="22"/>
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
@@ -17619,7 +17482,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
     </row>
-    <row r="44" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -17630,30 +17493,30 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="K44" s="192"/>
       <c r="L44" s="148"/>
       <c r="M44" s="70">
-        <f>IF($Q37=MIN($Q36:$Q40),M42,M37)</f>
+        <f t="shared" ref="M44:P44" si="49">IF($Q37=MIN($Q36:$Q40),M42,M37)</f>
         <v>4.5046204033050481</v>
       </c>
       <c r="N44" s="70">
-        <f t="shared" ref="N44:P44" si="47">IF($Q37=MIN($Q36:$Q40),N42,N37)</f>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="O44" s="70">
+        <f t="shared" si="49"/>
+        <v>4.8549052308392602</v>
+      </c>
+      <c r="P44" s="70">
+        <f t="shared" si="49"/>
+        <v>4.7759539566978111</v>
+      </c>
+      <c r="Q44" s="72">
         <f t="shared" si="47"/>
-        <v>4.8549052308392602</v>
-      </c>
-      <c r="P44" s="70">
-        <f t="shared" si="47"/>
-        <v>4.7759539566978111</v>
-      </c>
-      <c r="Q44" s="72">
-        <f t="shared" ref="Q44:Q47" si="48">SUMPRODUCT($B$30:$E$30,M44:P44)+$F$30</f>
         <v>134.15589961604618</v>
       </c>
-      <c r="R44" s="186"/>
-      <c r="S44" s="22"/>
+      <c r="R44" s="183"/>
+      <c r="S44" s="192"/>
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
@@ -17688,7 +17551,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
     </row>
-    <row r="45" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -17699,30 +17562,30 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="K45" s="192"/>
       <c r="L45" s="148"/>
       <c r="M45" s="70">
-        <f>IF($Q38=MIN($Q36:$Q40),M42,M38)</f>
+        <f t="shared" ref="M45:P45" si="50">IF($Q38=MIN($Q36:$Q40),M42,M38)</f>
         <v>4.6744419086520415</v>
       </c>
       <c r="N45" s="70">
-        <f t="shared" ref="N45:P45" si="49">IF($Q38=MIN($Q36:$Q40),N42,N38)</f>
+        <f t="shared" si="50"/>
         <v>4.5648030487261728</v>
       </c>
       <c r="O45" s="70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="P45" s="70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q45" s="72">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>135.79466961520757</v>
       </c>
-      <c r="R45" s="186"/>
-      <c r="S45" s="22"/>
+      <c r="R45" s="183"/>
+      <c r="S45" s="192"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
@@ -17757,7 +17620,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
     </row>
-    <row r="46" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -17768,30 +17631,30 @@
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
+      <c r="K46" s="192"/>
       <c r="L46" s="148"/>
       <c r="M46" s="70">
-        <f>IF($Q39=MIN($Q36:$Q40),M42,M39)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M46:P46" si="51">IF($Q39=MIN($Q36:$Q40),M42,M39)</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N46" s="70">
-        <f t="shared" ref="N46:P46" si="50">IF($Q39=MIN($Q36:$Q40),N42,N39)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="51"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O46" s="70">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
+        <v>4.6153059004661792</v>
+      </c>
+      <c r="P46" s="70">
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="P46" s="70">
-        <f t="shared" si="50"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q46" s="72">
-        <f t="shared" si="48"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R46" s="186"/>
-      <c r="S46" s="22"/>
+        <f t="shared" si="47"/>
+        <v>136.51413386869353</v>
+      </c>
+      <c r="R46" s="183"/>
+      <c r="S46" s="192"/>
       <c r="T46" s="22"/>
       <c r="U46" s="22"/>
       <c r="V46" s="22"/>
@@ -17826,7 +17689,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
     </row>
-    <row r="47" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -17837,30 +17700,30 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="K47" s="192"/>
       <c r="L47" s="148"/>
       <c r="M47" s="75">
-        <f>IF($Q40=MIN($Q36:$Q40),M42,M40)</f>
-        <v>4.8145049658583057</v>
+        <f t="shared" ref="M47:P47" si="52">IF($Q40=MIN($Q36:$Q40),M42,M40)</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N47" s="75">
-        <f t="shared" ref="N47:P47" si="51">IF($Q40=MIN($Q36:$Q40),N42,N40)</f>
-        <v>4.8796075475959748</v>
+        <f t="shared" si="52"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O47" s="75">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="P47" s="75">
-        <f t="shared" si="51"/>
-        <v>4.7094299740725649</v>
+        <f t="shared" si="52"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q47" s="73">
-        <f t="shared" si="48"/>
-        <v>134.22373846569457</v>
-      </c>
-      <c r="R47" s="186"/>
-      <c r="S47" s="22"/>
+        <f t="shared" si="47"/>
+        <v>137.17642501837128</v>
+      </c>
+      <c r="R47" s="183"/>
+      <c r="S47" s="192"/>
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>
       <c r="V47" s="22"/>
@@ -17895,7 +17758,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
     </row>
-    <row r="48" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -17906,35 +17769,35 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
+      <c r="K48" s="192"/>
       <c r="L48" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M48" s="122">
-        <f>IF($Q43=MIN($Q43:$Q47),-M43,M43)+IF($Q44=MIN($Q43:$Q47),-M44,M44)+IF($Q45=MIN($Q43:$Q47),-M45,M45)+IF($Q46=MIN($Q43:$Q47), M46,M46)+IF($Q47=MIN($Q43:$Q47),-M47,M47)</f>
-        <v>13.759209623073431</v>
+        <f t="shared" ref="M48:P48" si="53">IF($Q43=MIN($Q43:$Q47),-M43,M43)+IF($Q44=MIN($Q43:$Q47),-M44,M44)+IF($Q45=MIN($Q43:$Q47),-M45,M45)+IF($Q46=MIN($Q43:$Q47), -M46,M46)+IF($Q47=MIN($Q43:$Q47),-M47,M47)</f>
+        <v>13.777592042131459</v>
       </c>
       <c r="N48" s="123">
-        <f>IF($Q43=MIN($Q43:$Q47),-N43,N43)+IF($Q44=MIN($Q43:$Q47),-N44,N44)+IF($Q45=MIN($Q43:$Q47),-N45,N45)+IF($Q46=MIN($Q43:$Q47), N46,N46)+IF($Q47=MIN($Q43:$Q47),-N47,N47)</f>
-        <v>14.462569301613478</v>
+        <f t="shared" si="53"/>
+        <v>14.50413650704159</v>
       </c>
       <c r="O48" s="123">
-        <f>IF($Q43=MIN($Q43:$Q47),-O43,O43)+IF($Q44=MIN($Q43:$Q47),-O44,O44)+IF($Q45=MIN($Q43:$Q47),-O45,O45)+IF($Q46=MIN($Q43:$Q47), O46,O46)+IF($Q47=MIN($Q43:$Q47),-O47,O47)</f>
-        <v>15.150782305839261</v>
+        <f t="shared" si="53"/>
+        <v>14.76608820630544</v>
       </c>
       <c r="P48" s="124">
-        <f>IF($Q43=MIN($Q43:$Q47),-P43,P43)+IF($Q44=MIN($Q43:$Q47),-P44,P44)+IF($Q45=MIN($Q43:$Q47),-P45,P45)+IF($Q46=MIN($Q43:$Q47), P46,P46)+IF($Q47=MIN($Q43:$Q47),-P47,P47)</f>
-        <v>14.62237444179676</v>
+        <f t="shared" si="53"/>
+        <v>14.851403665006522</v>
       </c>
       <c r="Q48" s="178">
-        <f>MAX(M48:P48)</f>
-        <v>15.150782305839261</v>
+        <f t="shared" ref="Q48" si="54">MAX(M48:P48)</f>
+        <v>14.851403665006522</v>
       </c>
       <c r="R48" s="180">
-        <f>Q48/5</f>
-        <v>3.0301564611678522</v>
-      </c>
-      <c r="S48" s="22"/>
+        <f t="shared" ref="R48" si="55">Q48/5</f>
+        <v>2.9702807330013044</v>
+      </c>
+      <c r="S48" s="192"/>
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
@@ -17969,7 +17832,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
     </row>
-    <row r="49" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -17980,29 +17843,29 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
+      <c r="K49" s="192"/>
       <c r="L49" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M49" s="126">
-        <f>M48/$R48</f>
-        <v>4.5407588021941603</v>
+        <f t="shared" ref="M49:P49" si="56">M48/$R48</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N49" s="127">
-        <f t="shared" ref="N49:P49" si="52">N48/$R48</f>
-        <v>4.7728787232456833</v>
+        <f t="shared" si="56"/>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O49" s="127">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P49" s="128">
+        <f t="shared" si="56"/>
         <v>5</v>
-      </c>
-      <c r="P49" s="128">
-        <f t="shared" si="52"/>
-        <v>4.825616970339925</v>
       </c>
       <c r="Q49" s="179"/>
       <c r="R49" s="181"/>
-      <c r="S49" s="22"/>
+      <c r="S49" s="192"/>
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
       <c r="V49" s="22"/>
@@ -18037,7 +17900,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
     </row>
-    <row r="50" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -18048,35 +17911,35 @@
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+      <c r="K50" s="192"/>
       <c r="L50" s="147">
         <v>7</v>
       </c>
       <c r="M50" s="116">
-        <f>IF($Q43=MIN($Q43:$Q47),M49,M43)</f>
-        <v>4.5407588021941603</v>
+        <f t="shared" ref="M50" si="57">IF($Q43=MIN($Q43:$Q47),M49,M43)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N50" s="116">
-        <f t="shared" ref="N50" si="53">IF($Q43=MIN($Q43:$Q47),N49,N43)</f>
-        <v>4.7728787232456833</v>
+        <f t="shared" ref="N50" si="58">IF($Q43=MIN($Q43:$Q47),N49,N43)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O50" s="116">
-        <f t="shared" ref="O50" si="54">IF($Q43=MIN($Q43:$Q47),O49,O43)</f>
+        <f t="shared" ref="O50" si="59">IF($Q43=MIN($Q43:$Q47),O49,O43)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P50" s="116">
+        <f t="shared" ref="P50" si="60">IF($Q43=MIN($Q43:$Q47),P49,P43)</f>
         <v>5</v>
       </c>
-      <c r="P50" s="116">
-        <f t="shared" ref="P50" si="55">IF($Q43=MIN($Q43:$Q47),P49,P43)</f>
-        <v>4.825616970339925</v>
-      </c>
       <c r="Q50" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M50:P50)+$F$30</f>
-        <v>135.08561014622418</v>
-      </c>
-      <c r="R50" s="191">
-        <f>MAX(Q50:Q54)-MIN(Q50:Q54)</f>
-        <v>3.119853572778112</v>
-      </c>
-      <c r="S50" s="22"/>
+        <f t="shared" ref="Q50:Q54" si="61">SUMPRODUCT($B$30:$E$30,M50:P50)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R50" s="182">
+        <f t="shared" ref="R50" si="62">MAX(Q50:Q54)-MIN(Q50:Q54)</f>
+        <v>4.386837918748995</v>
+      </c>
+      <c r="S50" s="192"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
       <c r="V50" s="22"/>
@@ -18111,7 +17974,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
     </row>
-    <row r="51" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -18122,30 +17985,30 @@
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+      <c r="K51" s="192"/>
       <c r="L51" s="148"/>
       <c r="M51" s="70">
-        <f>IF($Q44=MIN($Q43:$Q47),M49,M44)</f>
+        <f t="shared" ref="M51:P51" si="63">IF($Q44=MIN($Q43:$Q47),M49,M44)</f>
         <v>4.5046204033050481</v>
       </c>
       <c r="N51" s="70">
-        <f t="shared" ref="N51:P51" si="56">IF($Q44=MIN($Q43:$Q47),N49,N44)</f>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="O51" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>4.8549052308392602</v>
       </c>
       <c r="P51" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>4.7759539566978111</v>
       </c>
       <c r="Q51" s="72">
-        <f t="shared" ref="Q51:Q54" si="57">SUMPRODUCT($B$30:$E$30,M51:P51)+$F$30</f>
+        <f t="shared" si="61"/>
         <v>134.15589961604618</v>
       </c>
-      <c r="R51" s="186"/>
-      <c r="S51" s="22"/>
+      <c r="R51" s="183"/>
+      <c r="S51" s="192"/>
       <c r="T51" s="22"/>
       <c r="U51" s="22"/>
       <c r="V51" s="22"/>
@@ -18180,7 +18043,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
     </row>
-    <row r="52" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -18191,30 +18054,30 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
+      <c r="K52" s="192"/>
       <c r="L52" s="148"/>
       <c r="M52" s="70">
-        <f>IF($Q45=MIN($Q43:$Q47),M49,M45)</f>
+        <f t="shared" ref="M52:P52" si="64">IF($Q45=MIN($Q43:$Q47),M49,M45)</f>
         <v>4.6744419086520415</v>
       </c>
       <c r="N52" s="70">
-        <f t="shared" ref="N52:P52" si="58">IF($Q45=MIN($Q43:$Q47),N49,N45)</f>
+        <f t="shared" si="64"/>
         <v>4.5648030487261728</v>
       </c>
       <c r="O52" s="70">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="P52" s="70">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q52" s="72">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>135.79466961520757</v>
       </c>
-      <c r="R52" s="186"/>
-      <c r="S52" s="22"/>
+      <c r="R52" s="183"/>
+      <c r="S52" s="192"/>
       <c r="T52" s="22"/>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
@@ -18249,7 +18112,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
     </row>
-    <row r="53" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -18260,30 +18123,30 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="K53" s="192"/>
       <c r="L53" s="148"/>
       <c r="M53" s="70">
-        <f>IF($Q46=MIN($Q43:$Q47),M49,M46)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M53:P53" si="65">IF($Q46=MIN($Q43:$Q47),M49,M46)</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N53" s="70">
-        <f t="shared" ref="N53:P53" si="59">IF($Q46=MIN($Q43:$Q47),N49,N46)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="65"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O53" s="70">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
+        <v>4.6153059004661792</v>
+      </c>
+      <c r="P53" s="70">
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
-      <c r="P53" s="70">
-        <f t="shared" si="59"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q53" s="72">
-        <f t="shared" si="57"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R53" s="186"/>
-      <c r="S53" s="22"/>
+        <f t="shared" si="61"/>
+        <v>136.51413386869353</v>
+      </c>
+      <c r="R53" s="183"/>
+      <c r="S53" s="192"/>
       <c r="T53" s="22"/>
       <c r="U53" s="22"/>
       <c r="V53" s="22"/>
@@ -18318,7 +18181,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
     </row>
-    <row r="54" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -18329,30 +18192,30 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
+      <c r="K54" s="192"/>
       <c r="L54" s="148"/>
       <c r="M54" s="75">
-        <f>IF($Q47=MIN($Q43:$Q47),M49,M47)</f>
-        <v>4.8145049658583057</v>
+        <f t="shared" ref="M54:P54" si="66">IF($Q47=MIN($Q43:$Q47),M49,M47)</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N54" s="75">
-        <f t="shared" ref="N54:P54" si="60">IF($Q47=MIN($Q43:$Q47),N49,N47)</f>
-        <v>4.8796075475959748</v>
+        <f t="shared" si="66"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O54" s="75">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="P54" s="75">
-        <f t="shared" si="60"/>
-        <v>4.7094299740725649</v>
+        <f t="shared" si="66"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q54" s="73">
-        <f t="shared" si="57"/>
-        <v>134.22373846569457</v>
-      </c>
-      <c r="R54" s="186"/>
-      <c r="S54" s="22"/>
+        <f t="shared" si="61"/>
+        <v>137.17642501837128</v>
+      </c>
+      <c r="R54" s="183"/>
+      <c r="S54" s="192"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
       <c r="V54" s="22"/>
@@ -18387,7 +18250,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
     </row>
-    <row r="55" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -18398,35 +18261,35 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="K55" s="192"/>
       <c r="L55" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M55" s="122">
-        <f>IF($Q50=MIN($Q50:$Q54),-M50,M50)+IF($Q51=MIN($Q50:$Q54),-M51,M51)+IF($Q52=MIN($Q50:$Q54),-M52,M52)+IF($Q53=MIN($Q50:$Q54), M53,M53)+IF($Q54=MIN($Q50:$Q54),-M54,M54)</f>
-        <v>14.290727618657495</v>
+        <f t="shared" ref="M55" si="67">IF($Q50=MIN($Q50:$Q54),-M50,M50)+IF($Q51=MIN($Q50:$Q54),-M51,M51)+IF($Q52=MIN($Q50:$Q54),-M52,M52)+IF($Q53=MIN($Q50:$Q54), -M53,M53)+IF($Q54=MIN($Q50:$Q54),-M54,M54)</f>
+        <v>14.406832672328168</v>
       </c>
       <c r="N55" s="123">
-        <f>IF($Q50=MIN($Q50:$Q54),-N50,N50)+IF($Q51=MIN($Q50:$Q54),-N51,N51)+IF($Q52=MIN($Q50:$Q54),-N52,N52)+IF($Q53=MIN($Q50:$Q54), N53,N53)+IF($Q54=MIN($Q50:$Q54),-N54,N54)</f>
-        <v>14.024123024859161</v>
+        <f t="shared" ref="N55" si="68">IF($Q50=MIN($Q50:$Q54),-N50,N50)+IF($Q51=MIN($Q50:$Q54),-N51,N51)+IF($Q52=MIN($Q50:$Q54),-N52,N52)+IF($Q53=MIN($Q50:$Q54), -N53,N53)+IF($Q54=MIN($Q50:$Q54),-N54,N54)</f>
+        <v>14.175897589071944</v>
       </c>
       <c r="O55" s="123">
-        <f>IF($Q50=MIN($Q50:$Q54),-O50,O50)+IF($Q51=MIN($Q50:$Q54),-O51,O51)+IF($Q52=MIN($Q50:$Q54),-O52,O52)+IF($Q53=MIN($Q50:$Q54), O53,O53)+IF($Q54=MIN($Q50:$Q54),-O54,O54)</f>
-        <v>15.145094769160739</v>
+        <f t="shared" ref="O55" si="69">IF($Q50=MIN($Q50:$Q54),-O50,O50)+IF($Q51=MIN($Q50:$Q54),-O51,O51)+IF($Q52=MIN($Q50:$Q54),-O52,O52)+IF($Q53=MIN($Q50:$Q54), -O53,O53)+IF($Q54=MIN($Q50:$Q54),-O54,O54)</f>
+        <v>14.731677640940376</v>
       </c>
       <c r="P55" s="124">
-        <f>IF($Q50=MIN($Q50:$Q54),-P50,P50)+IF($Q51=MIN($Q50:$Q54),-P51,P51)+IF($Q52=MIN($Q50:$Q54),-P52,P52)+IF($Q53=MIN($Q50:$Q54), P53,P53)+IF($Q54=MIN($Q50:$Q54),-P54,P54)</f>
-        <v>14.554199618741062</v>
+        <f t="shared" ref="P55" si="70">IF($Q50=MIN($Q50:$Q54),-P50,P50)+IF($Q51=MIN($Q50:$Q54),-P51,P51)+IF($Q52=MIN($Q50:$Q54),-P52,P52)+IF($Q53=MIN($Q50:$Q54), -P53,P53)+IF($Q54=MIN($Q50:$Q54),-P54,P54)</f>
+        <v>14.957611871610901</v>
       </c>
       <c r="Q55" s="178">
-        <f>MAX(M55:P55)</f>
-        <v>15.145094769160739</v>
+        <f t="shared" ref="Q55" si="71">MAX(M55:P55)</f>
+        <v>14.957611871610901</v>
       </c>
       <c r="R55" s="180">
-        <f>Q55/5</f>
-        <v>3.0290189538321477</v>
-      </c>
-      <c r="S55" s="22"/>
+        <f t="shared" ref="R55" si="72">Q55/5</f>
+        <v>2.9915223743221802</v>
+      </c>
+      <c r="S55" s="192"/>
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
@@ -18461,7 +18324,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
     </row>
-    <row r="56" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -18472,29 +18335,29 @@
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
+      <c r="K56" s="192"/>
       <c r="L56" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M56" s="126">
-        <f>M55/$R55</f>
-        <v>4.7179393184640377</v>
+        <f t="shared" ref="M56" si="73">M55/$R55</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N56" s="127">
-        <f t="shared" ref="N56:P56" si="61">N55/$R55</f>
-        <v>4.6299225058055891</v>
+        <f t="shared" ref="N56" si="74">N55/$R55</f>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O56" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="O56" si="75">O55/$R55</f>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P56" s="128">
+        <f t="shared" ref="P56" si="76">P55/$R55</f>
         <v>5</v>
-      </c>
-      <c r="P56" s="128">
-        <f t="shared" si="61"/>
-        <v>4.8049219369617653</v>
       </c>
       <c r="Q56" s="179"/>
       <c r="R56" s="181"/>
-      <c r="S56" s="22"/>
+      <c r="S56" s="192"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
@@ -18529,7 +18392,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
     </row>
-    <row r="57" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -18540,35 +18403,35 @@
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
+      <c r="K57" s="192"/>
       <c r="L57" s="147">
         <v>8</v>
       </c>
       <c r="M57" s="116">
-        <f>IF($Q50=MIN($Q50:$Q54),M56,M50)</f>
-        <v>4.5407588021941603</v>
+        <f t="shared" ref="M57" si="77">IF($Q50=MIN($Q50:$Q54),M56,M50)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N57" s="116">
-        <f t="shared" ref="N57" si="62">IF($Q50=MIN($Q50:$Q54),N56,N50)</f>
-        <v>4.7728787232456833</v>
+        <f t="shared" ref="N57" si="78">IF($Q50=MIN($Q50:$Q54),N56,N50)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O57" s="116">
-        <f t="shared" ref="O57" si="63">IF($Q50=MIN($Q50:$Q54),O56,O50)</f>
+        <f t="shared" ref="O57" si="79">IF($Q50=MIN($Q50:$Q54),O56,O50)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P57" s="116">
+        <f t="shared" ref="P57" si="80">IF($Q50=MIN($Q50:$Q54),P56,P50)</f>
         <v>5</v>
       </c>
-      <c r="P57" s="116">
-        <f t="shared" ref="P57" si="64">IF($Q50=MIN($Q50:$Q54),P56,P50)</f>
-        <v>4.825616970339925</v>
-      </c>
       <c r="Q57" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M57:P57)+$F$30</f>
-        <v>135.08561014622418</v>
-      </c>
-      <c r="R57" s="191">
-        <f>MAX(Q57:Q61)-MIN(Q57:Q61)</f>
-        <v>3.0520147231297301</v>
-      </c>
-      <c r="S57" s="22"/>
+        <f t="shared" ref="Q57:Q61" si="81">SUMPRODUCT($B$30:$E$30,M57:P57)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R57" s="182">
+        <f t="shared" ref="R57" si="82">MAX(Q57:Q61)-MIN(Q57:Q61)</f>
+        <v>2.7480679195876121</v>
+      </c>
+      <c r="S57" s="192"/>
       <c r="T57" s="22"/>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
@@ -18603,7 +18466,7 @@
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
     </row>
-    <row r="58" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -18614,30 +18477,30 @@
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
+      <c r="K58" s="192"/>
       <c r="L58" s="148"/>
       <c r="M58" s="70">
-        <f>IF($Q51=MIN($Q50:$Q54),M56,M51)</f>
-        <v>4.7179393184640377</v>
+        <f t="shared" ref="M58:P58" si="83">IF($Q51=MIN($Q50:$Q54),M56,M51)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N58" s="70">
-        <f t="shared" ref="N58:P58" si="65">IF($Q51=MIN($Q50:$Q54),N56,N51)</f>
-        <v>4.6299225058055891</v>
+        <f t="shared" si="83"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O58" s="70">
-        <f t="shared" si="65"/>
+        <f t="shared" si="83"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P58" s="70">
+        <f t="shared" si="83"/>
         <v>5</v>
       </c>
-      <c r="P58" s="70">
-        <f t="shared" si="65"/>
-        <v>4.8049219369617653</v>
-      </c>
       <c r="Q58" s="72">
-        <f t="shared" ref="Q58:Q61" si="66">SUMPRODUCT($B$30:$E$30,M58:P58)+$F$30</f>
-        <v>134.77271071385186</v>
-      </c>
-      <c r="R58" s="186"/>
-      <c r="S58" s="22"/>
+        <f t="shared" si="81"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R58" s="183"/>
+      <c r="S58" s="192"/>
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>
@@ -18672,7 +18535,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
     </row>
-    <row r="59" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -18683,30 +18546,30 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
+      <c r="K59" s="192"/>
       <c r="L59" s="148"/>
       <c r="M59" s="70">
-        <f>IF($Q52=MIN($Q50:$Q54),M56,M52)</f>
+        <f t="shared" ref="M59:P59" si="84">IF($Q52=MIN($Q50:$Q54),M56,M52)</f>
         <v>4.6744419086520415</v>
       </c>
       <c r="N59" s="70">
-        <f t="shared" ref="N59:P59" si="67">IF($Q52=MIN($Q50:$Q54),N56,N52)</f>
+        <f t="shared" si="84"/>
         <v>4.5648030487261728</v>
       </c>
       <c r="O59" s="70">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>5</v>
       </c>
       <c r="P59" s="70">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>4.8844933969395132</v>
       </c>
       <c r="Q59" s="72">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>135.79466961520757</v>
       </c>
-      <c r="R59" s="186"/>
-      <c r="S59" s="22"/>
+      <c r="R59" s="183"/>
+      <c r="S59" s="192"/>
       <c r="T59" s="22"/>
       <c r="U59" s="22"/>
       <c r="V59" s="22"/>
@@ -18741,7 +18604,7 @@
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
     </row>
-    <row r="60" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -18752,30 +18615,30 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
+      <c r="K60" s="192"/>
       <c r="L60" s="148"/>
       <c r="M60" s="70">
-        <f>IF($Q53=MIN($Q50:$Q54),M56,M53)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M60:P60" si="85">IF($Q53=MIN($Q50:$Q54),M56,M53)</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N60" s="70">
-        <f t="shared" ref="N60:P60" si="68">IF($Q53=MIN($Q50:$Q54),N56,N53)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="85"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O60" s="70">
-        <f t="shared" si="68"/>
+        <f t="shared" si="85"/>
+        <v>4.6153059004661792</v>
+      </c>
+      <c r="P60" s="70">
+        <f t="shared" si="85"/>
         <v>5</v>
       </c>
-      <c r="P60" s="70">
-        <f t="shared" si="68"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q60" s="72">
-        <f t="shared" si="66"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R60" s="186"/>
-      <c r="S60" s="22"/>
+        <f t="shared" si="81"/>
+        <v>136.51413386869353</v>
+      </c>
+      <c r="R60" s="183"/>
+      <c r="S60" s="192"/>
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
@@ -18810,7 +18673,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
     </row>
-    <row r="61" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -18821,30 +18684,30 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
+      <c r="K61" s="192"/>
       <c r="L61" s="148"/>
       <c r="M61" s="75">
-        <f>IF($Q54=MIN($Q50:$Q54),M56,M54)</f>
-        <v>4.8145049658583057</v>
+        <f t="shared" ref="M61:P61" si="86">IF($Q54=MIN($Q50:$Q54),M56,M54)</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N61" s="75">
-        <f t="shared" ref="N61:P61" si="69">IF($Q54=MIN($Q50:$Q54),N56,N54)</f>
-        <v>4.8796075475959748</v>
+        <f t="shared" si="86"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O61" s="75">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>5</v>
       </c>
       <c r="P61" s="75">
-        <f t="shared" si="69"/>
-        <v>4.7094299740725649</v>
+        <f t="shared" si="86"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q61" s="73">
-        <f t="shared" si="66"/>
-        <v>134.22373846569457</v>
-      </c>
-      <c r="R61" s="186"/>
-      <c r="S61" s="22"/>
+        <f t="shared" si="81"/>
+        <v>137.17642501837128</v>
+      </c>
+      <c r="R61" s="183"/>
+      <c r="S61" s="192"/>
       <c r="T61" s="22"/>
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
@@ -18879,7 +18742,7 @@
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
     </row>
-    <row r="62" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -18890,35 +18753,35 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
+      <c r="K62" s="192"/>
       <c r="L62" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M62" s="122">
-        <f>IF($Q57=MIN($Q57:$Q61),-M57,M57)+IF($Q58=MIN($Q57:$Q61),-M58,M58)+IF($Q59=MIN($Q57:$Q61),-M59,M59)+IF($Q60=MIN($Q57:$Q61), M60,M60)+IF($Q61=MIN($Q57:$Q61),-M61,M61)</f>
-        <v>13.88427740870997</v>
+        <f t="shared" ref="M62" si="87">IF($Q57=MIN($Q57:$Q61),-M57,M57)+IF($Q58=MIN($Q57:$Q61),-M58,M58)+IF($Q59=MIN($Q57:$Q61),-M59,M59)+IF($Q60=MIN($Q57:$Q61), -M60,M60)+IF($Q61=MIN($Q57:$Q61),-M61,M61)</f>
+        <v>14.378455910553313</v>
       </c>
       <c r="N62" s="123">
-        <f>IF($Q57=MIN($Q57:$Q61),-N57,N57)+IF($Q58=MIN($Q57:$Q61),-N58,N58)+IF($Q59=MIN($Q57:$Q61),-N59,N59)+IF($Q60=MIN($Q57:$Q61), N60,N60)+IF($Q61=MIN($Q57:$Q61),-N61,N61)</f>
-        <v>13.894830435472802</v>
+        <f t="shared" ref="N62" si="88">IF($Q57=MIN($Q57:$Q61),-N57,N57)+IF($Q58=MIN($Q57:$Q61),-N58,N58)+IF($Q59=MIN($Q57:$Q61),-N59,N59)+IF($Q60=MIN($Q57:$Q61), -N60,N60)+IF($Q61=MIN($Q57:$Q61),-N61,N61)</f>
+        <v>14.78498163505666</v>
       </c>
       <c r="O62" s="123">
-        <f>IF($Q57=MIN($Q57:$Q61),-O57,O57)+IF($Q58=MIN($Q57:$Q61),-O58,O58)+IF($Q59=MIN($Q57:$Q61),-O59,O59)+IF($Q60=MIN($Q57:$Q61), O60,O60)+IF($Q61=MIN($Q57:$Q61),-O61,O61)</f>
-        <v>15</v>
+        <f t="shared" ref="O62" si="89">IF($Q57=MIN($Q57:$Q61),-O57,O57)+IF($Q58=MIN($Q57:$Q61),-O58,O58)+IF($Q59=MIN($Q57:$Q61),-O59,O59)+IF($Q60=MIN($Q57:$Q61), -O60,O60)+IF($Q61=MIN($Q57:$Q61),-O61,O61)</f>
+        <v>14.51105803779884</v>
       </c>
       <c r="P62" s="124">
-        <f>IF($Q57=MIN($Q57:$Q61),-P57,P57)+IF($Q58=MIN($Q57:$Q61),-P58,P58)+IF($Q59=MIN($Q57:$Q61),-P59,P59)+IF($Q60=MIN($Q57:$Q61), P60,P60)+IF($Q61=MIN($Q57:$Q61),-P61,P61)</f>
-        <v>14.716215564255512</v>
+        <f t="shared" ref="P62" si="90">IF($Q57=MIN($Q57:$Q61),-P57,P57)+IF($Q58=MIN($Q57:$Q61),-P58,P58)+IF($Q59=MIN($Q57:$Q61),-P59,P59)+IF($Q60=MIN($Q57:$Q61), -P60,P60)+IF($Q61=MIN($Q57:$Q61),-P61,P61)</f>
+        <v>14.964579034429685</v>
       </c>
       <c r="Q62" s="178">
-        <f>MAX(M62:P62)</f>
-        <v>15</v>
+        <f t="shared" ref="Q62" si="91">MAX(M62:P62)</f>
+        <v>14.964579034429685</v>
       </c>
       <c r="R62" s="180">
-        <f>Q62/5</f>
-        <v>3</v>
-      </c>
-      <c r="S62" s="22"/>
+        <f t="shared" ref="R62" si="92">Q62/5</f>
+        <v>2.9929158068859367</v>
+      </c>
+      <c r="S62" s="192"/>
       <c r="T62" s="22"/>
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
@@ -18953,7 +18816,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="63" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -18964,29 +18827,29 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="K63" s="192"/>
       <c r="L63" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M63" s="126">
-        <f>M62/$R62</f>
-        <v>4.6280924695699897</v>
+        <f t="shared" ref="M63" si="93">M62/$R62</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N63" s="127">
-        <f t="shared" ref="N63:P63" si="70">N62/$R62</f>
-        <v>4.6316101451576008</v>
+        <f t="shared" ref="N63" si="94">N62/$R62</f>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O63" s="127">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="O63" si="95">O62/$R62</f>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P63" s="128">
+        <f t="shared" ref="P63" si="96">P62/$R62</f>
         <v>5</v>
-      </c>
-      <c r="P63" s="128">
-        <f t="shared" si="70"/>
-        <v>4.9054051880851706</v>
       </c>
       <c r="Q63" s="179"/>
       <c r="R63" s="181"/>
-      <c r="S63" s="22"/>
+      <c r="S63" s="192"/>
       <c r="T63" s="22"/>
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
@@ -19021,7 +18884,7 @@
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
     </row>
-    <row r="64" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -19032,35 +18895,35 @@
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
+      <c r="K64" s="192"/>
       <c r="L64" s="147">
         <v>9</v>
       </c>
       <c r="M64" s="116">
-        <f>IF($Q57=MIN($Q57:$Q61),M63,M57)</f>
-        <v>4.5407588021941603</v>
+        <f t="shared" ref="M64" si="97">IF($Q57=MIN($Q57:$Q61),M63,M57)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N64" s="116">
-        <f t="shared" ref="N64" si="71">IF($Q57=MIN($Q57:$Q61),N63,N57)</f>
-        <v>4.7728787232456833</v>
+        <f t="shared" ref="N64" si="98">IF($Q57=MIN($Q57:$Q61),N63,N57)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O64" s="116">
-        <f t="shared" ref="O64" si="72">IF($Q57=MIN($Q57:$Q61),O63,O57)</f>
+        <f t="shared" ref="O64" si="99">IF($Q57=MIN($Q57:$Q61),O63,O57)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P64" s="116">
+        <f t="shared" ref="P64" si="100">IF($Q57=MIN($Q57:$Q61),P63,P57)</f>
         <v>5</v>
       </c>
-      <c r="P64" s="116">
-        <f t="shared" ref="P64" si="73">IF($Q57=MIN($Q57:$Q61),P63,P57)</f>
-        <v>4.825616970339925</v>
-      </c>
       <c r="Q64" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M64:P64)+$F$30</f>
-        <v>135.08561014622418</v>
-      </c>
-      <c r="R64" s="191">
-        <f>MAX(Q64:Q68)-MIN(Q64:Q68)</f>
-        <v>2.5030424749724318</v>
-      </c>
-      <c r="S64" s="22"/>
+        <f t="shared" ref="Q64:Q68" si="101">SUMPRODUCT($B$30:$E$30,M64:P64)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R64" s="182">
+        <f t="shared" ref="R64:R71" si="102">MAX(Q64:Q68)-MIN(Q64:Q68)</f>
+        <v>2.074847196370456</v>
+      </c>
+      <c r="S64" s="192"/>
       <c r="T64" s="22"/>
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
@@ -19095,7 +18958,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
     </row>
-    <row r="65" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -19106,30 +18969,30 @@
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
+      <c r="K65" s="192"/>
       <c r="L65" s="148"/>
       <c r="M65" s="70">
-        <f>IF($Q58=MIN($Q57:$Q61),M63,M58)</f>
-        <v>4.7179393184640377</v>
+        <f t="shared" ref="M65:P65" si="103">IF($Q58=MIN($Q57:$Q61),M63,M58)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N65" s="70">
-        <f t="shared" ref="N65:P65" si="74">IF($Q58=MIN($Q57:$Q61),N63,N58)</f>
-        <v>4.6299225058055891</v>
+        <f t="shared" si="103"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O65" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="103"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P65" s="70">
+        <f t="shared" si="103"/>
         <v>5</v>
       </c>
-      <c r="P65" s="70">
-        <f t="shared" si="74"/>
-        <v>4.8049219369617653</v>
-      </c>
       <c r="Q65" s="72">
-        <f t="shared" ref="Q65:Q68" si="75">SUMPRODUCT($B$30:$E$30,M65:P65)+$F$30</f>
-        <v>134.77271071385186</v>
-      </c>
-      <c r="R65" s="186"/>
-      <c r="S65" s="22"/>
+        <f t="shared" si="101"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R65" s="183"/>
+      <c r="S65" s="192"/>
       <c r="T65" s="22"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
@@ -19164,7 +19027,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
     </row>
-    <row r="66" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -19175,30 +19038,30 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
+      <c r="K66" s="192"/>
       <c r="L66" s="148"/>
       <c r="M66" s="70">
-        <f>IF($Q59=MIN($Q57:$Q61),M63,M59)</f>
-        <v>4.6744419086520415</v>
+        <f t="shared" ref="M66:P66" si="104">IF($Q59=MIN($Q57:$Q61),M63,M59)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N66" s="70">
-        <f t="shared" ref="N66:P66" si="76">IF($Q59=MIN($Q57:$Q61),N63,N59)</f>
-        <v>4.5648030487261728</v>
+        <f t="shared" si="104"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O66" s="70">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P66" s="70">
+        <f t="shared" si="104"/>
         <v>5</v>
       </c>
-      <c r="P66" s="70">
-        <f t="shared" si="76"/>
-        <v>4.8844933969395132</v>
-      </c>
       <c r="Q66" s="72">
-        <f t="shared" si="75"/>
-        <v>135.79466961520757</v>
-      </c>
-      <c r="R66" s="186"/>
-      <c r="S66" s="22"/>
+        <f t="shared" si="101"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R66" s="183"/>
+      <c r="S66" s="192"/>
       <c r="T66" s="22"/>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -19233,7 +19096,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
     </row>
-    <row r="67" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -19244,30 +19107,30 @@
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="K67" s="192"/>
       <c r="L67" s="148"/>
       <c r="M67" s="70">
-        <f>IF($Q60=MIN($Q57:$Q61),M63,M60)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M67:P67" si="105">IF($Q60=MIN($Q57:$Q61),M63,M60)</f>
+        <v>4.6922143799770497</v>
       </c>
       <c r="N67" s="70">
-        <f t="shared" ref="N67:P67" si="77">IF($Q60=MIN($Q57:$Q61),N63,N60)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="105"/>
+        <v>4.7499330083430484</v>
       </c>
       <c r="O67" s="70">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
+        <v>4.6153059004661792</v>
+      </c>
+      <c r="P67" s="70">
+        <f t="shared" si="105"/>
         <v>5</v>
       </c>
-      <c r="P67" s="70">
-        <f t="shared" si="77"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q67" s="72">
-        <f t="shared" si="75"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R67" s="186"/>
-      <c r="S67" s="22"/>
+        <f t="shared" si="101"/>
+        <v>136.51413386869353</v>
+      </c>
+      <c r="R67" s="183"/>
+      <c r="S67" s="192"/>
       <c r="T67" s="22"/>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -19302,7 +19165,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
     </row>
-    <row r="68" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -19313,30 +19176,30 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="K68" s="192"/>
       <c r="L68" s="148"/>
       <c r="M68" s="75">
-        <f>IF($Q61=MIN($Q57:$Q61),M63,M61)</f>
-        <v>4.6280924695699897</v>
+        <f t="shared" ref="M68:P68" si="106">IF($Q61=MIN($Q57:$Q61),M63,M61)</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N68" s="75">
-        <f t="shared" ref="N68:P68" si="78">IF($Q61=MIN($Q57:$Q61),N63,N61)</f>
-        <v>4.6316101451576008</v>
+        <f t="shared" si="106"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O68" s="75">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>5</v>
       </c>
       <c r="P68" s="75">
-        <f t="shared" si="78"/>
-        <v>4.9054051880851706</v>
+        <f t="shared" si="106"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q68" s="73">
-        <f t="shared" si="75"/>
-        <v>136.23500173280448</v>
-      </c>
-      <c r="R68" s="186"/>
-      <c r="S68" s="22"/>
+        <f t="shared" si="101"/>
+        <v>137.17642501837128</v>
+      </c>
+      <c r="R68" s="183"/>
+      <c r="S68" s="192"/>
       <c r="T68" s="22"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -19371,7 +19234,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
     </row>
-    <row r="69" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -19382,35 +19245,35 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
+      <c r="K69" s="192"/>
       <c r="L69" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M69" s="122">
-        <f>IF($Q64=MIN($Q64:$Q68),-M64,M64)+IF($Q65=MIN($Q64:$Q68),-M65,M65)+IF($Q66=MIN($Q64:$Q68),-M66,M66)+IF($Q67=MIN($Q64:$Q68), M67,M67)+IF($Q68=MIN($Q64:$Q68),-M68,M68)</f>
-        <v>13.89099620721019</v>
+        <f t="shared" ref="M69" si="107">IF($Q64=MIN($Q64:$Q68),-M64,M64)+IF($Q65=MIN($Q64:$Q68),-M65,M65)+IF($Q66=MIN($Q64:$Q68),-M66,M66)+IF($Q67=MIN($Q64:$Q68), -M67,M67)+IF($Q68=MIN($Q64:$Q68),-M68,M68)</f>
+        <v>14.47263223600088</v>
       </c>
       <c r="N69" s="123">
-        <f>IF($Q64=MIN($Q64:$Q68),-N64,N64)+IF($Q65=MIN($Q64:$Q68),-N65,N65)+IF($Q66=MIN($Q64:$Q68),-N66,N66)+IF($Q67=MIN($Q64:$Q68), N67,N67)+IF($Q68=MIN($Q64:$Q68),-N68,N68)</f>
-        <v>14.146203116615197</v>
+        <f t="shared" ref="N69" si="108">IF($Q64=MIN($Q64:$Q68),-N64,N64)+IF($Q65=MIN($Q64:$Q68),-N65,N65)+IF($Q66=MIN($Q64:$Q68),-N66,N66)+IF($Q67=MIN($Q64:$Q68), -N67,N67)+IF($Q68=MIN($Q64:$Q68),-N68,N68)</f>
+        <v>14.789911165729734</v>
       </c>
       <c r="O69" s="123">
-        <f>IF($Q64=MIN($Q64:$Q68),-O64,O64)+IF($Q65=MIN($Q64:$Q68),-O65,O65)+IF($Q66=MIN($Q64:$Q68),-O66,O66)+IF($Q67=MIN($Q64:$Q68), O67,O67)+IF($Q68=MIN($Q64:$Q68),-O68,O68)</f>
-        <v>15</v>
+        <f t="shared" ref="O69" si="109">IF($Q64=MIN($Q64:$Q68),-O64,O64)+IF($Q65=MIN($Q64:$Q68),-O65,O65)+IF($Q66=MIN($Q64:$Q68),-O66,O66)+IF($Q67=MIN($Q64:$Q68), -O67,O67)+IF($Q68=MIN($Q64:$Q68),-O68,O68)</f>
+        <v>15.128914745206274</v>
       </c>
       <c r="P69" s="124">
-        <f>IF($Q64=MIN($Q64:$Q68),-P64,P64)+IF($Q65=MIN($Q64:$Q68),-P65,P65)+IF($Q66=MIN($Q64:$Q68),-P66,P66)+IF($Q67=MIN($Q64:$Q68), P67,P67)+IF($Q68=MIN($Q64:$Q68),-P68,P68)</f>
-        <v>14.721206852489713</v>
+        <f t="shared" ref="P69" si="110">IF($Q64=MIN($Q64:$Q68),-P64,P64)+IF($Q65=MIN($Q64:$Q68),-P65,P65)+IF($Q66=MIN($Q64:$Q68),-P66,P66)+IF($Q67=MIN($Q64:$Q68), -P67,P67)+IF($Q68=MIN($Q64:$Q68),-P68,P68)</f>
+        <v>14.849072431369198</v>
       </c>
       <c r="Q69" s="178">
-        <f>MAX(M69:P69)</f>
-        <v>15</v>
+        <f t="shared" ref="Q69" si="111">MAX(M69:P69)</f>
+        <v>15.128914745206274</v>
       </c>
       <c r="R69" s="180">
-        <f>Q69/5</f>
-        <v>3</v>
-      </c>
-      <c r="S69" s="22"/>
+        <f t="shared" ref="R69:R76" si="112">Q69/5</f>
+        <v>3.0257829490412549</v>
+      </c>
+      <c r="S69" s="192"/>
       <c r="T69" s="22"/>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -19445,7 +19308,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
     </row>
-    <row r="70" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -19456,29 +19319,29 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
+      <c r="K70" s="192"/>
       <c r="L70" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M70" s="126">
-        <f>M69/$R69</f>
-        <v>4.6303320690700636</v>
+        <f t="shared" ref="M70:M77" si="113">M69/$R69</f>
+        <v>4.7831032429430067</v>
       </c>
       <c r="N70" s="127">
-        <f t="shared" ref="N70:P70" si="79">N69/$R69</f>
-        <v>4.7154010388717325</v>
+        <f t="shared" ref="N70:N77" si="114">N69/$R69</f>
+        <v>4.8879616994391624</v>
       </c>
       <c r="O70" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="O70:O77" si="115">O69/$R69</f>
         <v>5</v>
       </c>
       <c r="P70" s="128">
-        <f t="shared" si="79"/>
-        <v>4.9070689508299044</v>
+        <f t="shared" ref="P70:P77" si="116">P69/$R69</f>
+        <v>4.9075140819582757</v>
       </c>
       <c r="Q70" s="179"/>
       <c r="R70" s="181"/>
-      <c r="S70" s="22"/>
+      <c r="S70" s="192"/>
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
       <c r="V70" s="22"/>
@@ -19513,7 +19376,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
     </row>
-    <row r="71" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -19524,35 +19387,35 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
+      <c r="K71" s="192"/>
       <c r="L71" s="147">
         <v>10</v>
       </c>
       <c r="M71" s="116">
-        <f>IF($Q64=MIN($Q64:$Q68),M70,M64)</f>
-        <v>4.5407588021941603</v>
+        <f t="shared" ref="M71" si="117">IF($Q64=MIN($Q64:$Q68),M70,M64)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N71" s="116">
-        <f t="shared" ref="N71" si="80">IF($Q64=MIN($Q64:$Q68),N70,N64)</f>
-        <v>4.7728787232456833</v>
+        <f t="shared" ref="N71" si="118">IF($Q64=MIN($Q64:$Q68),N70,N64)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O71" s="116">
-        <f t="shared" ref="O71" si="81">IF($Q64=MIN($Q64:$Q68),O70,O64)</f>
+        <f t="shared" ref="O71" si="119">IF($Q64=MIN($Q64:$Q68),O70,O64)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P71" s="116">
+        <f t="shared" ref="P71" si="120">IF($Q64=MIN($Q64:$Q68),P70,P64)</f>
         <v>5</v>
       </c>
-      <c r="P71" s="116">
-        <f t="shared" ref="P71" si="82">IF($Q64=MIN($Q64:$Q68),P70,P64)</f>
-        <v>4.825616970339925</v>
-      </c>
       <c r="Q71" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M71:P71)+$F$30</f>
-        <v>135.08561014622418</v>
-      </c>
-      <c r="R71" s="191">
-        <f>MAX(Q71:Q75)-MIN(Q71:Q75)</f>
-        <v>2.1901430426001127</v>
-      </c>
-      <c r="S71" s="22"/>
+        <f t="shared" ref="Q71:Q75" si="121">SUMPRODUCT($B$30:$E$30,M71:P71)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R71" s="182">
+        <f t="shared" si="102"/>
+        <v>1.4125560466927141</v>
+      </c>
+      <c r="S71" s="192"/>
       <c r="T71" s="22"/>
       <c r="U71" s="22"/>
       <c r="V71" s="22"/>
@@ -19587,7 +19450,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
     </row>
-    <row r="72" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -19598,30 +19461,30 @@
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
+      <c r="K72" s="192"/>
       <c r="L72" s="148"/>
       <c r="M72" s="70">
-        <f>IF($Q65=MIN($Q64:$Q68),M70,M65)</f>
-        <v>4.6303320690700636</v>
+        <f t="shared" ref="M72:P72" si="122">IF($Q65=MIN($Q64:$Q68),M70,M65)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N72" s="70">
-        <f t="shared" ref="N72:P72" si="83">IF($Q65=MIN($Q64:$Q68),N70,N65)</f>
-        <v>4.7154010388717325</v>
+        <f t="shared" si="122"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O72" s="70">
-        <f t="shared" si="83"/>
+        <f t="shared" si="122"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P72" s="70">
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
-      <c r="P72" s="70">
-        <f t="shared" si="83"/>
-        <v>4.9070689508299044</v>
-      </c>
       <c r="Q72" s="72">
-        <f t="shared" ref="Q72:Q75" si="84">SUMPRODUCT($B$30:$E$30,M72:P72)+$F$30</f>
-        <v>136.53944132306958</v>
-      </c>
-      <c r="R72" s="186"/>
-      <c r="S72" s="22"/>
+        <f t="shared" si="121"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R72" s="183"/>
+      <c r="S72" s="192"/>
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
       <c r="V72" s="22"/>
@@ -19656,7 +19519,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
     </row>
-    <row r="73" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -19667,30 +19530,30 @@
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
+      <c r="K73" s="192"/>
       <c r="L73" s="148"/>
       <c r="M73" s="70">
-        <f>IF($Q66=MIN($Q64:$Q68),M70,M66)</f>
-        <v>4.6744419086520415</v>
+        <f t="shared" ref="M73:P73" si="123">IF($Q66=MIN($Q64:$Q68),M70,M66)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N73" s="70">
-        <f t="shared" ref="N73:P73" si="85">IF($Q66=MIN($Q64:$Q68),N70,N66)</f>
-        <v>4.5648030487261728</v>
+        <f t="shared" si="123"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O73" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="123"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P73" s="70">
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
-      <c r="P73" s="70">
-        <f t="shared" si="85"/>
-        <v>4.8844933969395132</v>
-      </c>
       <c r="Q73" s="72">
-        <f t="shared" si="84"/>
-        <v>135.79466961520757</v>
-      </c>
-      <c r="R73" s="186"/>
-      <c r="S73" s="22"/>
+        <f t="shared" si="121"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R73" s="183"/>
+      <c r="S73" s="192"/>
       <c r="T73" s="22"/>
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
@@ -19725,7 +19588,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
     </row>
-    <row r="74" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -19736,30 +19599,30 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
+      <c r="K74" s="192"/>
       <c r="L74" s="148"/>
       <c r="M74" s="70">
-        <f>IF($Q67=MIN($Q64:$Q68),M70,M67)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M74:P74" si="124">IF($Q67=MIN($Q64:$Q68),M70,M67)</f>
+        <v>4.7831032429430067</v>
       </c>
       <c r="N74" s="70">
-        <f t="shared" ref="N74:P74" si="86">IF($Q67=MIN($Q64:$Q68),N70,N67)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="124"/>
+        <v>4.8879616994391624</v>
       </c>
       <c r="O74" s="70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="124"/>
         <v>5</v>
       </c>
       <c r="P74" s="70">
-        <f t="shared" si="86"/>
-        <v>4.9106132340868704</v>
+        <f t="shared" si="124"/>
+        <v>4.9075140819582757</v>
       </c>
       <c r="Q74" s="72">
-        <f t="shared" si="84"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R74" s="186"/>
-      <c r="S74" s="22"/>
+        <f t="shared" si="121"/>
+        <v>137.53347749222328</v>
+      </c>
+      <c r="R74" s="183"/>
+      <c r="S74" s="192"/>
       <c r="T74" s="22"/>
       <c r="U74" s="22"/>
       <c r="V74" s="22"/>
@@ -19794,7 +19657,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
     </row>
-    <row r="75" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -19805,30 +19668,30 @@
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
+      <c r="K75" s="192"/>
       <c r="L75" s="148"/>
       <c r="M75" s="75">
-        <f>IF($Q68=MIN($Q64:$Q68),M70,M68)</f>
-        <v>4.6280924695699897</v>
+        <f t="shared" ref="M75:P75" si="125">IF($Q68=MIN($Q64:$Q68),M70,M68)</f>
+        <v>4.906315350197322</v>
       </c>
       <c r="N75" s="75">
-        <f t="shared" ref="N75:P75" si="87">IF($Q68=MIN($Q64:$Q68),N70,N68)</f>
-        <v>4.6316101451576008</v>
+        <f t="shared" si="125"/>
+        <v>4.9780754499723683</v>
       </c>
       <c r="O75" s="75">
-        <f t="shared" si="87"/>
+        <f t="shared" si="125"/>
         <v>5</v>
       </c>
       <c r="P75" s="75">
-        <f t="shared" si="87"/>
-        <v>4.9054051880851706</v>
+        <f t="shared" si="125"/>
+        <v>4.8490724313691977</v>
       </c>
       <c r="Q75" s="73">
-        <f t="shared" si="84"/>
-        <v>136.23500173280448</v>
-      </c>
-      <c r="R75" s="186"/>
-      <c r="S75" s="22"/>
+        <f t="shared" si="121"/>
+        <v>137.17642501837128</v>
+      </c>
+      <c r="R75" s="183"/>
+      <c r="S75" s="192"/>
       <c r="T75" s="22"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
@@ -19863,7 +19726,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
     </row>
-    <row r="76" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -19874,35 +19737,35 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
+      <c r="K76" s="192"/>
       <c r="L76" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M76" s="122">
-        <f>IF($Q71=MIN($Q71:$Q75),-M71,M71)+IF($Q72=MIN($Q71:$Q75),-M72,M72)+IF($Q73=MIN($Q71:$Q75),-M73,M73)+IF($Q74=MIN($Q71:$Q75), M74,M74)+IF($Q75=MIN($Q71:$Q75),-M75,M75)</f>
-        <v>14.15774999035597</v>
+        <f t="shared" ref="M76" si="126">IF($Q71=MIN($Q71:$Q75),-M71,M71)+IF($Q72=MIN($Q71:$Q75),-M72,M72)+IF($Q73=MIN($Q71:$Q75),-M73,M73)+IF($Q74=MIN($Q71:$Q75), -M74,M74)+IF($Q75=MIN($Q71:$Q75),-M75,M75)</f>
+        <v>14.135319158526293</v>
       </c>
       <c r="N76" s="123">
-        <f>IF($Q71=MIN($Q71:$Q75),-N71,N71)+IF($Q72=MIN($Q71:$Q75),-N72,N72)+IF($Q73=MIN($Q71:$Q75),-N73,N73)+IF($Q74=MIN($Q71:$Q75), N74,N74)+IF($Q75=MIN($Q71:$Q75),-N75,N75)</f>
-        <v>13.945769214801153</v>
+        <f t="shared" ref="N76" si="127">IF($Q71=MIN($Q71:$Q75),-N71,N71)+IF($Q72=MIN($Q71:$Q75),-N72,N72)+IF($Q73=MIN($Q71:$Q75),-N73,N73)+IF($Q74=MIN($Q71:$Q75), -N74,N74)+IF($Q75=MIN($Q71:$Q75),-N75,N75)</f>
+        <v>14.471654973567208</v>
       </c>
       <c r="O76" s="123">
-        <f>IF($Q71=MIN($Q71:$Q75),-O71,O71)+IF($Q72=MIN($Q71:$Q75),-O72,O72)+IF($Q73=MIN($Q71:$Q75),-O73,O73)+IF($Q74=MIN($Q71:$Q75), O74,O74)+IF($Q75=MIN($Q71:$Q75),-O75,O75)</f>
-        <v>15</v>
+        <f t="shared" ref="O76" si="128">IF($Q71=MIN($Q71:$Q75),-O71,O71)+IF($Q72=MIN($Q71:$Q75),-O72,O72)+IF($Q73=MIN($Q71:$Q75),-O73,O73)+IF($Q74=MIN($Q71:$Q75), -O74,O74)+IF($Q75=MIN($Q71:$Q75),-O75,O75)</f>
+        <v>14.744220645672453</v>
       </c>
       <c r="P76" s="124">
-        <f>IF($Q71=MIN($Q71:$Q75),-P71,P71)+IF($Q72=MIN($Q71:$Q75),-P72,P72)+IF($Q73=MIN($Q71:$Q75),-P73,P73)+IF($Q74=MIN($Q71:$Q75), P74,P74)+IF($Q75=MIN($Q71:$Q75),-P75,P75)</f>
-        <v>14.781963799601533</v>
+        <f t="shared" ref="P76" si="129">IF($Q71=MIN($Q71:$Q75),-P71,P71)+IF($Q72=MIN($Q71:$Q75),-P72,P72)+IF($Q73=MIN($Q71:$Q75),-P73,P73)+IF($Q74=MIN($Q71:$Q75), -P74,P74)+IF($Q75=MIN($Q71:$Q75),-P75,P75)</f>
+        <v>15.058441650589078</v>
       </c>
       <c r="Q76" s="178">
-        <f>MAX(M76:P76)</f>
-        <v>15</v>
+        <f t="shared" ref="Q76" si="130">MAX(M76:P76)</f>
+        <v>15.058441650589078</v>
       </c>
       <c r="R76" s="180">
-        <f>Q76/5</f>
-        <v>3</v>
-      </c>
-      <c r="S76" s="22"/>
+        <f t="shared" si="112"/>
+        <v>3.0116883301178157</v>
+      </c>
+      <c r="S76" s="192"/>
       <c r="T76" s="22"/>
       <c r="U76" s="22"/>
       <c r="V76" s="22"/>
@@ -19937,7 +19800,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
     </row>
-    <row r="77" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -19948,29 +19811,29 @@
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
+      <c r="K77" s="192"/>
       <c r="L77" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M77" s="126">
-        <f>M76/$R76</f>
-        <v>4.7192499967853232</v>
+        <f t="shared" ref="M77" si="131">M76/$R76</f>
+        <v>4.6934867121437254</v>
       </c>
       <c r="N77" s="127">
-        <f t="shared" ref="N77:P77" si="88">N76/$R76</f>
-        <v>4.6485897382670514</v>
+        <f t="shared" ref="N77" si="132">N76/$R76</f>
+        <v>4.8051635452600383</v>
       </c>
       <c r="O77" s="127">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="O77" si="133">O76/$R76</f>
+        <v>4.8956661611447911</v>
+      </c>
+      <c r="P77" s="128">
+        <f t="shared" ref="P77" si="134">P76/$R76</f>
         <v>5</v>
-      </c>
-      <c r="P77" s="128">
-        <f t="shared" si="88"/>
-        <v>4.9273212665338439</v>
       </c>
       <c r="Q77" s="179"/>
       <c r="R77" s="181"/>
-      <c r="S77" s="22"/>
+      <c r="S77" s="192"/>
       <c r="T77" s="22"/>
       <c r="U77" s="22"/>
       <c r="V77" s="22"/>
@@ -20005,7 +19868,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
     </row>
-    <row r="78" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -20016,35 +19879,35 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
+      <c r="K78" s="192"/>
       <c r="L78" s="147">
         <v>11</v>
       </c>
       <c r="M78" s="116">
-        <f>IF($Q71=MIN($Q71:$Q75),M77,M71)</f>
-        <v>4.7192499967853232</v>
+        <f t="shared" ref="M78" si="135">IF($Q71=MIN($Q71:$Q75),M77,M71)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N78" s="116">
-        <f t="shared" ref="N78" si="89">IF($Q71=MIN($Q71:$Q75),N77,N71)</f>
-        <v>4.6485897382670514</v>
+        <f t="shared" ref="N78" si="136">IF($Q71=MIN($Q71:$Q75),N77,N71)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O78" s="116">
-        <f t="shared" ref="O78" si="90">IF($Q71=MIN($Q71:$Q75),O77,O71)</f>
+        <f t="shared" ref="O78" si="137">IF($Q71=MIN($Q71:$Q75),O77,O71)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P78" s="116">
+        <f t="shared" ref="P78" si="138">IF($Q71=MIN($Q71:$Q75),P77,P71)</f>
         <v>5</v>
       </c>
-      <c r="P78" s="116">
-        <f t="shared" ref="P78" si="91">IF($Q71=MIN($Q71:$Q75),P77,P71)</f>
-        <v>4.9273212665338439</v>
-      </c>
       <c r="Q78" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M78:P78)+$F$30</f>
-        <v>136.91975190456057</v>
-      </c>
-      <c r="R78" s="191">
-        <f>MAX(Q78:Q82)-MIN(Q78:Q82)</f>
-        <v>1.4810835736167292</v>
-      </c>
-      <c r="S78" s="22"/>
+        <f t="shared" ref="Q78:Q82" si="139">SUMPRODUCT($B$30:$E$30,M78:P78)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R78" s="182">
+        <f t="shared" ref="R78" si="140">MAX(Q78:Q82)-MIN(Q78:Q82)</f>
+        <v>1.0555035728407063</v>
+      </c>
+      <c r="S78" s="192"/>
       <c r="T78" s="22"/>
       <c r="U78" s="22"/>
       <c r="V78" s="22"/>
@@ -20079,7 +19942,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
     </row>
-    <row r="79" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -20090,30 +19953,30 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
+      <c r="K79" s="192"/>
       <c r="L79" s="148"/>
       <c r="M79" s="70">
-        <f>IF($Q72=MIN($Q71:$Q75),M77,M72)</f>
-        <v>4.6303320690700636</v>
+        <f t="shared" ref="M79:P79" si="141">IF($Q72=MIN($Q71:$Q75),M77,M72)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N79" s="70">
-        <f t="shared" ref="N79:P79" si="92">IF($Q72=MIN($Q71:$Q75),N77,N72)</f>
-        <v>4.7154010388717325</v>
+        <f t="shared" si="141"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O79" s="70">
-        <f t="shared" si="92"/>
+        <f t="shared" si="141"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P79" s="70">
+        <f t="shared" si="141"/>
         <v>5</v>
       </c>
-      <c r="P79" s="70">
-        <f t="shared" si="92"/>
-        <v>4.9070689508299044</v>
-      </c>
       <c r="Q79" s="72">
-        <f t="shared" ref="Q79:Q82" si="93">SUMPRODUCT($B$30:$E$30,M79:P79)+$F$30</f>
-        <v>136.53944132306958</v>
-      </c>
-      <c r="R79" s="186"/>
-      <c r="S79" s="22"/>
+        <f t="shared" si="139"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R79" s="183"/>
+      <c r="S79" s="192"/>
       <c r="T79" s="22"/>
       <c r="U79" s="22"/>
       <c r="V79" s="22"/>
@@ -20148,7 +20011,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
     </row>
-    <row r="80" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -20159,30 +20022,30 @@
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
+      <c r="K80" s="192"/>
       <c r="L80" s="148"/>
       <c r="M80" s="70">
-        <f>IF($Q73=MIN($Q71:$Q75),M77,M73)</f>
-        <v>4.6744419086520415</v>
+        <f t="shared" ref="M80:P80" si="142">IF($Q73=MIN($Q71:$Q75),M77,M73)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N80" s="70">
-        <f t="shared" ref="N80:P80" si="94">IF($Q73=MIN($Q71:$Q75),N77,N73)</f>
-        <v>4.5648030487261728</v>
+        <f t="shared" si="142"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O80" s="70">
-        <f t="shared" si="94"/>
+        <f t="shared" si="142"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P80" s="70">
+        <f t="shared" si="142"/>
         <v>5</v>
       </c>
-      <c r="P80" s="70">
-        <f t="shared" si="94"/>
-        <v>4.8844933969395132</v>
-      </c>
       <c r="Q80" s="72">
-        <f t="shared" si="93"/>
-        <v>135.79466961520757</v>
-      </c>
-      <c r="R80" s="186"/>
-      <c r="S80" s="22"/>
+        <f t="shared" si="139"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R80" s="183"/>
+      <c r="S80" s="192"/>
       <c r="T80" s="22"/>
       <c r="U80" s="22"/>
       <c r="V80" s="22"/>
@@ -20217,7 +20080,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
     </row>
-    <row r="81" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -20228,30 +20091,30 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
+      <c r="K81" s="192"/>
       <c r="L81" s="148"/>
       <c r="M81" s="70">
-        <f>IF($Q74=MIN($Q71:$Q75),M77,M74)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M81:P81" si="143">IF($Q74=MIN($Q71:$Q75),M77,M74)</f>
+        <v>4.7831032429430067</v>
       </c>
       <c r="N81" s="70">
-        <f t="shared" ref="N81:P81" si="95">IF($Q74=MIN($Q71:$Q75),N77,N74)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="143"/>
+        <v>4.8879616994391624</v>
       </c>
       <c r="O81" s="70">
-        <f t="shared" si="95"/>
+        <f t="shared" si="143"/>
         <v>5</v>
       </c>
       <c r="P81" s="70">
-        <f t="shared" si="95"/>
-        <v>4.9106132340868704</v>
+        <f t="shared" si="143"/>
+        <v>4.9075140819582757</v>
       </c>
       <c r="Q81" s="72">
-        <f t="shared" si="93"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R81" s="186"/>
-      <c r="S81" s="22"/>
+        <f t="shared" si="139"/>
+        <v>137.53347749222328</v>
+      </c>
+      <c r="R81" s="183"/>
+      <c r="S81" s="192"/>
       <c r="T81" s="22"/>
       <c r="U81" s="22"/>
       <c r="V81" s="22"/>
@@ -20286,7 +20149,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
     </row>
-    <row r="82" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -20297,30 +20160,30 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
+      <c r="K82" s="192"/>
       <c r="L82" s="148"/>
       <c r="M82" s="75">
-        <f>IF($Q75=MIN($Q71:$Q75),M77,M75)</f>
-        <v>4.6280924695699897</v>
+        <f t="shared" ref="M82:P82" si="144">IF($Q75=MIN($Q71:$Q75),M77,M75)</f>
+        <v>4.6934867121437254</v>
       </c>
       <c r="N82" s="75">
-        <f t="shared" ref="N82:P82" si="96">IF($Q75=MIN($Q71:$Q75),N77,N75)</f>
-        <v>4.6316101451576008</v>
+        <f t="shared" si="144"/>
+        <v>4.8051635452600383</v>
       </c>
       <c r="O82" s="75">
-        <f t="shared" si="96"/>
+        <f t="shared" si="144"/>
+        <v>4.8956661611447911</v>
+      </c>
+      <c r="P82" s="75">
+        <f t="shared" si="144"/>
         <v>5</v>
       </c>
-      <c r="P82" s="75">
-        <f t="shared" si="96"/>
-        <v>4.9054051880851706</v>
-      </c>
       <c r="Q82" s="73">
-        <f t="shared" si="93"/>
-        <v>136.23500173280448</v>
-      </c>
-      <c r="R82" s="186"/>
-      <c r="S82" s="22"/>
+        <f t="shared" si="139"/>
+        <v>138.07493665681503</v>
+      </c>
+      <c r="R82" s="183"/>
+      <c r="S82" s="192"/>
       <c r="T82" s="22"/>
       <c r="U82" s="22"/>
       <c r="V82" s="22"/>
@@ -20355,7 +20218,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
     </row>
-    <row r="83" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -20366,35 +20229,35 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
+      <c r="K83" s="192"/>
       <c r="L83" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M83" s="122">
-        <f>IF($Q78=MIN($Q78:$Q82),-M78,M78)+IF($Q79=MIN($Q78:$Q82),-M79,M79)+IF($Q80=MIN($Q78:$Q82),-M80,M80)+IF($Q81=MIN($Q78:$Q82), M81,M81)+IF($Q82=MIN($Q78:$Q82),-M82,M82)</f>
-        <v>14.06887497203137</v>
+        <f t="shared" ref="M83" si="145">IF($Q78=MIN($Q78:$Q82),-M78,M78)+IF($Q79=MIN($Q78:$Q82),-M79,M79)+IF($Q80=MIN($Q78:$Q82),-M80,M80)+IF($Q81=MIN($Q78:$Q82), -M81,M81)+IF($Q82=MIN($Q78:$Q82),-M82,M82)</f>
+        <v>14.168914734981326</v>
       </c>
       <c r="N83" s="123">
-        <f>IF($Q78=MIN($Q78:$Q82),-N78,N78)+IF($Q79=MIN($Q78:$Q82),-N79,N79)+IF($Q80=MIN($Q78:$Q82),-N80,N80)+IF($Q81=MIN($Q78:$Q82), N81,N81)+IF($Q82=MIN($Q78:$Q82),-N82,N82)</f>
-        <v>14.237631578861542</v>
+        <f t="shared" ref="N83" si="146">IF($Q78=MIN($Q78:$Q82),-N78,N78)+IF($Q79=MIN($Q78:$Q82),-N79,N79)+IF($Q80=MIN($Q78:$Q82),-N80,N80)+IF($Q81=MIN($Q78:$Q82), -N81,N81)+IF($Q82=MIN($Q78:$Q82),-N82,N82)</f>
+        <v>14.478970569921289</v>
       </c>
       <c r="O83" s="123">
-        <f>IF($Q78=MIN($Q78:$Q82),-O78,O78)+IF($Q79=MIN($Q78:$Q82),-O79,O79)+IF($Q80=MIN($Q78:$Q82),-O80,O80)+IF($Q81=MIN($Q78:$Q82), O81,O81)+IF($Q82=MIN($Q78:$Q82),-O82,O82)</f>
-        <v>15</v>
+        <f t="shared" ref="O83" si="147">IF($Q78=MIN($Q78:$Q82),-O78,O78)+IF($Q79=MIN($Q78:$Q82),-O79,O79)+IF($Q80=MIN($Q78:$Q82),-O80,O80)+IF($Q81=MIN($Q78:$Q82), -O81,O81)+IF($Q82=MIN($Q78:$Q82),-O82,O82)</f>
+        <v>14.639886806817245</v>
       </c>
       <c r="P83" s="124">
-        <f>IF($Q78=MIN($Q78:$Q82),-P78,P78)+IF($Q79=MIN($Q78:$Q82),-P79,P79)+IF($Q80=MIN($Q78:$Q82),-P80,P80)+IF($Q81=MIN($Q78:$Q82), P81,P81)+IF($Q82=MIN($Q78:$Q82),-P82,P82)</f>
-        <v>14.765915242596275</v>
+        <f t="shared" ref="P83" si="148">IF($Q78=MIN($Q78:$Q82),-P78,P78)+IF($Q79=MIN($Q78:$Q82),-P79,P79)+IF($Q80=MIN($Q78:$Q82),-P80,P80)+IF($Q81=MIN($Q78:$Q82), -P81,P81)+IF($Q82=MIN($Q78:$Q82),-P82,P82)</f>
+        <v>15.092485918041724</v>
       </c>
       <c r="Q83" s="178">
-        <f>MAX(M83:P83)</f>
-        <v>15</v>
+        <f t="shared" ref="Q83" si="149">MAX(M83:P83)</f>
+        <v>15.092485918041724</v>
       </c>
       <c r="R83" s="180">
-        <f>Q83/5</f>
-        <v>3</v>
-      </c>
-      <c r="S83" s="22"/>
+        <f t="shared" ref="R83" si="150">Q83/5</f>
+        <v>3.018497183608345</v>
+      </c>
+      <c r="S83" s="192"/>
       <c r="T83" s="22"/>
       <c r="U83" s="22"/>
       <c r="V83" s="22"/>
@@ -20429,7 +20292,7 @@
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
     </row>
-    <row r="84" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -20440,29 +20303,29 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
+      <c r="K84" s="192"/>
       <c r="L84" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M84" s="126">
-        <f>M83/$R83</f>
-        <v>4.6896249906771237</v>
+        <f t="shared" ref="M84" si="151">M83/$R83</f>
+        <v>4.694029470003894</v>
       </c>
       <c r="N84" s="127">
-        <f t="shared" ref="N84:P84" si="97">N83/$R83</f>
-        <v>4.7458771929538477</v>
+        <f t="shared" ref="N84" si="152">N83/$R83</f>
+        <v>4.7967480799875943</v>
       </c>
       <c r="O84" s="127">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="O84" si="153">O83/$R83</f>
+        <v>4.8500581303562997</v>
+      </c>
+      <c r="P84" s="128">
+        <f t="shared" ref="P84" si="154">P83/$R83</f>
         <v>5</v>
-      </c>
-      <c r="P84" s="128">
-        <f t="shared" si="97"/>
-        <v>4.9219717475320914</v>
       </c>
       <c r="Q84" s="179"/>
       <c r="R84" s="181"/>
-      <c r="S84" s="22"/>
+      <c r="S84" s="192"/>
       <c r="T84" s="22"/>
       <c r="U84" s="22"/>
       <c r="V84" s="22"/>
@@ -20497,7 +20360,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
     </row>
-    <row r="85" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -20508,35 +20371,35 @@
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
+      <c r="K85" s="192"/>
       <c r="L85" s="147">
         <v>12</v>
       </c>
       <c r="M85" s="116">
-        <f>IF($Q78=MIN($Q78:$Q82),M84,M78)</f>
-        <v>4.7192499967853232</v>
+        <f t="shared" ref="M85" si="155">IF($Q78=MIN($Q78:$Q82),M84,M78)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N85" s="116">
-        <f t="shared" ref="N85" si="98">IF($Q78=MIN($Q78:$Q82),N84,N78)</f>
-        <v>4.6485897382670514</v>
+        <f t="shared" ref="N85" si="156">IF($Q78=MIN($Q78:$Q82),N84,N78)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O85" s="116">
-        <f t="shared" ref="O85" si="99">IF($Q78=MIN($Q78:$Q82),O84,O78)</f>
+        <f t="shared" ref="O85" si="157">IF($Q78=MIN($Q78:$Q82),O84,O78)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P85" s="116">
+        <f t="shared" ref="P85" si="158">IF($Q78=MIN($Q78:$Q82),P84,P78)</f>
         <v>5</v>
       </c>
-      <c r="P85" s="116">
-        <f t="shared" ref="P85" si="100">IF($Q78=MIN($Q78:$Q82),P84,P78)</f>
-        <v>4.9273212665338439</v>
-      </c>
       <c r="Q85" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M85:P85)+$F$30</f>
-        <v>136.91975190456057</v>
-      </c>
-      <c r="R85" s="191">
-        <f>MAX(Q85:Q89)-MIN(Q85:Q89)</f>
-        <v>1.0407514560198194</v>
-      </c>
-      <c r="S85" s="22"/>
+        <f t="shared" ref="Q85:Q89" si="159">SUMPRODUCT($B$30:$E$30,M85:P85)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R85" s="182">
+        <f t="shared" ref="R85" si="160">MAX(Q85:Q89)-MIN(Q85:Q89)</f>
+        <v>0.76400314073993059</v>
+      </c>
+      <c r="S85" s="192"/>
       <c r="T85" s="22"/>
       <c r="U85" s="22"/>
       <c r="V85" s="22"/>
@@ -20571,7 +20434,7 @@
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
     </row>
-    <row r="86" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -20582,30 +20445,30 @@
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
+      <c r="K86" s="192"/>
       <c r="L86" s="148"/>
       <c r="M86" s="70">
-        <f>IF($Q79=MIN($Q78:$Q82),M84,M79)</f>
-        <v>4.6303320690700636</v>
+        <f t="shared" ref="M86:P86" si="161">IF($Q79=MIN($Q78:$Q82),M84,M79)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N86" s="70">
-        <f t="shared" ref="N86:P86" si="101">IF($Q79=MIN($Q78:$Q82),N84,N79)</f>
-        <v>4.7154010388717325</v>
+        <f t="shared" si="161"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O86" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="161"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P86" s="70">
+        <f t="shared" si="161"/>
         <v>5</v>
       </c>
-      <c r="P86" s="70">
-        <f t="shared" si="101"/>
-        <v>4.9070689508299044</v>
-      </c>
       <c r="Q86" s="72">
-        <f t="shared" ref="Q86:Q89" si="102">SUMPRODUCT($B$30:$E$30,M86:P86)+$F$30</f>
-        <v>136.53944132306958</v>
-      </c>
-      <c r="R86" s="186"/>
-      <c r="S86" s="22"/>
+        <f t="shared" si="159"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R86" s="183"/>
+      <c r="S86" s="192"/>
       <c r="T86" s="22"/>
       <c r="U86" s="22"/>
       <c r="V86" s="22"/>
@@ -20640,7 +20503,7 @@
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
     </row>
-    <row r="87" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -20651,30 +20514,30 @@
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
+      <c r="K87" s="192"/>
       <c r="L87" s="148"/>
       <c r="M87" s="70">
-        <f>IF($Q80=MIN($Q78:$Q82),M84,M80)</f>
-        <v>4.6896249906771237</v>
+        <f t="shared" ref="M87:P87" si="162">IF($Q80=MIN($Q78:$Q82),M84,M80)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N87" s="70">
-        <f t="shared" ref="N87:P87" si="103">IF($Q80=MIN($Q78:$Q82),N84,N80)</f>
-        <v>4.7458771929538477</v>
+        <f t="shared" si="162"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O87" s="70">
-        <f t="shared" si="103"/>
+        <f t="shared" si="162"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P87" s="70">
+        <f t="shared" si="162"/>
         <v>5</v>
       </c>
-      <c r="P87" s="70">
-        <f t="shared" si="103"/>
-        <v>4.9219717475320914</v>
-      </c>
       <c r="Q87" s="72">
-        <f t="shared" si="102"/>
-        <v>137.0584261780171</v>
-      </c>
-      <c r="R87" s="186"/>
-      <c r="S87" s="22"/>
+        <f t="shared" si="159"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R87" s="183"/>
+      <c r="S87" s="192"/>
       <c r="T87" s="22"/>
       <c r="U87" s="22"/>
       <c r="V87" s="22"/>
@@ -20709,7 +20572,7 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
     </row>
-    <row r="88" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -20720,30 +20583,30 @@
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
+      <c r="K88" s="192"/>
       <c r="L88" s="148"/>
       <c r="M88" s="70">
-        <f>IF($Q81=MIN($Q78:$Q82),M84,M81)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M88:P88" si="163">IF($Q81=MIN($Q78:$Q82),M84,M81)</f>
+        <v>4.694029470003894</v>
       </c>
       <c r="N88" s="70">
-        <f t="shared" ref="N88:P88" si="104">IF($Q81=MIN($Q78:$Q82),N84,N81)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="163"/>
+        <v>4.7967480799875943</v>
       </c>
       <c r="O88" s="70">
-        <f t="shared" si="104"/>
+        <f t="shared" si="163"/>
+        <v>4.8500581303562997</v>
+      </c>
+      <c r="P88" s="70">
+        <f t="shared" si="163"/>
         <v>5</v>
       </c>
-      <c r="P88" s="70">
-        <f t="shared" si="104"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q88" s="72">
-        <f t="shared" si="102"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R88" s="186"/>
-      <c r="S88" s="22"/>
+        <f t="shared" si="159"/>
+        <v>137.82497792432406</v>
+      </c>
+      <c r="R88" s="183"/>
+      <c r="S88" s="192"/>
       <c r="T88" s="22"/>
       <c r="U88" s="22"/>
       <c r="V88" s="22"/>
@@ -20778,7 +20641,7 @@
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
     </row>
-    <row r="89" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -20789,30 +20652,30 @@
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
+      <c r="K89" s="192"/>
       <c r="L89" s="148"/>
       <c r="M89" s="75">
-        <f>IF($Q82=MIN($Q78:$Q82),M84,M82)</f>
-        <v>4.6280924695699897</v>
+        <f t="shared" ref="M89:P89" si="164">IF($Q82=MIN($Q78:$Q82),M84,M82)</f>
+        <v>4.6934867121437254</v>
       </c>
       <c r="N89" s="75">
-        <f t="shared" ref="N89:P89" si="105">IF($Q82=MIN($Q78:$Q82),N84,N82)</f>
-        <v>4.6316101451576008</v>
+        <f t="shared" si="164"/>
+        <v>4.8051635452600383</v>
       </c>
       <c r="O89" s="75">
-        <f t="shared" si="105"/>
+        <f t="shared" si="164"/>
+        <v>4.8956661611447911</v>
+      </c>
+      <c r="P89" s="75">
+        <f t="shared" si="164"/>
         <v>5</v>
       </c>
-      <c r="P89" s="75">
-        <f t="shared" si="105"/>
-        <v>4.9054051880851706</v>
-      </c>
       <c r="Q89" s="73">
-        <f t="shared" si="102"/>
-        <v>136.23500173280448</v>
-      </c>
-      <c r="R89" s="186"/>
-      <c r="S89" s="22"/>
+        <f t="shared" si="159"/>
+        <v>138.07493665681503</v>
+      </c>
+      <c r="R89" s="183"/>
+      <c r="S89" s="192"/>
       <c r="T89" s="22"/>
       <c r="U89" s="22"/>
       <c r="V89" s="22"/>
@@ -20847,7 +20710,7 @@
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
     </row>
-    <row r="90" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -20858,35 +20721,35 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
+      <c r="K90" s="192"/>
       <c r="L90" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M90" s="122">
-        <f>IF($Q85=MIN($Q85:$Q89),-M85,M85)+IF($Q86=MIN($Q85:$Q89),-M86,M86)+IF($Q87=MIN($Q85:$Q89),-M87,M87)+IF($Q88=MIN($Q85:$Q89), M88,M88)+IF($Q89=MIN($Q85:$Q89),-M89,M89)</f>
-        <v>14.17675693222056</v>
+        <f t="shared" ref="M90" si="165">IF($Q85=MIN($Q85:$Q89),-M85,M85)+IF($Q86=MIN($Q85:$Q89),-M86,M86)+IF($Q87=MIN($Q85:$Q89),-M87,M87)+IF($Q88=MIN($Q85:$Q89), -M88,M88)+IF($Q89=MIN($Q85:$Q89),-M89,M89)</f>
+        <v>14.257988507920439</v>
       </c>
       <c r="N90" s="123">
-        <f>IF($Q85=MIN($Q85:$Q89),-N85,N85)+IF($Q86=MIN($Q85:$Q89),-N86,N86)+IF($Q87=MIN($Q85:$Q89),-N87,N87)+IF($Q88=MIN($Q85:$Q89), N88,N88)+IF($Q89=MIN($Q85:$Q89),-N89,N89)</f>
-        <v>14.28509153022636</v>
+        <f t="shared" ref="N90" si="166">IF($Q85=MIN($Q85:$Q89),-N85,N85)+IF($Q86=MIN($Q85:$Q89),-N86,N86)+IF($Q87=MIN($Q85:$Q89),-N87,N87)+IF($Q88=MIN($Q85:$Q89), -N88,N88)+IF($Q89=MIN($Q85:$Q89),-N89,N89)</f>
+        <v>14.570184189372858</v>
       </c>
       <c r="O90" s="123">
-        <f>IF($Q85=MIN($Q85:$Q89),-O85,O85)+IF($Q86=MIN($Q85:$Q89),-O86,O86)+IF($Q87=MIN($Q85:$Q89),-O87,O87)+IF($Q88=MIN($Q85:$Q89), O88,O88)+IF($Q89=MIN($Q85:$Q89),-O89,O89)</f>
+        <f t="shared" ref="O90" si="167">IF($Q85=MIN($Q85:$Q89),-O85,O85)+IF($Q86=MIN($Q85:$Q89),-O86,O86)+IF($Q87=MIN($Q85:$Q89),-O87,O87)+IF($Q88=MIN($Q85:$Q89), -O88,O88)+IF($Q89=MIN($Q85:$Q89),-O89,O89)</f>
+        <v>14.789828676460946</v>
+      </c>
+      <c r="P90" s="124">
+        <f t="shared" ref="P90" si="168">IF($Q85=MIN($Q85:$Q89),-P85,P85)+IF($Q86=MIN($Q85:$Q89),-P86,P86)+IF($Q87=MIN($Q85:$Q89),-P87,P87)+IF($Q88=MIN($Q85:$Q89), -P88,P88)+IF($Q89=MIN($Q85:$Q89),-P89,P89)</f>
         <v>15</v>
       </c>
-      <c r="P90" s="124">
-        <f>IF($Q85=MIN($Q85:$Q89),-P85,P85)+IF($Q86=MIN($Q85:$Q89),-P86,P86)+IF($Q87=MIN($Q85:$Q89),-P87,P87)+IF($Q88=MIN($Q85:$Q89), P88,P88)+IF($Q89=MIN($Q85:$Q89),-P89,P89)</f>
-        <v>14.761570010897538</v>
-      </c>
       <c r="Q90" s="178">
-        <f>MAX(M90:P90)</f>
+        <f t="shared" ref="Q90" si="169">MAX(M90:P90)</f>
         <v>15</v>
       </c>
       <c r="R90" s="180">
-        <f>Q90/5</f>
+        <f t="shared" ref="R90" si="170">Q90/5</f>
         <v>3</v>
       </c>
-      <c r="S90" s="22"/>
+      <c r="S90" s="192"/>
       <c r="T90" s="22"/>
       <c r="U90" s="22"/>
       <c r="V90" s="22"/>
@@ -20921,7 +20784,7 @@
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
     </row>
-    <row r="91" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -20932,29 +20795,29 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
+      <c r="K91" s="192"/>
       <c r="L91" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M91" s="126">
-        <f>M90/$R90</f>
-        <v>4.7255856440735196</v>
+        <f t="shared" ref="M91" si="171">M90/$R90</f>
+        <v>4.7526628359734797</v>
       </c>
       <c r="N91" s="127">
-        <f t="shared" ref="N91:P91" si="106">N90/$R90</f>
-        <v>4.7616971767421203</v>
+        <f t="shared" ref="N91" si="172">N90/$R90</f>
+        <v>4.8567280631242857</v>
       </c>
       <c r="O91" s="127">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="O91" si="173">O90/$R90</f>
+        <v>4.9299428921536483</v>
+      </c>
+      <c r="P91" s="128">
+        <f t="shared" ref="P91" si="174">P90/$R90</f>
         <v>5</v>
-      </c>
-      <c r="P91" s="128">
-        <f t="shared" si="106"/>
-        <v>4.9205233369658457</v>
       </c>
       <c r="Q91" s="179"/>
       <c r="R91" s="181"/>
-      <c r="S91" s="22"/>
+      <c r="S91" s="192"/>
       <c r="T91" s="22"/>
       <c r="U91" s="22"/>
       <c r="V91" s="22"/>
@@ -20989,7 +20852,7 @@
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
     </row>
-    <row r="92" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -21000,35 +20863,35 @@
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
+      <c r="K92" s="192"/>
       <c r="L92" s="147">
         <v>13</v>
       </c>
       <c r="M92" s="116">
-        <f>IF($Q85=MIN($Q85:$Q89),M91,M85)</f>
-        <v>4.7192499967853232</v>
+        <f t="shared" ref="M92" si="175">IF($Q85=MIN($Q85:$Q89),M91,M85)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N92" s="116">
-        <f t="shared" ref="N92" si="107">IF($Q85=MIN($Q85:$Q89),N91,N85)</f>
-        <v>4.6485897382670514</v>
+        <f t="shared" ref="N92" si="176">IF($Q85=MIN($Q85:$Q89),N91,N85)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O92" s="116">
-        <f t="shared" ref="O92" si="108">IF($Q85=MIN($Q85:$Q89),O91,O85)</f>
+        <f t="shared" ref="O92" si="177">IF($Q85=MIN($Q85:$Q89),O91,O85)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P92" s="116">
+        <f t="shared" ref="P92" si="178">IF($Q85=MIN($Q85:$Q89),P91,P85)</f>
         <v>5</v>
       </c>
-      <c r="P92" s="116">
-        <f t="shared" ref="P92" si="109">IF($Q85=MIN($Q85:$Q89),P91,P85)</f>
-        <v>4.9273212665338439</v>
-      </c>
       <c r="Q92" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M92:P92)+$F$30</f>
-        <v>136.91975190456057</v>
-      </c>
-      <c r="R92" s="191">
-        <f>MAX(Q92:Q96)-MIN(Q92:Q96)</f>
-        <v>0.73631186575471474</v>
-      </c>
-      <c r="S92" s="22"/>
+        <f t="shared" ref="Q92:Q96" si="179">SUMPRODUCT($B$30:$E$30,M92:P92)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R92" s="182">
+        <f t="shared" ref="R92" si="180">MAX(Q92:Q96)-MIN(Q92:Q96)</f>
+        <v>0.51404440824896369</v>
+      </c>
+      <c r="S92" s="192"/>
       <c r="T92" s="22"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
@@ -21063,7 +20926,7 @@
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
     </row>
-    <row r="93" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -21074,30 +20937,30 @@
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
+      <c r="K93" s="192"/>
       <c r="L93" s="148"/>
       <c r="M93" s="70">
-        <f>IF($Q86=MIN($Q85:$Q89),M91,M86)</f>
-        <v>4.6303320690700636</v>
+        <f t="shared" ref="M93:P93" si="181">IF($Q86=MIN($Q85:$Q89),M91,M86)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N93" s="70">
-        <f t="shared" ref="N93:P93" si="110">IF($Q86=MIN($Q85:$Q89),N91,N86)</f>
-        <v>4.7154010388717325</v>
+        <f t="shared" si="181"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O93" s="70">
-        <f t="shared" si="110"/>
+        <f t="shared" si="181"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P93" s="70">
+        <f t="shared" si="181"/>
         <v>5</v>
       </c>
-      <c r="P93" s="70">
-        <f t="shared" si="110"/>
-        <v>4.9070689508299044</v>
-      </c>
       <c r="Q93" s="72">
-        <f t="shared" ref="Q93:Q96" si="111">SUMPRODUCT($B$30:$E$30,M93:P93)+$F$30</f>
-        <v>136.53944132306958</v>
-      </c>
-      <c r="R93" s="186"/>
-      <c r="S93" s="22"/>
+        <f t="shared" si="179"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R93" s="183"/>
+      <c r="S93" s="192"/>
       <c r="T93" s="22"/>
       <c r="U93" s="22"/>
       <c r="V93" s="22"/>
@@ -21132,7 +20995,7 @@
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
     </row>
-    <row r="94" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -21143,30 +21006,30 @@
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
+      <c r="K94" s="192"/>
       <c r="L94" s="148"/>
       <c r="M94" s="70">
-        <f>IF($Q87=MIN($Q85:$Q89),M91,M87)</f>
-        <v>4.6896249906771237</v>
+        <f t="shared" ref="M94:P94" si="182">IF($Q87=MIN($Q85:$Q89),M91,M87)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N94" s="70">
-        <f t="shared" ref="N94:P94" si="112">IF($Q87=MIN($Q85:$Q89),N91,N87)</f>
-        <v>4.7458771929538477</v>
+        <f t="shared" si="182"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O94" s="70">
-        <f t="shared" si="112"/>
+        <f t="shared" si="182"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P94" s="70">
+        <f t="shared" si="182"/>
         <v>5</v>
       </c>
-      <c r="P94" s="70">
-        <f t="shared" si="112"/>
-        <v>4.9219717475320914</v>
-      </c>
       <c r="Q94" s="72">
-        <f t="shared" si="111"/>
-        <v>137.0584261780171</v>
-      </c>
-      <c r="R94" s="186"/>
-      <c r="S94" s="22"/>
+        <f t="shared" si="179"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R94" s="183"/>
+      <c r="S94" s="192"/>
       <c r="T94" s="22"/>
       <c r="U94" s="22"/>
       <c r="V94" s="22"/>
@@ -21201,7 +21064,7 @@
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
     </row>
-    <row r="95" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -21212,30 +21075,30 @@
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
+      <c r="K95" s="192"/>
       <c r="L95" s="148"/>
       <c r="M95" s="70">
-        <f>IF($Q88=MIN($Q85:$Q89),M91,M88)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M95:P95" si="183">IF($Q88=MIN($Q85:$Q89),M91,M88)</f>
+        <v>4.7526628359734797</v>
       </c>
       <c r="N95" s="70">
-        <f t="shared" ref="N95:P95" si="113">IF($Q88=MIN($Q85:$Q89),N91,N88)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="183"/>
+        <v>4.8567280631242857</v>
       </c>
       <c r="O95" s="70">
-        <f t="shared" si="113"/>
+        <f t="shared" si="183"/>
+        <v>4.9299428921536483</v>
+      </c>
+      <c r="P95" s="70">
+        <f t="shared" si="183"/>
         <v>5</v>
       </c>
-      <c r="P95" s="70">
-        <f t="shared" si="113"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q95" s="72">
-        <f t="shared" si="111"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R95" s="186"/>
-      <c r="S95" s="22"/>
+        <f t="shared" si="179"/>
+        <v>138.5764925901014</v>
+      </c>
+      <c r="R95" s="183"/>
+      <c r="S95" s="192"/>
       <c r="T95" s="22"/>
       <c r="U95" s="22"/>
       <c r="V95" s="22"/>
@@ -21270,7 +21133,7 @@
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
     </row>
-    <row r="96" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -21281,30 +21144,30 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
+      <c r="K96" s="192"/>
       <c r="L96" s="148"/>
       <c r="M96" s="75">
-        <f>IF($Q89=MIN($Q85:$Q89),M91,M89)</f>
-        <v>4.7255856440735196</v>
+        <f t="shared" ref="M96:P96" si="184">IF($Q89=MIN($Q85:$Q89),M91,M89)</f>
+        <v>4.6934867121437254</v>
       </c>
       <c r="N96" s="75">
-        <f t="shared" ref="N96:P96" si="114">IF($Q89=MIN($Q85:$Q89),N91,N89)</f>
-        <v>4.7616971767421203</v>
+        <f t="shared" si="184"/>
+        <v>4.8051635452600383</v>
       </c>
       <c r="O96" s="75">
-        <f t="shared" si="114"/>
+        <f t="shared" si="184"/>
+        <v>4.8956661611447911</v>
+      </c>
+      <c r="P96" s="75">
+        <f t="shared" si="184"/>
         <v>5</v>
       </c>
-      <c r="P96" s="75">
-        <f t="shared" si="114"/>
-        <v>4.9205233369658457</v>
-      </c>
       <c r="Q96" s="73">
-        <f t="shared" si="111"/>
-        <v>137.18612362055569</v>
-      </c>
-      <c r="R96" s="186"/>
-      <c r="S96" s="22"/>
+        <f t="shared" si="179"/>
+        <v>138.07493665681503</v>
+      </c>
+      <c r="R96" s="183"/>
+      <c r="S96" s="192"/>
       <c r="T96" s="22"/>
       <c r="U96" s="22"/>
       <c r="V96" s="22"/>
@@ -21339,7 +21202,7 @@
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
     </row>
-    <row r="97" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -21350,35 +21213,35 @@
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
+      <c r="K97" s="192"/>
       <c r="L97" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M97" s="122">
-        <f>IF($Q92=MIN($Q92:$Q96),-M92,M92)+IF($Q93=MIN($Q92:$Q96),-M93,M93)+IF($Q94=MIN($Q92:$Q96),-M94,M94)+IF($Q95=MIN($Q92:$Q96), M95,M95)+IF($Q96=MIN($Q92:$Q96),-M96,M96)</f>
-        <v>14.269770907723938</v>
+        <f t="shared" ref="M97" si="185">IF($Q92=MIN($Q92:$Q96),-M92,M92)+IF($Q93=MIN($Q92:$Q96),-M93,M93)+IF($Q94=MIN($Q92:$Q96),-M94,M94)+IF($Q95=MIN($Q92:$Q96), -M95,M95)+IF($Q96=MIN($Q92:$Q96),-M96,M96)</f>
+        <v>14.31770738961036</v>
       </c>
       <c r="N97" s="123">
-        <f>IF($Q92=MIN($Q92:$Q96),-N92,N92)+IF($Q93=MIN($Q92:$Q96),-N93,N93)+IF($Q94=MIN($Q92:$Q96),-N94,N94)+IF($Q95=MIN($Q92:$Q96), N95,N95)+IF($Q96=MIN($Q92:$Q96),-N96,N96)</f>
-        <v>14.247596774382618</v>
+        <f t="shared" ref="N97" si="186">IF($Q92=MIN($Q92:$Q96),-N92,N92)+IF($Q93=MIN($Q92:$Q96),-N93,N93)+IF($Q94=MIN($Q92:$Q96),-N94,N94)+IF($Q95=MIN($Q92:$Q96), -N95,N95)+IF($Q96=MIN($Q92:$Q96),-N96,N96)</f>
+        <v>14.613333241964662</v>
       </c>
       <c r="O97" s="123">
-        <f>IF($Q92=MIN($Q92:$Q96),-O92,O92)+IF($Q93=MIN($Q92:$Q96),-O93,O93)+IF($Q94=MIN($Q92:$Q96),-O94,O94)+IF($Q95=MIN($Q92:$Q96), O95,O95)+IF($Q96=MIN($Q92:$Q96),-O96,O96)</f>
+        <f t="shared" ref="O97" si="187">IF($Q92=MIN($Q92:$Q96),-O92,O92)+IF($Q93=MIN($Q92:$Q96),-O93,O93)+IF($Q94=MIN($Q92:$Q96),-O94,O94)+IF($Q95=MIN($Q92:$Q96), -O95,O95)+IF($Q96=MIN($Q92:$Q96),-O96,O96)</f>
+        <v>14.778497376681308</v>
+      </c>
+      <c r="P97" s="124">
+        <f t="shared" ref="P97" si="188">IF($Q92=MIN($Q92:$Q96),-P92,P92)+IF($Q93=MIN($Q92:$Q96),-P93,P93)+IF($Q94=MIN($Q92:$Q96),-P94,P94)+IF($Q95=MIN($Q92:$Q96), -P95,P95)+IF($Q96=MIN($Q92:$Q96),-P96,P96)</f>
         <v>15</v>
       </c>
-      <c r="P97" s="124">
-        <f>IF($Q92=MIN($Q92:$Q96),-P92,P92)+IF($Q93=MIN($Q92:$Q96),-P93,P93)+IF($Q94=MIN($Q92:$Q96),-P94,P94)+IF($Q95=MIN($Q92:$Q96), P95,P95)+IF($Q96=MIN($Q92:$Q96),-P96,P96)</f>
-        <v>14.773360634288746</v>
-      </c>
       <c r="Q97" s="178">
-        <f>MAX(M97:P97)</f>
+        <f t="shared" ref="Q97" si="189">MAX(M97:P97)</f>
         <v>15</v>
       </c>
       <c r="R97" s="180">
-        <f>Q97/5</f>
+        <f t="shared" ref="R97" si="190">Q97/5</f>
         <v>3</v>
       </c>
-      <c r="S97" s="22"/>
+      <c r="S97" s="192"/>
       <c r="T97" s="22"/>
       <c r="U97" s="22"/>
       <c r="V97" s="22"/>
@@ -21413,7 +21276,7 @@
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
     </row>
-    <row r="98" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -21424,29 +21287,29 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
+      <c r="K98" s="192"/>
       <c r="L98" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M98" s="126">
-        <f>M97/$R97</f>
-        <v>4.7565903025746463</v>
+        <f t="shared" ref="M98" si="191">M97/$R97</f>
+        <v>4.7725691298701198</v>
       </c>
       <c r="N98" s="127">
-        <f t="shared" ref="N98:P98" si="115">N97/$R97</f>
-        <v>4.7491989247942064</v>
+        <f t="shared" ref="N98" si="192">N97/$R97</f>
+        <v>4.8711110806548872</v>
       </c>
       <c r="O98" s="127">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="O98" si="193">O97/$R97</f>
+        <v>4.9261657922271027</v>
+      </c>
+      <c r="P98" s="128">
+        <f t="shared" ref="P98" si="194">P97/$R97</f>
         <v>5</v>
-      </c>
-      <c r="P98" s="128">
-        <f t="shared" si="115"/>
-        <v>4.9244535447629154</v>
       </c>
       <c r="Q98" s="179"/>
       <c r="R98" s="181"/>
-      <c r="S98" s="22"/>
+      <c r="S98" s="192"/>
       <c r="T98" s="22"/>
       <c r="U98" s="22"/>
       <c r="V98" s="22"/>
@@ -21481,7 +21344,7 @@
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
     </row>
-    <row r="99" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -21492,35 +21355,35 @@
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
+      <c r="K99" s="192"/>
       <c r="L99" s="147">
         <v>14</v>
       </c>
       <c r="M99" s="116">
-        <f>IF($Q92=MIN($Q92:$Q96),M98,M92)</f>
-        <v>4.7192499967853232</v>
+        <f t="shared" ref="M99" si="195">IF($Q92=MIN($Q92:$Q96),M98,M92)</f>
+        <v>4.6384814368068046</v>
       </c>
       <c r="N99" s="116">
-        <f t="shared" ref="N99" si="116">IF($Q92=MIN($Q92:$Q96),N98,N92)</f>
-        <v>4.6485897382670514</v>
+        <f t="shared" ref="N99" si="196">IF($Q92=MIN($Q92:$Q96),N98,N92)</f>
+        <v>4.8830860820303545</v>
       </c>
       <c r="O99" s="116">
-        <f t="shared" ref="O99" si="117">IF($Q92=MIN($Q92:$Q96),O98,O92)</f>
+        <f t="shared" ref="O99" si="197">IF($Q92=MIN($Q92:$Q96),O98,O92)</f>
+        <v>4.9712769713134577</v>
+      </c>
+      <c r="P99" s="116">
+        <f t="shared" ref="P99" si="198">IF($Q92=MIN($Q92:$Q96),P98,P92)</f>
         <v>5</v>
       </c>
-      <c r="P99" s="116">
-        <f t="shared" ref="P99" si="118">IF($Q92=MIN($Q92:$Q96),P98,P92)</f>
-        <v>4.9273212665338439</v>
-      </c>
       <c r="Q99" s="129">
-        <f>SUMPRODUCT($B$30:$E$30,M99:P99)+$F$30</f>
-        <v>136.91975190456057</v>
-      </c>
-      <c r="R99" s="191">
-        <f>MAX(Q99:Q103)-MIN(Q99:Q103)</f>
-        <v>0.38045261840213129</v>
-      </c>
-      <c r="S99" s="22"/>
+        <f t="shared" ref="Q99:Q103" si="199">SUMPRODUCT($B$30:$E$30,M99:P99)+$F$30</f>
+        <v>138.54273753479518</v>
+      </c>
+      <c r="R99" s="182">
+        <f t="shared" ref="R99" si="200">MAX(Q99:Q103)-MIN(Q99:Q103)</f>
+        <v>0.31255788574583221</v>
+      </c>
+      <c r="S99" s="192"/>
       <c r="T99" s="22"/>
       <c r="U99" s="22"/>
       <c r="V99" s="22"/>
@@ -21555,7 +21418,7 @@
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
     </row>
-    <row r="100" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -21566,30 +21429,30 @@
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
+      <c r="K100" s="192"/>
       <c r="L100" s="148"/>
       <c r="M100" s="70">
-        <f>IF($Q93=MIN($Q92:$Q96),M98,M93)</f>
-        <v>4.7565903025746463</v>
+        <f t="shared" ref="M100:P100" si="201">IF($Q93=MIN($Q92:$Q96),M98,M93)</f>
+        <v>4.8158866522241777</v>
       </c>
       <c r="N100" s="70">
-        <f t="shared" ref="N100:P100" si="119">IF($Q93=MIN($Q92:$Q96),N98,N93)</f>
-        <v>4.7491989247942064</v>
+        <f t="shared" si="201"/>
+        <v>4.7386901434370596</v>
       </c>
       <c r="O100" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
+        <v>4.9244751660192021</v>
+      </c>
+      <c r="P100" s="70">
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
-      <c r="P100" s="70">
-        <f t="shared" si="119"/>
-        <v>4.9244535447629154</v>
-      </c>
       <c r="Q100" s="72">
-        <f t="shared" ref="Q100:Q103" si="120">SUMPRODUCT($B$30:$E$30,M100:P100)+$F$30</f>
-        <v>137.3002045229627</v>
-      </c>
-      <c r="R100" s="186"/>
-      <c r="S100" s="22"/>
+        <f t="shared" si="199"/>
+        <v>138.34780043795402</v>
+      </c>
+      <c r="R100" s="183"/>
+      <c r="S100" s="192"/>
       <c r="T100" s="22"/>
       <c r="U100" s="22"/>
       <c r="V100" s="22"/>
@@ -21624,7 +21487,7 @@
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
     </row>
-    <row r="101" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -21635,30 +21498,30 @@
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
+      <c r="K101" s="192"/>
       <c r="L101" s="148"/>
       <c r="M101" s="70">
-        <f>IF($Q94=MIN($Q92:$Q96),M98,M94)</f>
-        <v>4.6896249906771237</v>
+        <f t="shared" ref="M101:P101" si="202">IF($Q94=MIN($Q92:$Q96),M98,M94)</f>
+        <v>4.8041631767496265</v>
       </c>
       <c r="N101" s="70">
-        <f t="shared" ref="N101:P101" si="121">IF($Q94=MIN($Q92:$Q96),N98,N94)</f>
-        <v>4.7458771929538477</v>
+        <f t="shared" si="202"/>
+        <v>4.9399924986329999</v>
       </c>
       <c r="O101" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="202"/>
+        <v>4.8484685083397911</v>
+      </c>
+      <c r="P101" s="70">
+        <f t="shared" si="202"/>
         <v>5</v>
       </c>
-      <c r="P101" s="70">
-        <f t="shared" si="121"/>
-        <v>4.9219717475320914</v>
-      </c>
       <c r="Q101" s="72">
-        <f t="shared" si="120"/>
-        <v>137.0584261780171</v>
-      </c>
-      <c r="R101" s="186"/>
-      <c r="S101" s="22"/>
+        <f t="shared" si="199"/>
+        <v>138.58898106506399</v>
+      </c>
+      <c r="R101" s="183"/>
+      <c r="S101" s="192"/>
       <c r="T101" s="22"/>
       <c r="U101" s="22"/>
       <c r="V101" s="22"/>
@@ -21693,7 +21556,7 @@
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
     </row>
-    <row r="102" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -21704,30 +21567,30 @@
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
+      <c r="K102" s="192"/>
       <c r="L102" s="148"/>
       <c r="M102" s="70">
-        <f>IF($Q95=MIN($Q92:$Q96),M98,M95)</f>
-        <v>4.7656423452580352</v>
+        <f t="shared" ref="M102:P102" si="203">IF($Q95=MIN($Q92:$Q96),M98,M95)</f>
+        <v>4.7526628359734797</v>
       </c>
       <c r="N102" s="70">
-        <f t="shared" ref="N102:P102" si="122">IF($Q95=MIN($Q92:$Q96),N98,N95)</f>
-        <v>4.8068337052913304</v>
+        <f t="shared" si="203"/>
+        <v>4.8567280631242857</v>
       </c>
       <c r="O102" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="203"/>
+        <v>4.9299428921536483</v>
+      </c>
+      <c r="P102" s="70">
+        <f t="shared" si="203"/>
         <v>5</v>
       </c>
-      <c r="P102" s="70">
-        <f t="shared" si="122"/>
-        <v>4.9106132340868704</v>
-      </c>
       <c r="Q102" s="72">
-        <f t="shared" si="120"/>
-        <v>137.2757531888243</v>
-      </c>
-      <c r="R102" s="186"/>
-      <c r="S102" s="22"/>
+        <f t="shared" si="199"/>
+        <v>138.5764925901014</v>
+      </c>
+      <c r="R102" s="183"/>
+      <c r="S102" s="192"/>
       <c r="T102" s="22"/>
       <c r="U102" s="22"/>
       <c r="V102" s="22"/>
@@ -21762,7 +21625,7 @@
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
     </row>
-    <row r="103" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -21773,30 +21636,30 @@
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
+      <c r="K103" s="192"/>
       <c r="L103" s="148"/>
       <c r="M103" s="75">
-        <f>IF($Q96=MIN($Q92:$Q96),M98,M96)</f>
-        <v>4.7255856440735196</v>
+        <f t="shared" ref="M103:P103" si="204">IF($Q96=MIN($Q92:$Q96),M98,M96)</f>
+        <v>4.7725691298701198</v>
       </c>
       <c r="N103" s="75">
-        <f t="shared" ref="N103:P103" si="123">IF($Q96=MIN($Q92:$Q96),N98,N96)</f>
-        <v>4.7616971767421203</v>
+        <f t="shared" si="204"/>
+        <v>4.8711110806548872</v>
       </c>
       <c r="O103" s="75">
-        <f t="shared" si="123"/>
+        <f t="shared" si="204"/>
+        <v>4.9261657922271027</v>
+      </c>
+      <c r="P103" s="75">
+        <f t="shared" si="204"/>
         <v>5</v>
       </c>
-      <c r="P103" s="75">
-        <f t="shared" si="123"/>
-        <v>4.9205233369658457</v>
-      </c>
       <c r="Q103" s="73">
-        <f t="shared" si="120"/>
-        <v>137.18612362055569</v>
-      </c>
-      <c r="R103" s="186"/>
-      <c r="S103" s="22"/>
+        <f t="shared" si="199"/>
+        <v>138.66035832369985</v>
+      </c>
+      <c r="R103" s="183"/>
+      <c r="S103" s="192"/>
       <c r="T103" s="22"/>
       <c r="U103" s="22"/>
       <c r="V103" s="22"/>
@@ -21831,7 +21694,7 @@
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
     </row>
-    <row r="104" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -21842,35 +21705,35 @@
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
-      <c r="K104" s="22"/>
+      <c r="K104" s="192"/>
       <c r="L104" s="121" t="s">
         <v>60</v>
       </c>
       <c r="M104" s="122">
-        <f>IF($Q99=MIN($Q99:$Q103),-M99,M99)+IF($Q100=MIN($Q99:$Q103),-M100,M100)+IF($Q101=MIN($Q99:$Q103),-M101,M101)+IF($Q102=MIN($Q99:$Q103), M102,M102)+IF($Q103=MIN($Q99:$Q103),-M103,M103)</f>
-        <v>14.218193285798002</v>
+        <f t="shared" ref="M104" si="205">IF($Q99=MIN($Q99:$Q103),-M99,M99)+IF($Q100=MIN($Q99:$Q103),-M100,M100)+IF($Q101=MIN($Q99:$Q103),-M101,M101)+IF($Q102=MIN($Q99:$Q103), -M102,M102)+IF($Q103=MIN($Q99:$Q103),-M103,M103)</f>
+        <v>14.151989927175855</v>
       </c>
       <c r="N104" s="123">
-        <f>IF($Q99=MIN($Q99:$Q103),-N99,N99)+IF($Q100=MIN($Q99:$Q103),-N100,N100)+IF($Q101=MIN($Q99:$Q103),-N101,N101)+IF($Q102=MIN($Q99:$Q103), N102,N102)+IF($Q103=MIN($Q99:$Q103),-N103,N103)</f>
-        <v>14.415017261514453</v>
+        <f t="shared" ref="N104" si="206">IF($Q99=MIN($Q99:$Q103),-N99,N99)+IF($Q100=MIN($Q99:$Q103),-N100,N100)+IF($Q101=MIN($Q99:$Q103),-N101,N101)+IF($Q102=MIN($Q99:$Q103), -N102,N102)+IF($Q103=MIN($Q99:$Q103),-N103,N103)</f>
+        <v>14.81222758100547</v>
       </c>
       <c r="O104" s="123">
-        <f>IF($Q99=MIN($Q99:$Q103),-O99,O99)+IF($Q100=MIN($Q99:$Q103),-O100,O100)+IF($Q101=MIN($Q99:$Q103),-O101,O101)+IF($Q102=MIN($Q99:$Q103), O102,O102)+IF($Q103=MIN($Q99:$Q103),-O103,O103)</f>
+        <f t="shared" ref="O104" si="207">IF($Q99=MIN($Q99:$Q103),-O99,O99)+IF($Q100=MIN($Q99:$Q103),-O100,O100)+IF($Q101=MIN($Q99:$Q103),-O101,O101)+IF($Q102=MIN($Q99:$Q103), -O102,O102)+IF($Q103=MIN($Q99:$Q103),-O103,O103)</f>
+        <v>14.751378998014797</v>
+      </c>
+      <c r="P104" s="124">
+        <f t="shared" ref="P104" si="208">IF($Q99=MIN($Q99:$Q103),-P99,P99)+IF($Q100=MIN($Q99:$Q103),-P100,P100)+IF($Q101=MIN($Q99:$Q103),-P101,P101)+IF($Q102=MIN($Q99:$Q103), -P102,P102)+IF($Q103=MIN($Q99:$Q103),-P103,P103)</f>
         <v>15</v>
       </c>
-      <c r="P104" s="124">
-        <f>IF($Q99=MIN($Q99:$Q103),-P99,P99)+IF($Q100=MIN($Q99:$Q103),-P100,P100)+IF($Q101=MIN($Q99:$Q103),-P101,P101)+IF($Q102=MIN($Q99:$Q103), P102,P102)+IF($Q103=MIN($Q99:$Q103),-P103,P103)</f>
-        <v>14.750240596813878</v>
-      </c>
       <c r="Q104" s="178">
-        <f>MAX(M104:P104)</f>
+        <f t="shared" ref="Q104" si="209">MAX(M104:P104)</f>
         <v>15</v>
       </c>
       <c r="R104" s="180">
-        <f>Q104/5</f>
+        <f t="shared" ref="R104" si="210">Q104/5</f>
         <v>3</v>
       </c>
-      <c r="S104" s="22"/>
+      <c r="S104" s="192"/>
       <c r="T104" s="22"/>
       <c r="U104" s="22"/>
       <c r="V104" s="22"/>
@@ -21905,7 +21768,7 @@
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
     </row>
-    <row r="105" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:52" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -21916,29 +21779,29 @@
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
+      <c r="K105" s="192"/>
       <c r="L105" s="125" t="s">
         <v>61</v>
       </c>
       <c r="M105" s="126">
-        <f>M104/$R104</f>
-        <v>4.7393977619326675</v>
+        <f t="shared" ref="M105" si="211">M104/$R104</f>
+        <v>4.7173299757252849</v>
       </c>
       <c r="N105" s="127">
-        <f t="shared" ref="N105:P105" si="124">N104/$R104</f>
-        <v>4.8050057538381514</v>
+        <f t="shared" ref="N105" si="212">N104/$R104</f>
+        <v>4.9374091936684898</v>
       </c>
       <c r="O105" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="O105" si="213">O104/$R104</f>
+        <v>4.9171263326715993</v>
+      </c>
+      <c r="P105" s="128">
+        <f t="shared" ref="P105" si="214">P104/$R104</f>
         <v>5</v>
-      </c>
-      <c r="P105" s="128">
-        <f t="shared" si="124"/>
-        <v>4.916746865604626</v>
       </c>
       <c r="Q105" s="179"/>
       <c r="R105" s="181"/>
-      <c r="S105" s="22"/>
+      <c r="S105" s="192"/>
       <c r="T105" s="22"/>
       <c r="U105" s="22"/>
       <c r="V105" s="22"/>
@@ -21973,7 +21836,7 @@
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
     </row>
-    <row r="106" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -21984,15 +21847,15 @@
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
+      <c r="K106" s="192"/>
+      <c r="L106" s="192"/>
+      <c r="M106" s="192"/>
+      <c r="N106" s="192"/>
+      <c r="O106" s="192"/>
+      <c r="P106" s="192"/>
+      <c r="Q106" s="192"/>
+      <c r="R106" s="192"/>
+      <c r="S106" s="192"/>
       <c r="T106" s="22"/>
       <c r="U106" s="22"/>
       <c r="V106" s="22"/>
@@ -22027,7 +21890,7 @@
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
     </row>
-    <row r="107" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -22038,15 +21901,15 @@
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
+      <c r="K107" s="192"/>
+      <c r="L107" s="192"/>
+      <c r="M107" s="192"/>
+      <c r="N107" s="192"/>
+      <c r="O107" s="192"/>
+      <c r="P107" s="192"/>
+      <c r="Q107" s="192"/>
+      <c r="R107" s="192"/>
+      <c r="S107" s="192"/>
       <c r="T107" s="22"/>
       <c r="U107" s="22"/>
       <c r="V107" s="22"/>
@@ -22081,7 +21944,7 @@
       <c r="AY107" s="1"/>
       <c r="AZ107" s="1"/>
     </row>
-    <row r="108" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -22135,7 +21998,7 @@
       <c r="AY108" s="1"/>
       <c r="AZ108" s="1"/>
     </row>
-    <row r="109" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
@@ -22189,7 +22052,7 @@
       <c r="AY109" s="1"/>
       <c r="AZ109" s="1"/>
     </row>
-    <row r="110" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -22243,7 +22106,7 @@
       <c r="AY110" s="1"/>
       <c r="AZ110" s="1"/>
     </row>
-    <row r="111" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -22297,7 +22160,7 @@
       <c r="AY111" s="1"/>
       <c r="AZ111" s="1"/>
     </row>
-    <row r="112" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -22351,7 +22214,7 @@
       <c r="AY112" s="1"/>
       <c r="AZ112" s="1"/>
     </row>
-    <row r="113" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -22405,7 +22268,7 @@
       <c r="AY113" s="1"/>
       <c r="AZ113" s="1"/>
     </row>
-    <row r="114" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -22459,7 +22322,7 @@
       <c r="AY114" s="1"/>
       <c r="AZ114" s="1"/>
     </row>
-    <row r="115" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -22513,7 +22376,7 @@
       <c r="AY115" s="1"/>
       <c r="AZ115" s="1"/>
     </row>
-    <row r="116" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -22567,7 +22430,7 @@
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
     </row>
-    <row r="117" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -22621,7 +22484,7 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
     </row>
-    <row r="118" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
@@ -22675,7 +22538,7 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
     </row>
-    <row r="119" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -22729,7 +22592,7 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
     </row>
-    <row r="120" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -22783,7 +22646,7 @@
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
     </row>
-    <row r="121" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
@@ -22837,7 +22700,7 @@
       <c r="AY121" s="1"/>
       <c r="AZ121" s="1"/>
     </row>
-    <row r="122" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
@@ -22891,7 +22754,7 @@
       <c r="AY122" s="1"/>
       <c r="AZ122" s="1"/>
     </row>
-    <row r="123" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
@@ -22945,7 +22808,7 @@
       <c r="AY123" s="1"/>
       <c r="AZ123" s="1"/>
     </row>
-    <row r="124" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
@@ -22999,7 +22862,7 @@
       <c r="AY124" s="1"/>
       <c r="AZ124" s="1"/>
     </row>
-    <row r="125" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
@@ -23053,7 +22916,7 @@
       <c r="AY125" s="1"/>
       <c r="AZ125" s="1"/>
     </row>
-    <row r="126" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
@@ -23107,7 +22970,7 @@
       <c r="AY126" s="1"/>
       <c r="AZ126" s="1"/>
     </row>
-    <row r="127" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -23161,7 +23024,7 @@
       <c r="AY127" s="1"/>
       <c r="AZ127" s="1"/>
     </row>
-    <row r="128" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
@@ -23215,7 +23078,7 @@
       <c r="AY128" s="1"/>
       <c r="AZ128" s="1"/>
     </row>
-    <row r="129" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
@@ -23269,7 +23132,7 @@
       <c r="AY129" s="1"/>
       <c r="AZ129" s="1"/>
     </row>
-    <row r="130" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
@@ -23323,7 +23186,7 @@
       <c r="AY130" s="1"/>
       <c r="AZ130" s="1"/>
     </row>
-    <row r="131" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
@@ -23377,7 +23240,7 @@
       <c r="AY131" s="1"/>
       <c r="AZ131" s="1"/>
     </row>
-    <row r="132" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
@@ -23431,7 +23294,7 @@
       <c r="AY132" s="1"/>
       <c r="AZ132" s="1"/>
     </row>
-    <row r="133" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
@@ -23485,7 +23348,7 @@
       <c r="AY133" s="1"/>
       <c r="AZ133" s="1"/>
     </row>
-    <row r="134" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
@@ -23539,7 +23402,7 @@
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
     </row>
-    <row r="135" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
@@ -23593,7 +23456,7 @@
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
     </row>
-    <row r="136" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
@@ -23647,7 +23510,7 @@
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
     </row>
-    <row r="137" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
@@ -23701,7 +23564,7 @@
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
     </row>
-    <row r="138" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
@@ -23755,7 +23618,7 @@
       <c r="AY138" s="1"/>
       <c r="AZ138" s="1"/>
     </row>
-    <row r="139" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
@@ -23809,7 +23672,7 @@
       <c r="AY139" s="1"/>
       <c r="AZ139" s="1"/>
     </row>
-    <row r="140" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -23863,7 +23726,7 @@
       <c r="AY140" s="1"/>
       <c r="AZ140" s="1"/>
     </row>
-    <row r="141" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -23917,7 +23780,7 @@
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
     </row>
-    <row r="142" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -23971,7 +23834,7 @@
       <c r="AY142" s="1"/>
       <c r="AZ142" s="1"/>
     </row>
-    <row r="143" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -24025,7 +23888,7 @@
       <c r="AY143" s="1"/>
       <c r="AZ143" s="1"/>
     </row>
-    <row r="144" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -24079,7 +23942,7 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
     </row>
-    <row r="145" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -24133,7 +23996,7 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
     </row>
-    <row r="146" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -24187,7 +24050,7 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
     </row>
-    <row r="147" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -24241,7 +24104,7 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
     </row>
-    <row r="148" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -24295,7 +24158,7 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
     </row>
-    <row r="149" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -24349,7 +24212,7 @@
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
     </row>
-    <row r="150" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -24403,7 +24266,7 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
     </row>
-    <row r="151" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -24457,7 +24320,7 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
     </row>
-    <row r="152" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -24511,7 +24374,7 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
     </row>
-    <row r="153" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -24565,7 +24428,7 @@
       <c r="AY153" s="1"/>
       <c r="AZ153" s="1"/>
     </row>
-    <row r="154" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -24619,7 +24482,7 @@
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
     </row>
-    <row r="155" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -24673,7 +24536,7 @@
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
     </row>
-    <row r="156" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -24727,7 +24590,7 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
     </row>
-    <row r="157" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -24781,7 +24644,7 @@
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
     </row>
-    <row r="158" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -24835,7 +24698,7 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
     </row>
-    <row r="159" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -24889,7 +24752,7 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
     </row>
-    <row r="160" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -24943,7 +24806,7 @@
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
     </row>
-    <row r="161" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -24997,7 +24860,7 @@
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
     </row>
-    <row r="162" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -25051,7 +24914,7 @@
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
     </row>
-    <row r="163" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -25105,7 +24968,7 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
     </row>
-    <row r="164" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -25159,7 +25022,7 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
     </row>
-    <row r="165" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -25213,7 +25076,7 @@
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
     </row>
-    <row r="166" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -25267,7 +25130,7 @@
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
     </row>
-    <row r="167" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -25321,7 +25184,7 @@
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
     </row>
-    <row r="168" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -25375,7 +25238,7 @@
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
     </row>
-    <row r="169" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -25429,7 +25292,7 @@
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
     </row>
-    <row r="170" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -25483,7 +25346,7 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
     </row>
-    <row r="171" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -25537,7 +25400,7 @@
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
     </row>
-    <row r="172" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -25591,7 +25454,7 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
     </row>
-    <row r="173" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -25645,7 +25508,7 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
     </row>
-    <row r="174" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -25699,7 +25562,7 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
     </row>
-    <row r="175" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -25753,7 +25616,7 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
     </row>
-    <row r="176" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -25807,7 +25670,7 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
     </row>
-    <row r="177" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -25861,7 +25724,7 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
     </row>
-    <row r="178" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -25915,7 +25778,7 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
     </row>
-    <row r="179" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -25969,7 +25832,7 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
     </row>
-    <row r="180" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -26023,7 +25886,7 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
     </row>
-    <row r="181" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -26077,7 +25940,7 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
     </row>
-    <row r="182" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -26131,7 +25994,7 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
     </row>
-    <row r="183" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -26185,7 +26048,7 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
     </row>
-    <row r="184" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -26239,7 +26102,7 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
     </row>
-    <row r="185" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -26293,7 +26156,7 @@
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
     </row>
-    <row r="186" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -26347,7 +26210,7 @@
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
     </row>
-    <row r="187" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -26401,7 +26264,7 @@
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
     </row>
-    <row r="188" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -26455,7 +26318,7 @@
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
     </row>
-    <row r="189" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -26509,7 +26372,7 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
     </row>
-    <row r="190" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -26563,7 +26426,7 @@
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
     </row>
-    <row r="191" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -26617,7 +26480,7 @@
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
     </row>
-    <row r="192" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -26671,7 +26534,7 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
     </row>
-    <row r="193" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -26725,7 +26588,7 @@
       <c r="AY193" s="1"/>
       <c r="AZ193" s="1"/>
     </row>
-    <row r="194" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -26779,7 +26642,7 @@
       <c r="AY194" s="1"/>
       <c r="AZ194" s="1"/>
     </row>
-    <row r="195" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -26833,7 +26696,7 @@
       <c r="AY195" s="1"/>
       <c r="AZ195" s="1"/>
     </row>
-    <row r="196" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -26887,7 +26750,7 @@
       <c r="AY196" s="1"/>
       <c r="AZ196" s="1"/>
     </row>
-    <row r="197" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -26941,7 +26804,7 @@
       <c r="AY197" s="1"/>
       <c r="AZ197" s="1"/>
     </row>
-    <row r="198" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -26995,7 +26858,7 @@
       <c r="AY198" s="1"/>
       <c r="AZ198" s="1"/>
     </row>
-    <row r="199" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -27049,7 +26912,7 @@
       <c r="AY199" s="1"/>
       <c r="AZ199" s="1"/>
     </row>
-    <row r="200" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -27103,7 +26966,7 @@
       <c r="AY200" s="1"/>
       <c r="AZ200" s="1"/>
     </row>
-    <row r="201" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -27157,7 +27020,7 @@
       <c r="AY201" s="1"/>
       <c r="AZ201" s="1"/>
     </row>
-    <row r="202" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -27211,7 +27074,7 @@
       <c r="AY202" s="1"/>
       <c r="AZ202" s="1"/>
     </row>
-    <row r="203" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -27265,7 +27128,7 @@
       <c r="AY203" s="1"/>
       <c r="AZ203" s="1"/>
     </row>
-    <row r="204" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -27319,7 +27182,7 @@
       <c r="AY204" s="1"/>
       <c r="AZ204" s="1"/>
     </row>
-    <row r="205" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -27373,7 +27236,7 @@
       <c r="AY205" s="1"/>
       <c r="AZ205" s="1"/>
     </row>
-    <row r="206" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -27427,7 +27290,7 @@
       <c r="AY206" s="1"/>
       <c r="AZ206" s="1"/>
     </row>
-    <row r="207" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -27481,7 +27344,7 @@
       <c r="AY207" s="1"/>
       <c r="AZ207" s="1"/>
     </row>
-    <row r="208" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -27535,7 +27398,7 @@
       <c r="AY208" s="1"/>
       <c r="AZ208" s="1"/>
     </row>
-    <row r="209" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -27589,7 +27452,7 @@
       <c r="AY209" s="1"/>
       <c r="AZ209" s="1"/>
     </row>
-    <row r="210" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -27643,7 +27506,7 @@
       <c r="AY210" s="1"/>
       <c r="AZ210" s="1"/>
     </row>
-    <row r="211" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -27697,7 +27560,7 @@
       <c r="AY211" s="1"/>
       <c r="AZ211" s="1"/>
     </row>
-    <row r="212" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -27751,7 +27614,7 @@
       <c r="AY212" s="1"/>
       <c r="AZ212" s="1"/>
     </row>
-    <row r="213" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -27805,7 +27668,7 @@
       <c r="AY213" s="1"/>
       <c r="AZ213" s="1"/>
     </row>
-    <row r="214" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -27859,7 +27722,7 @@
       <c r="AY214" s="1"/>
       <c r="AZ214" s="1"/>
     </row>
-    <row r="215" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -27913,7 +27776,7 @@
       <c r="AY215" s="1"/>
       <c r="AZ215" s="1"/>
     </row>
-    <row r="216" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -27967,7 +27830,7 @@
       <c r="AY216" s="1"/>
       <c r="AZ216" s="1"/>
     </row>
-    <row r="217" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -28021,7 +27884,7 @@
       <c r="AY217" s="1"/>
       <c r="AZ217" s="1"/>
     </row>
-    <row r="218" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -28075,7 +27938,7 @@
       <c r="AY218" s="1"/>
       <c r="AZ218" s="1"/>
     </row>
-    <row r="219" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -28129,7 +27992,7 @@
       <c r="AY219" s="1"/>
       <c r="AZ219" s="1"/>
     </row>
-    <row r="220" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -28183,7 +28046,7 @@
       <c r="AY220" s="1"/>
       <c r="AZ220" s="1"/>
     </row>
-    <row r="221" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -28237,7 +28100,7 @@
       <c r="AY221" s="1"/>
       <c r="AZ221" s="1"/>
     </row>
-    <row r="222" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -28291,7 +28154,7 @@
       <c r="AY222" s="1"/>
       <c r="AZ222" s="1"/>
     </row>
-    <row r="223" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -28345,7 +28208,7 @@
       <c r="AY223" s="1"/>
       <c r="AZ223" s="1"/>
     </row>
-    <row r="224" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -28399,7 +28262,7 @@
       <c r="AY224" s="1"/>
       <c r="AZ224" s="1"/>
     </row>
-    <row r="225" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -28453,7 +28316,7 @@
       <c r="AY225" s="1"/>
       <c r="AZ225" s="1"/>
     </row>
-    <row r="226" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -28507,7 +28370,7 @@
       <c r="AY226" s="1"/>
       <c r="AZ226" s="1"/>
     </row>
-    <row r="227" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -28561,7 +28424,7 @@
       <c r="AY227" s="1"/>
       <c r="AZ227" s="1"/>
     </row>
-    <row r="228" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -28615,7 +28478,7 @@
       <c r="AY228" s="1"/>
       <c r="AZ228" s="1"/>
     </row>
-    <row r="229" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -28669,7 +28532,7 @@
       <c r="AY229" s="1"/>
       <c r="AZ229" s="1"/>
     </row>
-    <row r="230" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -28723,7 +28586,7 @@
       <c r="AY230" s="1"/>
       <c r="AZ230" s="1"/>
     </row>
-    <row r="231" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -28777,7 +28640,7 @@
       <c r="AY231" s="1"/>
       <c r="AZ231" s="1"/>
     </row>
-    <row r="232" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -28831,7 +28694,7 @@
       <c r="AY232" s="1"/>
       <c r="AZ232" s="1"/>
     </row>
-    <row r="233" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -28885,7 +28748,7 @@
       <c r="AY233" s="1"/>
       <c r="AZ233" s="1"/>
     </row>
-    <row r="234" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -28939,7 +28802,7 @@
       <c r="AY234" s="1"/>
       <c r="AZ234" s="1"/>
     </row>
-    <row r="235" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -28993,7 +28856,7 @@
       <c r="AY235" s="1"/>
       <c r="AZ235" s="1"/>
     </row>
-    <row r="236" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -29047,7 +28910,7 @@
       <c r="AY236" s="1"/>
       <c r="AZ236" s="1"/>
     </row>
-    <row r="237" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -29101,7 +28964,7 @@
       <c r="AY237" s="1"/>
       <c r="AZ237" s="1"/>
     </row>
-    <row r="238" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -29155,7 +29018,7 @@
       <c r="AY238" s="1"/>
       <c r="AZ238" s="1"/>
     </row>
-    <row r="239" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -29209,7 +29072,7 @@
       <c r="AY239" s="1"/>
       <c r="AZ239" s="1"/>
     </row>
-    <row r="240" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -29263,7 +29126,7 @@
       <c r="AY240" s="1"/>
       <c r="AZ240" s="1"/>
     </row>
-    <row r="241" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -29317,7 +29180,7 @@
       <c r="AY241" s="1"/>
       <c r="AZ241" s="1"/>
     </row>
-    <row r="242" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -29371,7 +29234,7 @@
       <c r="AY242" s="1"/>
       <c r="AZ242" s="1"/>
     </row>
-    <row r="243" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -29425,7 +29288,7 @@
       <c r="AY243" s="1"/>
       <c r="AZ243" s="1"/>
     </row>
-    <row r="244" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -29479,7 +29342,7 @@
       <c r="AY244" s="1"/>
       <c r="AZ244" s="1"/>
     </row>
-    <row r="245" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -29533,7 +29396,7 @@
       <c r="AY245" s="1"/>
       <c r="AZ245" s="1"/>
     </row>
-    <row r="246" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -29587,7 +29450,7 @@
       <c r="AY246" s="1"/>
       <c r="AZ246" s="1"/>
     </row>
-    <row r="247" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -29641,7 +29504,7 @@
       <c r="AY247" s="1"/>
       <c r="AZ247" s="1"/>
     </row>
-    <row r="248" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -29695,7 +29558,7 @@
       <c r="AY248" s="1"/>
       <c r="AZ248" s="1"/>
     </row>
-    <row r="249" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -29749,7 +29612,7 @@
       <c r="AY249" s="1"/>
       <c r="AZ249" s="1"/>
     </row>
-    <row r="250" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -29803,7 +29666,7 @@
       <c r="AY250" s="1"/>
       <c r="AZ250" s="1"/>
     </row>
-    <row r="251" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -29857,7 +29720,7 @@
       <c r="AY251" s="1"/>
       <c r="AZ251" s="1"/>
     </row>
-    <row r="252" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -29911,7 +29774,7 @@
       <c r="AY252" s="1"/>
       <c r="AZ252" s="1"/>
     </row>
-    <row r="253" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -29965,7 +29828,7 @@
       <c r="AY253" s="1"/>
       <c r="AZ253" s="1"/>
     </row>
-    <row r="254" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -30019,7 +29882,7 @@
       <c r="AY254" s="1"/>
       <c r="AZ254" s="1"/>
     </row>
-    <row r="255" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -30073,7 +29936,7 @@
       <c r="AY255" s="1"/>
       <c r="AZ255" s="1"/>
     </row>
-    <row r="256" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -30127,7 +29990,7 @@
       <c r="AY256" s="1"/>
       <c r="AZ256" s="1"/>
     </row>
-    <row r="257" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -30181,7 +30044,7 @@
       <c r="AY257" s="1"/>
       <c r="AZ257" s="1"/>
     </row>
-    <row r="258" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -30235,7 +30098,7 @@
       <c r="AY258" s="1"/>
       <c r="AZ258" s="1"/>
     </row>
-    <row r="259" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -30289,7 +30152,7 @@
       <c r="AY259" s="1"/>
       <c r="AZ259" s="1"/>
     </row>
-    <row r="260" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -30343,7 +30206,7 @@
       <c r="AY260" s="1"/>
       <c r="AZ260" s="1"/>
     </row>
-    <row r="261" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -30397,7 +30260,7 @@
       <c r="AY261" s="1"/>
       <c r="AZ261" s="1"/>
     </row>
-    <row r="262" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -30451,7 +30314,7 @@
       <c r="AY262" s="1"/>
       <c r="AZ262" s="1"/>
     </row>
-    <row r="263" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -30505,7 +30368,7 @@
       <c r="AY263" s="1"/>
       <c r="AZ263" s="1"/>
     </row>
-    <row r="264" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -30559,7 +30422,7 @@
       <c r="AY264" s="1"/>
       <c r="AZ264" s="1"/>
     </row>
-    <row r="265" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -30613,7 +30476,7 @@
       <c r="AY265" s="1"/>
       <c r="AZ265" s="1"/>
     </row>
-    <row r="266" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -30667,7 +30530,7 @@
       <c r="AY266" s="1"/>
       <c r="AZ266" s="1"/>
     </row>
-    <row r="267" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -30721,7 +30584,7 @@
       <c r="AY267" s="1"/>
       <c r="AZ267" s="1"/>
     </row>
-    <row r="268" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -30775,7 +30638,7 @@
       <c r="AY268" s="1"/>
       <c r="AZ268" s="1"/>
     </row>
-    <row r="269" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -30829,7 +30692,7 @@
       <c r="AY269" s="1"/>
       <c r="AZ269" s="1"/>
     </row>
-    <row r="270" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -30883,7 +30746,7 @@
       <c r="AY270" s="1"/>
       <c r="AZ270" s="1"/>
     </row>
-    <row r="271" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -30937,7 +30800,7 @@
       <c r="AY271" s="1"/>
       <c r="AZ271" s="1"/>
     </row>
-    <row r="272" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -30991,7 +30854,7 @@
       <c r="AY272" s="1"/>
       <c r="AZ272" s="1"/>
     </row>
-    <row r="273" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -31045,7 +30908,7 @@
       <c r="AY273" s="1"/>
       <c r="AZ273" s="1"/>
     </row>
-    <row r="274" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -31099,7 +30962,7 @@
       <c r="AY274" s="1"/>
       <c r="AZ274" s="1"/>
     </row>
-    <row r="275" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -31153,7 +31016,7 @@
       <c r="AY275" s="1"/>
       <c r="AZ275" s="1"/>
     </row>
-    <row r="276" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -31207,7 +31070,7 @@
       <c r="AY276" s="1"/>
       <c r="AZ276" s="1"/>
     </row>
-    <row r="277" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -31261,7 +31124,7 @@
       <c r="AY277" s="1"/>
       <c r="AZ277" s="1"/>
     </row>
-    <row r="278" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -31315,7 +31178,7 @@
       <c r="AY278" s="1"/>
       <c r="AZ278" s="1"/>
     </row>
-    <row r="279" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -31369,7 +31232,7 @@
       <c r="AY279" s="1"/>
       <c r="AZ279" s="1"/>
     </row>
-    <row r="280" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -31423,7 +31286,7 @@
       <c r="AY280" s="1"/>
       <c r="AZ280" s="1"/>
     </row>
-    <row r="281" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -31477,7 +31340,7 @@
       <c r="AY281" s="1"/>
       <c r="AZ281" s="1"/>
     </row>
-    <row r="282" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -31531,7 +31394,7 @@
       <c r="AY282" s="1"/>
       <c r="AZ282" s="1"/>
     </row>
-    <row r="283" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -31585,7 +31448,7 @@
       <c r="AY283" s="1"/>
       <c r="AZ283" s="1"/>
     </row>
-    <row r="284" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -31639,7 +31502,7 @@
       <c r="AY284" s="1"/>
       <c r="AZ284" s="1"/>
     </row>
-    <row r="285" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -31693,7 +31556,7 @@
       <c r="AY285" s="1"/>
       <c r="AZ285" s="1"/>
     </row>
-    <row r="286" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -31747,7 +31610,7 @@
       <c r="AY286" s="1"/>
       <c r="AZ286" s="1"/>
     </row>
-    <row r="287" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -31801,7 +31664,7 @@
       <c r="AY287" s="1"/>
       <c r="AZ287" s="1"/>
     </row>
-    <row r="288" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -31855,7 +31718,7 @@
       <c r="AY288" s="1"/>
       <c r="AZ288" s="1"/>
     </row>
-    <row r="289" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -31909,7 +31772,7 @@
       <c r="AY289" s="1"/>
       <c r="AZ289" s="1"/>
     </row>
-    <row r="290" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -31963,7 +31826,7 @@
       <c r="AY290" s="1"/>
       <c r="AZ290" s="1"/>
     </row>
-    <row r="291" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -32017,7 +31880,7 @@
       <c r="AY291" s="1"/>
       <c r="AZ291" s="1"/>
     </row>
-    <row r="292" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -32071,7 +31934,7 @@
       <c r="AY292" s="1"/>
       <c r="AZ292" s="1"/>
     </row>
-    <row r="293" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -32125,7 +31988,7 @@
       <c r="AY293" s="1"/>
       <c r="AZ293" s="1"/>
     </row>
-    <row r="294" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -32179,7 +32042,7 @@
       <c r="AY294" s="1"/>
       <c r="AZ294" s="1"/>
     </row>
-    <row r="295" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -32233,7 +32096,7 @@
       <c r="AY295" s="1"/>
       <c r="AZ295" s="1"/>
     </row>
-    <row r="296" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -32287,7 +32150,7 @@
       <c r="AY296" s="1"/>
       <c r="AZ296" s="1"/>
     </row>
-    <row r="297" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -32341,7 +32204,7 @@
       <c r="AY297" s="1"/>
       <c r="AZ297" s="1"/>
     </row>
-    <row r="298" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -32395,7 +32258,7 @@
       <c r="AY298" s="1"/>
       <c r="AZ298" s="1"/>
     </row>
-    <row r="299" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -32449,7 +32312,7 @@
       <c r="AY299" s="1"/>
       <c r="AZ299" s="1"/>
     </row>
-    <row r="300" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -32503,7 +32366,7 @@
       <c r="AY300" s="1"/>
       <c r="AZ300" s="1"/>
     </row>
-    <row r="301" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -32559,50 +32422,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="R92:R96"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="R99:R103"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="L85:L89"/>
-    <mergeCell ref="R85:R89"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="R90:R91"/>
-    <mergeCell ref="L71:L75"/>
-    <mergeCell ref="R71:R75"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="L78:L82"/>
-    <mergeCell ref="R78:R82"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="L64:L68"/>
-    <mergeCell ref="R64:R68"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="R50:R54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L57:L61"/>
-    <mergeCell ref="R57:R61"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="R43:R47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="R36:R40"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="L3:L7"/>
@@ -32619,9 +32438,53 @@
     <mergeCell ref="R22:R26"/>
     <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="R43:R47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="R50:R54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="L57:L61"/>
+    <mergeCell ref="R57:R61"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="L64:L68"/>
+    <mergeCell ref="R64:R68"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="L71:L75"/>
+    <mergeCell ref="R71:R75"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="L78:L82"/>
+    <mergeCell ref="R78:R82"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="L85:L89"/>
+    <mergeCell ref="R85:R89"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="R92:R96"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="R99:R103"/>
   </mergeCells>
   <conditionalFormatting sqref="M8:Q12">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$Q8=MIN($Q$8:$Q$12)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32650,7 +32513,7 @@
       <formula>$Q19=MIN($Q15:$Q19)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3 R8 R15 R22 R29 R36 R43 R50 R57 R64 R71 R78 R78 R85 R92 R99">
+  <conditionalFormatting sqref="R3 R8 R15 R22 R29 R36 R43 R50 R57 R64 R71 R78 R85 R92 R99">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
